--- a/data/flea_dog_cat_length_weight.xlsx
+++ b/data/flea_dog_cat_length_weight.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">animal</t>
   </si>
   <si>
     <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rep</t>
   </si>
   <si>
     <t xml:space="preserve">weight</t>
@@ -383,6807 +380,5604 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6.02</v>
       </c>
       <c r="D2" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E2" t="n">
         <v>16.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5.99</v>
       </c>
       <c r="D3" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E3" t="n">
         <v>16.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8.05</v>
       </c>
       <c r="D4" t="n">
-        <v>8.05</v>
-      </c>
-      <c r="E4" t="n">
         <v>18.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6.71</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E5" t="n">
         <v>19.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6.19</v>
       </c>
       <c r="D6" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="E6" t="n">
         <v>17.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8.18</v>
       </c>
       <c r="D7" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E7" t="n">
         <v>14.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>7.46</v>
       </c>
       <c r="D8" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E8" t="n">
         <v>15.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>5.58</v>
       </c>
       <c r="D9" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="E9" t="n">
         <v>15.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>6.19</v>
       </c>
       <c r="D10" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="E10" t="n">
         <v>19.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>7.53</v>
       </c>
       <c r="D11" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E11" t="n">
         <v>15.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>7.12</v>
       </c>
       <c r="D12" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="E12" t="n">
         <v>14.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>6.18</v>
       </c>
       <c r="D13" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E13" t="n">
         <v>17.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>7.04</v>
       </c>
       <c r="D14" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="E14" t="n">
         <v>14.07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>5.91</v>
       </c>
       <c r="D15" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E15" t="n">
         <v>15.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>6.84</v>
       </c>
       <c r="D16" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E16" t="n">
         <v>15.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>4.86</v>
       </c>
       <c r="D17" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="E17" t="n">
         <v>14.79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>6.18</v>
       </c>
       <c r="D18" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E18" t="n">
         <v>15.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>6.77</v>
       </c>
       <c r="D19" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="E19" t="n">
         <v>16.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" t="n">
         <v>16.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>6.75</v>
       </c>
       <c r="D21" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E21" t="n">
         <v>16.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="D22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E22" t="n">
         <v>14.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>4.62</v>
       </c>
       <c r="D23" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="E23" t="n">
         <v>16.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>5.22</v>
       </c>
       <c r="D24" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="E24" t="n">
         <v>17.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>5.81</v>
       </c>
       <c r="D25" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E25" t="n">
         <v>15.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>6.46</v>
       </c>
       <c r="D26" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="E26" t="n">
         <v>19.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>26</v>
+        <v>7.71</v>
       </c>
       <c r="D27" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E27" t="n">
         <v>17.51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>8.15</v>
       </c>
       <c r="D28" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E28" t="n">
         <v>14.84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>7.17</v>
       </c>
       <c r="D29" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E29" t="n">
         <v>14.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>7.17</v>
       </c>
       <c r="D30" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E30" t="n">
         <v>13.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>6.12</v>
       </c>
       <c r="D31" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="E31" t="n">
         <v>17.43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>5.35</v>
       </c>
       <c r="D32" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E32" t="n">
         <v>15.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>6.07</v>
       </c>
       <c r="D33" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E33" t="n">
         <v>17.84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>7.5</v>
       </c>
       <c r="D34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E34" t="n">
         <v>16.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>5.8</v>
       </c>
       <c r="D35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E35" t="n">
         <v>16.43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>6.58</v>
       </c>
       <c r="D36" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E36" t="n">
         <v>15.48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>36</v>
+        <v>5.63</v>
       </c>
       <c r="D37" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E37" t="n">
         <v>18.53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>6.19</v>
       </c>
       <c r="D38" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="E38" t="n">
         <v>17.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>38</v>
+        <v>6.92</v>
       </c>
       <c r="D39" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="E39" t="n">
         <v>15.59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>39</v>
+        <v>8.01</v>
       </c>
       <c r="D40" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E40" t="n">
         <v>16.37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>7.88</v>
       </c>
       <c r="D41" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E41" t="n">
         <v>15.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>7.93</v>
       </c>
       <c r="D42" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="E42" t="n">
         <v>18.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>42</v>
+        <v>6.8</v>
       </c>
       <c r="D43" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E43" t="n">
         <v>14.53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>43</v>
+        <v>8.17</v>
       </c>
       <c r="D44" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="E44" t="n">
         <v>14.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>44</v>
+        <v>5.91</v>
       </c>
       <c r="D45" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E45" t="n">
         <v>16.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>5.82</v>
       </c>
       <c r="D46" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E46" t="n">
         <v>17.98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>8.04</v>
       </c>
       <c r="D47" t="n">
-        <v>8.04</v>
-      </c>
-      <c r="E47" t="n">
         <v>14.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>47</v>
+        <v>5.97</v>
       </c>
       <c r="D48" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E48" t="n">
         <v>15.47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>6.3</v>
       </c>
       <c r="D49" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E49" t="n">
         <v>13.27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>49</v>
+        <v>6.21</v>
       </c>
       <c r="D50" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="E50" t="n">
         <v>12.97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>4.75</v>
       </c>
       <c r="D51" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E51" t="n">
         <v>12.86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>51</v>
+        <v>7.36</v>
       </c>
       <c r="D52" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E52" t="n">
         <v>19.14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>7.05</v>
       </c>
       <c r="D53" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="E53" t="n">
         <v>16.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>53</v>
+        <v>7.28</v>
       </c>
       <c r="D54" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E54" t="n">
         <v>14.55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>54</v>
+        <v>7.06</v>
       </c>
       <c r="D55" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="E55" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>55</v>
+        <v>6.51</v>
       </c>
       <c r="D56" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="E56" t="n">
         <v>16.03</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>56</v>
+        <v>9.8</v>
       </c>
       <c r="D57" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="E57" t="n">
         <v>11.88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>57</v>
+        <v>6.74</v>
       </c>
       <c r="D58" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="E58" t="n">
         <v>15.59</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>58</v>
+        <v>7.82</v>
       </c>
       <c r="D59" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="E59" t="n">
         <v>15.39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>59</v>
+        <v>7.11</v>
       </c>
       <c r="D60" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E60" t="n">
         <v>13.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>60</v>
+        <v>8.45</v>
       </c>
       <c r="D61" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="E61" t="n">
         <v>14.67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>61</v>
+        <v>7.05</v>
       </c>
       <c r="D62" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="E62" t="n">
         <v>17.36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>62</v>
+        <v>6.39</v>
       </c>
       <c r="D63" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="E63" t="n">
         <v>14.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>63</v>
+        <v>7.21</v>
       </c>
       <c r="D64" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E64" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>64</v>
+        <v>6.29</v>
       </c>
       <c r="D65" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E65" t="n">
         <v>14.76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>65</v>
+        <v>8.03</v>
       </c>
       <c r="D66" t="n">
-        <v>8.03</v>
-      </c>
-      <c r="E66" t="n">
         <v>16.96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>66</v>
+        <v>6.92</v>
       </c>
       <c r="D67" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="E67" t="n">
         <v>17.05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>67</v>
+        <v>7.55</v>
       </c>
       <c r="D68" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E68" t="n">
         <v>16.91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>68</v>
+        <v>6.15</v>
       </c>
       <c r="D69" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E69" t="n">
         <v>13.28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>69</v>
+        <v>7.51</v>
       </c>
       <c r="D70" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="E70" t="n">
         <v>17.52</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>70</v>
+        <v>7.22</v>
       </c>
       <c r="D71" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="E71" t="n">
         <v>13.39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>71</v>
+        <v>6.89</v>
       </c>
       <c r="D72" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="E72" t="n">
         <v>17.59</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>72</v>
+        <v>7.51</v>
       </c>
       <c r="D73" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="E73" t="n">
         <v>17.77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>73</v>
+        <v>6.71</v>
       </c>
       <c r="D74" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E74" t="n">
         <v>16.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>74</v>
+        <v>6.81</v>
       </c>
       <c r="D75" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="E75" t="n">
         <v>15.75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>75</v>
+        <v>8.94</v>
       </c>
       <c r="D76" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E76" t="n">
         <v>16.12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>76</v>
+        <v>8.62</v>
       </c>
       <c r="D77" t="n">
-        <v>8.62</v>
-      </c>
-      <c r="E77" t="n">
         <v>15.34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>77</v>
+        <v>7.83</v>
       </c>
       <c r="D78" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="E78" t="n">
         <v>15.83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>78</v>
+        <v>8.41</v>
       </c>
       <c r="D79" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="E79" t="n">
         <v>14.37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>79</v>
+        <v>7.8</v>
       </c>
       <c r="D80" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E80" t="n">
         <v>16.31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>80</v>
+        <v>6.34</v>
       </c>
       <c r="D81" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E81" t="n">
         <v>14.95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>81</v>
+        <v>6.25</v>
       </c>
       <c r="D82" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E82" t="n">
         <v>14.47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>82</v>
+        <v>5.75</v>
       </c>
       <c r="D83" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E83" t="n">
         <v>12.94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>83</v>
+        <v>6.39</v>
       </c>
       <c r="D84" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="E84" t="n">
         <v>13.66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>84</v>
+        <v>6.23</v>
       </c>
       <c r="D85" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="E85" t="n">
         <v>11.82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>85</v>
+        <v>7.28</v>
       </c>
       <c r="D86" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E86" t="n">
         <v>17.68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>86</v>
+        <v>7.19</v>
       </c>
       <c r="D87" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E87" t="n">
         <v>18.66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>87</v>
+        <v>5.82</v>
       </c>
       <c r="D88" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E88" t="n">
         <v>18.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>88</v>
+        <v>6.54</v>
       </c>
       <c r="D89" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E89" t="n">
         <v>18.79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>89</v>
+        <v>7.31</v>
       </c>
       <c r="D90" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E90" t="n">
         <v>15.17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>90</v>
+        <v>6.84</v>
       </c>
       <c r="D91" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E91" t="n">
         <v>19.04</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>91</v>
+        <v>7.41</v>
       </c>
       <c r="D92" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E92" t="n">
         <v>17.86</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>92</v>
+        <v>6.39</v>
       </c>
       <c r="D93" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="E93" t="n">
         <v>12.72</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>93</v>
+        <v>7.33</v>
       </c>
       <c r="D94" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E94" t="n">
         <v>16.11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>94</v>
+        <v>5.69</v>
       </c>
       <c r="D95" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E95" t="n">
         <v>12.76</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>95</v>
+        <v>6.23</v>
       </c>
       <c r="D96" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="E96" t="n">
         <v>16.48</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>96</v>
+        <v>6.01</v>
       </c>
       <c r="D97" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E97" t="n">
         <v>15.15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>97</v>
+        <v>7.19</v>
       </c>
       <c r="D98" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E98" t="n">
         <v>14.77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>98</v>
+        <v>5.45</v>
       </c>
       <c r="D99" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="E99" t="n">
         <v>17.27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>99</v>
+        <v>6.08</v>
       </c>
       <c r="D100" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E100" t="n">
         <v>13.98</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>100</v>
+        <v>6.22</v>
       </c>
       <c r="D101" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E101" t="n">
         <v>14.38</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>8.16</v>
       </c>
       <c r="D102" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="E102" t="n">
         <v>19.76</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>9.3</v>
       </c>
       <c r="D103" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E103" t="n">
         <v>18.34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>8.35</v>
       </c>
       <c r="D104" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E104" t="n">
         <v>21.51</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>9.79</v>
       </c>
       <c r="D105" t="n">
-        <v>9.79</v>
-      </c>
-      <c r="E105" t="n">
         <v>18.88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>8.92</v>
       </c>
       <c r="D106" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E106" t="n">
         <v>19.88</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>9.63</v>
       </c>
       <c r="D107" t="n">
-        <v>9.63</v>
-      </c>
-      <c r="E107" t="n">
         <v>20.78</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>9.87</v>
       </c>
       <c r="D108" t="n">
-        <v>9.87</v>
-      </c>
-      <c r="E108" t="n">
         <v>16.54</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>8.98</v>
       </c>
       <c r="D109" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E109" t="n">
         <v>16.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="n">
-        <v>9</v>
+        <v>7.19</v>
       </c>
       <c r="D110" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E110" t="n">
         <v>23.53</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>9.69</v>
       </c>
       <c r="D111" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="E111" t="n">
         <v>19.95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>9.93</v>
       </c>
       <c r="D112" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="E112" t="n">
         <v>19.71</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>8.28</v>
       </c>
       <c r="D113" t="n">
-        <v>8.28</v>
-      </c>
-      <c r="E113" t="n">
         <v>20.3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v>13</v>
+        <v>8.44</v>
       </c>
       <c r="D114" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="E114" t="n">
         <v>24.13</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>14</v>
+        <v>9.33</v>
       </c>
       <c r="D115" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="E115" t="n">
         <v>18.08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="n">
-        <v>15</v>
+        <v>9.69</v>
       </c>
       <c r="D116" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="E116" t="n">
         <v>23.49</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="n">
-        <v>16</v>
+        <v>8.79</v>
       </c>
       <c r="D117" t="n">
-        <v>8.79</v>
-      </c>
-      <c r="E117" t="n">
         <v>19.42</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="n">
-        <v>17</v>
+        <v>8.51</v>
       </c>
       <c r="D118" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="E118" t="n">
         <v>20.09</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="n">
-        <v>18</v>
+        <v>8.31</v>
       </c>
       <c r="D119" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="E119" t="n">
         <v>18.03</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>8.54</v>
       </c>
       <c r="D120" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="E120" t="n">
         <v>16.29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="n">
-        <v>20</v>
+        <v>9.26</v>
       </c>
       <c r="D121" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E121" t="n">
         <v>20.28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>21</v>
+        <v>7.23</v>
       </c>
       <c r="D122" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E122" t="n">
         <v>20.34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="n">
-        <v>22</v>
+        <v>9.86</v>
       </c>
       <c r="D123" t="n">
-        <v>9.86</v>
-      </c>
-      <c r="E123" t="n">
         <v>20.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="n">
-        <v>23</v>
+        <v>9.89</v>
       </c>
       <c r="D124" t="n">
-        <v>9.89</v>
-      </c>
-      <c r="E124" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="n">
-        <v>24</v>
+        <v>10.53</v>
       </c>
       <c r="D125" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="E125" t="n">
         <v>22.06</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="n">
-        <v>25</v>
+        <v>9.03</v>
       </c>
       <c r="D126" t="n">
-        <v>9.03</v>
-      </c>
-      <c r="E126" t="n">
         <v>21.06</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="n">
-        <v>26</v>
+        <v>10.18</v>
       </c>
       <c r="D127" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="E127" t="n">
         <v>20.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>9.13</v>
       </c>
       <c r="D128" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="E128" t="n">
         <v>24.37</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="n">
-        <v>28</v>
+        <v>8.09</v>
       </c>
       <c r="D129" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="E129" t="n">
         <v>18.99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="n">
-        <v>29</v>
+        <v>10.23</v>
       </c>
       <c r="D130" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="E130" t="n">
         <v>20.17</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="n">
-        <v>30</v>
+        <v>9.56</v>
       </c>
       <c r="D131" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E131" t="n">
         <v>21.4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>31</v>
+        <v>9.22</v>
       </c>
       <c r="D132" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="E132" t="n">
         <v>18.54</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="n">
-        <v>32</v>
+        <v>9.56</v>
       </c>
       <c r="D133" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E133" t="n">
         <v>18.94</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>33</v>
+        <v>8.93</v>
       </c>
       <c r="D134" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E134" t="n">
         <v>20.65</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>34</v>
+        <v>6.88</v>
       </c>
       <c r="D135" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="E135" t="n">
         <v>21.02</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="n">
-        <v>35</v>
+        <v>9.14</v>
       </c>
       <c r="D136" t="n">
-        <v>9.14</v>
-      </c>
-      <c r="E136" t="n">
         <v>22.08</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="n">
-        <v>36</v>
+        <v>7.4</v>
       </c>
       <c r="D137" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E137" t="n">
         <v>17.63</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="n">
-        <v>37</v>
+        <v>8.21</v>
       </c>
       <c r="D138" t="n">
-        <v>8.21</v>
-      </c>
-      <c r="E138" t="n">
         <v>20.46</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="n">
-        <v>38</v>
+        <v>9.17</v>
       </c>
       <c r="D139" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E139" t="n">
         <v>20.07</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="n">
-        <v>39</v>
+        <v>8.95</v>
       </c>
       <c r="D140" t="n">
-        <v>8.95</v>
-      </c>
-      <c r="E140" t="n">
         <v>23.94</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="n">
-        <v>40</v>
+        <v>9.09</v>
       </c>
       <c r="D141" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E141" t="n">
         <v>20.89</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="n">
-        <v>41</v>
+        <v>8.19</v>
       </c>
       <c r="D142" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E142" t="n">
         <v>20.07</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>42</v>
+        <v>9.56</v>
       </c>
       <c r="D143" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E143" t="n">
         <v>23.68</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="n">
-        <v>43</v>
+        <v>9.01</v>
       </c>
       <c r="D144" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="E144" t="n">
         <v>21.69</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="n">
-        <v>44</v>
+        <v>8.22</v>
       </c>
       <c r="D145" t="n">
-        <v>8.22</v>
-      </c>
-      <c r="E145" t="n">
         <v>18.02</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="n">
-        <v>45</v>
+        <v>8.24</v>
       </c>
       <c r="D146" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E146" t="n">
         <v>21.31</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="n">
-        <v>46</v>
+        <v>9.2</v>
       </c>
       <c r="D147" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="E147" t="n">
         <v>22.29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>47</v>
+        <v>8.44</v>
       </c>
       <c r="D148" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="E148" t="n">
         <v>22.24</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>48</v>
+        <v>9.28</v>
       </c>
       <c r="D149" t="n">
-        <v>9.28</v>
-      </c>
-      <c r="E149" t="n">
         <v>17.77</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="n">
-        <v>49</v>
+        <v>8.87</v>
       </c>
       <c r="D150" t="n">
-        <v>8.87</v>
-      </c>
-      <c r="E150" t="n">
         <v>19.24</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>50</v>
+        <v>10.44</v>
       </c>
       <c r="D151" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="E151" t="n">
         <v>20.75</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="n">
-        <v>51</v>
+        <v>8.01</v>
       </c>
       <c r="D152" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E152" t="n">
         <v>20.31</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="n">
-        <v>52</v>
+        <v>8.16</v>
       </c>
       <c r="D153" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="E153" t="n">
         <v>18.73</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="n">
-        <v>53</v>
+        <v>8.3</v>
       </c>
       <c r="D154" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E154" t="n">
         <v>22.07</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="n">
-        <v>54</v>
+        <v>8.71</v>
       </c>
       <c r="D155" t="n">
-        <v>8.71</v>
-      </c>
-      <c r="E155" t="n">
         <v>18.54</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="n">
-        <v>55</v>
+        <v>8.02</v>
       </c>
       <c r="D156" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E156" t="n">
         <v>17.2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="n">
-        <v>56</v>
+        <v>8.92</v>
       </c>
       <c r="D157" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E157" t="n">
         <v>22.83</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="n">
-        <v>57</v>
+        <v>8.53</v>
       </c>
       <c r="D158" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="E158" t="n">
         <v>18.41</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>58</v>
+        <v>7.61</v>
       </c>
       <c r="D159" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E159" t="n">
         <v>18.65</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="n">
-        <v>59</v>
+        <v>8.75</v>
       </c>
       <c r="D160" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E160" t="n">
         <v>18.62</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>60</v>
+        <v>9.75</v>
       </c>
       <c r="D161" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E161" t="n">
         <v>23.36</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="n">
-        <v>61</v>
+        <v>8.93</v>
       </c>
       <c r="D162" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E162" t="n">
         <v>21.17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>62</v>
+        <v>10.21</v>
       </c>
       <c r="D163" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="E163" t="n">
         <v>21.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="n">
-        <v>63</v>
+        <v>11.43</v>
       </c>
       <c r="D164" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="E164" t="n">
         <v>24.39</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="n">
-        <v>64</v>
+        <v>8.07</v>
       </c>
       <c r="D165" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E165" t="n">
         <v>21.44</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="n">
-        <v>65</v>
+        <v>9.47</v>
       </c>
       <c r="D166" t="n">
-        <v>9.47</v>
-      </c>
-      <c r="E166" t="n">
         <v>15.85</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="n">
-        <v>66</v>
+        <v>9.86</v>
       </c>
       <c r="D167" t="n">
-        <v>9.86</v>
-      </c>
-      <c r="E167" t="n">
         <v>22.28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
-        <v>9</v>
-      </c>
-      <c r="E168" t="n">
         <v>23.12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D169" t="n">
-        <v>10</v>
-      </c>
-      <c r="E169" t="n">
         <v>18.3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="n">
-        <v>69</v>
+        <v>9.01</v>
       </c>
       <c r="D170" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="E170" t="n">
         <v>22.1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>70</v>
+        <v>9.68</v>
       </c>
       <c r="D171" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="E171" t="n">
         <v>22.43</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="n">
-        <v>71</v>
+        <v>10.17</v>
       </c>
       <c r="D172" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="E172" t="n">
         <v>21.53</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="n">
-        <v>72</v>
+        <v>9.94</v>
       </c>
       <c r="D173" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="E173" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>73</v>
+        <v>9.38</v>
       </c>
       <c r="D174" t="n">
-        <v>9.38</v>
-      </c>
-      <c r="E174" t="n">
         <v>20.28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>74</v>
+        <v>9.05</v>
       </c>
       <c r="D175" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="E175" t="n">
         <v>21.85</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="n">
-        <v>75</v>
+        <v>9.75</v>
       </c>
       <c r="D176" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E176" t="n">
         <v>22.06</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="n">
-        <v>76</v>
+        <v>8.37</v>
       </c>
       <c r="D177" t="n">
-        <v>8.37</v>
-      </c>
-      <c r="E177" t="n">
         <v>17.73</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="n">
-        <v>77</v>
+        <v>8.57</v>
       </c>
       <c r="D178" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="E178" t="n">
         <v>18.78</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="n">
-        <v>78</v>
+        <v>7.04</v>
       </c>
       <c r="D179" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="E179" t="n">
         <v>20.53</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="n">
-        <v>79</v>
+        <v>7.63</v>
       </c>
       <c r="D180" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E180" t="n">
         <v>22.26</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="n">
-        <v>80</v>
+        <v>9.35</v>
       </c>
       <c r="D181" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="E181" t="n">
         <v>21.88</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="n">
-        <v>81</v>
+        <v>9.3</v>
       </c>
       <c r="D182" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E182" t="n">
         <v>24.37</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v>82</v>
+        <v>7.7</v>
       </c>
       <c r="D183" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E183" t="n">
         <v>22.86</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="n">
-        <v>83</v>
+        <v>8.24</v>
       </c>
       <c r="D184" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E184" t="n">
         <v>20.65</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="n">
-        <v>84</v>
+        <v>8.95</v>
       </c>
       <c r="D185" t="n">
-        <v>8.95</v>
-      </c>
-      <c r="E185" t="n">
         <v>18.29</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="n">
-        <v>85</v>
+        <v>8.96</v>
       </c>
       <c r="D186" t="n">
-        <v>8.96</v>
-      </c>
-      <c r="E186" t="n">
         <v>19.54</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="n">
-        <v>86</v>
+        <v>9.83</v>
       </c>
       <c r="D187" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="E187" t="n">
         <v>23.05</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="n">
-        <v>87</v>
+        <v>10.02</v>
       </c>
       <c r="D188" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E188" t="n">
         <v>22.55</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="n">
-        <v>88</v>
+        <v>9.09</v>
       </c>
       <c r="D189" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E189" t="n">
         <v>21.91</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="n">
-        <v>89</v>
+        <v>11.73</v>
       </c>
       <c r="D190" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="E190" t="n">
         <v>23.69</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="n">
-        <v>90</v>
+        <v>10.29</v>
       </c>
       <c r="D191" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E191" t="n">
         <v>20.12</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="n">
-        <v>91</v>
+        <v>10.11</v>
       </c>
       <c r="D192" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="E192" t="n">
         <v>23.2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="n">
-        <v>92</v>
+        <v>7.95</v>
       </c>
       <c r="D193" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="E193" t="n">
         <v>20.28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
-        <v>93</v>
+        <v>8.78</v>
       </c>
       <c r="D194" t="n">
-        <v>8.78</v>
-      </c>
-      <c r="E194" t="n">
         <v>21.11</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="n">
-        <v>94</v>
+        <v>7.22</v>
       </c>
       <c r="D195" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="E195" t="n">
         <v>18.46</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>95</v>
+        <v>10.57</v>
       </c>
       <c r="D196" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="E196" t="n">
         <v>18.58</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>96</v>
+        <v>9.71</v>
       </c>
       <c r="D197" t="n">
-        <v>9.71</v>
-      </c>
-      <c r="E197" t="n">
         <v>20.56</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="n">
-        <v>97</v>
+        <v>10.49</v>
       </c>
       <c r="D198" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="E198" t="n">
         <v>17.35</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>98</v>
+        <v>10.71</v>
       </c>
       <c r="D199" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="E199" t="n">
         <v>21.02</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>99</v>
+        <v>8.5</v>
       </c>
       <c r="D200" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E200" t="n">
         <v>20.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="n">
-        <v>100</v>
+        <v>8.09</v>
       </c>
       <c r="D201" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="E201" t="n">
         <v>18.27</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>8.48</v>
       </c>
       <c r="D202" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="E202" t="n">
         <v>18.29</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>5.84</v>
       </c>
       <c r="D203" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E203" t="n">
         <v>20.83</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>6.12</v>
       </c>
       <c r="D204" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="E204" t="n">
         <v>20.08</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>7.02</v>
       </c>
       <c r="D205" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="E205" t="n">
         <v>16.59</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>5</v>
+        <v>6.12</v>
       </c>
       <c r="D206" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="E206" t="n">
         <v>20.72</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="D207" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E207" t="n">
         <v>15.99</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="n">
-        <v>7</v>
+        <v>7.24</v>
       </c>
       <c r="D208" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="E208" t="n">
         <v>18.78</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="D209" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E209" t="n">
         <v>17.04</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>9</v>
+        <v>8.16</v>
       </c>
       <c r="D210" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="E210" t="n">
         <v>18.86</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="n">
-        <v>10</v>
+        <v>5.37</v>
       </c>
       <c r="D211" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="E211" t="n">
         <v>17.58</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="n">
-        <v>11</v>
+        <v>7.24</v>
       </c>
       <c r="D212" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="E212" t="n">
         <v>18.46</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="n">
-        <v>12</v>
+        <v>6.35</v>
       </c>
       <c r="D213" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E213" t="n">
         <v>15.12</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="n">
-        <v>13</v>
+        <v>6.52</v>
       </c>
       <c r="D214" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="E214" t="n">
         <v>20.09</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>14</v>
+        <v>8.29</v>
       </c>
       <c r="D215" t="n">
-        <v>8.29</v>
-      </c>
-      <c r="E215" t="n">
         <v>17.02</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="n">
-        <v>15</v>
+        <v>5.49</v>
       </c>
       <c r="D216" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="E216" t="n">
         <v>14.02</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="D217" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E217" t="n">
         <v>15.72</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>17</v>
+        <v>8.23</v>
       </c>
       <c r="D218" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E218" t="n">
         <v>16.61</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="n">
-        <v>18</v>
+        <v>7.07</v>
       </c>
       <c r="D219" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="E219" t="n">
         <v>18.64</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="n">
-        <v>19</v>
+        <v>7.18</v>
       </c>
       <c r="D220" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E220" t="n">
         <v>17.55</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="n">
-        <v>20</v>
+        <v>5.99</v>
       </c>
       <c r="D221" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E221" t="n">
         <v>18.17</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>21</v>
+        <v>7.34</v>
       </c>
       <c r="D222" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E222" t="n">
         <v>17.14</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="n">
-        <v>22</v>
+        <v>6.02</v>
       </c>
       <c r="D223" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E223" t="n">
         <v>18.45</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>23</v>
+        <v>7.11</v>
       </c>
       <c r="D224" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E224" t="n">
         <v>19.5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="n">
-        <v>24</v>
+        <v>6.36</v>
       </c>
       <c r="D225" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E225" t="n">
         <v>21.02</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="n">
-        <v>25</v>
+        <v>5.08</v>
       </c>
       <c r="D226" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E226" t="n">
         <v>21.76</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="n">
-        <v>26</v>
+        <v>8.47</v>
       </c>
       <c r="D227" t="n">
-        <v>8.47</v>
-      </c>
-      <c r="E227" t="n">
         <v>18.48</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>27</v>
+        <v>6.62</v>
       </c>
       <c r="D228" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="E228" t="n">
         <v>13.92</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
-        <v>28</v>
+        <v>6.36</v>
       </c>
       <c r="D229" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E229" t="n">
         <v>19.91</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="n">
-        <v>29</v>
+        <v>7.2</v>
       </c>
       <c r="D230" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E230" t="n">
         <v>18.2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="n">
-        <v>30</v>
+        <v>6.16</v>
       </c>
       <c r="D231" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E231" t="n">
         <v>18.42</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="n">
-        <v>31</v>
+        <v>7.15</v>
       </c>
       <c r="D232" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="E232" t="n">
         <v>20.04</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="n">
-        <v>32</v>
+        <v>7.63</v>
       </c>
       <c r="D233" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E233" t="n">
         <v>18.89</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="n">
-        <v>33</v>
+        <v>7.13</v>
       </c>
       <c r="D234" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="E234" t="n">
         <v>18.73</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="n">
-        <v>34</v>
+        <v>7.11</v>
       </c>
       <c r="D235" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E235" t="n">
         <v>17.16</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="n">
-        <v>35</v>
+        <v>7.79</v>
       </c>
       <c r="D236" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E236" t="n">
         <v>18.43</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="n">
-        <v>36</v>
+        <v>7.09</v>
       </c>
       <c r="D237" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="E237" t="n">
         <v>20.75</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="n">
-        <v>37</v>
+        <v>5.88</v>
       </c>
       <c r="D238" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E238" t="n">
         <v>19.88</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="n">
-        <v>38</v>
+        <v>7.3</v>
       </c>
       <c r="D239" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E239" t="n">
         <v>17.19</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>39</v>
+        <v>8.12</v>
       </c>
       <c r="D240" t="n">
-        <v>8.12</v>
-      </c>
-      <c r="E240" t="n">
         <v>16.71</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="n">
-        <v>40</v>
+        <v>8.77</v>
       </c>
       <c r="D241" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="E241" t="n">
         <v>18.79</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="n">
-        <v>41</v>
+        <v>6.68</v>
       </c>
       <c r="D242" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E242" t="n">
         <v>17.54</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="n">
-        <v>42</v>
+        <v>6.63</v>
       </c>
       <c r="D243" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="E243" t="n">
         <v>17.48</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="n">
-        <v>43</v>
+        <v>6.81</v>
       </c>
       <c r="D244" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="E244" t="n">
         <v>19.42</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="n">
-        <v>44</v>
+        <v>7.67</v>
       </c>
       <c r="D245" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E245" t="n">
         <v>14.28</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>45</v>
+        <v>6.57</v>
       </c>
       <c r="D246" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E246" t="n">
         <v>16.45</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="n">
-        <v>46</v>
+        <v>5.36</v>
       </c>
       <c r="D247" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="E247" t="n">
         <v>18.61</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="n">
-        <v>47</v>
+        <v>7.96</v>
       </c>
       <c r="D248" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="E248" t="n">
         <v>17.85</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="n">
-        <v>48</v>
+        <v>5.75</v>
       </c>
       <c r="D249" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E249" t="n">
         <v>18.28</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="n">
-        <v>49</v>
+        <v>6.14</v>
       </c>
       <c r="D250" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E250" t="n">
         <v>16.49</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>50</v>
+        <v>7.79</v>
       </c>
       <c r="D251" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E251" t="n">
         <v>17.67</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="n">
-        <v>51</v>
+        <v>6.95</v>
       </c>
       <c r="D252" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="E252" t="n">
         <v>18.63</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>52</v>
+        <v>6.28</v>
       </c>
       <c r="D253" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E253" t="n">
         <v>21.59</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v>53</v>
+        <v>4.43</v>
       </c>
       <c r="D254" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E254" t="n">
         <v>19.81</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="n">
-        <v>54</v>
+        <v>7.02</v>
       </c>
       <c r="D255" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="E255" t="n">
         <v>16.69</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="n">
-        <v>55</v>
+        <v>5.74</v>
       </c>
       <c r="D256" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="E256" t="n">
         <v>17.9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="n">
-        <v>56</v>
+        <v>8.83</v>
       </c>
       <c r="D257" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="E257" t="n">
         <v>17.21</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C258" t="n">
-        <v>57</v>
+        <v>5.57</v>
       </c>
       <c r="D258" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="E258" t="n">
         <v>15.08</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C259" t="n">
-        <v>58</v>
+        <v>7.1</v>
       </c>
       <c r="D259" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E259" t="n">
         <v>15.4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C260" t="n">
-        <v>59</v>
+        <v>7.88</v>
       </c>
       <c r="D260" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E260" t="n">
         <v>20.09</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C261" t="n">
-        <v>60</v>
+        <v>6.44</v>
       </c>
       <c r="D261" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="E261" t="n">
         <v>19.36</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>61</v>
+        <v>6.75</v>
       </c>
       <c r="D262" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E262" t="n">
         <v>17.92</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263" t="n">
-        <v>62</v>
+        <v>8.79</v>
       </c>
       <c r="D263" t="n">
-        <v>8.79</v>
-      </c>
-      <c r="E263" t="n">
         <v>17.62</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C264" t="n">
-        <v>63</v>
+        <v>5.73</v>
       </c>
       <c r="D264" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="E264" t="n">
         <v>20.24</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C265" t="n">
-        <v>64</v>
+        <v>6.33</v>
       </c>
       <c r="D265" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="E265" t="n">
         <v>16.42</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C266" t="n">
-        <v>65</v>
+        <v>8.31</v>
       </c>
       <c r="D266" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="E266" t="n">
         <v>20.53</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C267" t="n">
-        <v>66</v>
+        <v>5.77</v>
       </c>
       <c r="D267" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E267" t="n">
         <v>14.87</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
-        <v>67</v>
+        <v>5.54</v>
       </c>
       <c r="D268" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="E268" t="n">
         <v>21.44</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C269" t="n">
-        <v>68</v>
+        <v>6.34</v>
       </c>
       <c r="D269" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E269" t="n">
         <v>20.14</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C270" t="n">
-        <v>69</v>
+        <v>6.72</v>
       </c>
       <c r="D270" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E270" t="n">
         <v>14.33</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C271" t="n">
-        <v>70</v>
+        <v>7.39</v>
       </c>
       <c r="D271" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E271" t="n">
         <v>15.91</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C272" t="n">
-        <v>71</v>
+        <v>7.37</v>
       </c>
       <c r="D272" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E272" t="n">
         <v>19.58</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C273" t="n">
-        <v>72</v>
+        <v>6.58</v>
       </c>
       <c r="D273" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E273" t="n">
         <v>19.62</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C274" t="n">
-        <v>73</v>
+        <v>7.97</v>
       </c>
       <c r="D274" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E274" t="n">
         <v>18.11</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C275" t="n">
-        <v>74</v>
+        <v>7.24</v>
       </c>
       <c r="D275" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="E275" t="n">
         <v>20.39</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C276" t="n">
-        <v>75</v>
+        <v>6.22</v>
       </c>
       <c r="D276" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E276" t="n">
         <v>19.47</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C277" t="n">
-        <v>76</v>
+        <v>7.93</v>
       </c>
       <c r="D277" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="E277" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C278" t="n">
-        <v>77</v>
+        <v>6.75</v>
       </c>
       <c r="D278" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E278" t="n">
         <v>17.92</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C279" t="n">
-        <v>78</v>
+        <v>7.6</v>
       </c>
       <c r="D279" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E279" t="n">
         <v>17.57</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C280" t="n">
-        <v>79</v>
+        <v>5.89</v>
       </c>
       <c r="D280" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E280" t="n">
         <v>15.52</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C281" t="n">
-        <v>80</v>
+        <v>7.14</v>
       </c>
       <c r="D281" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="E281" t="n">
         <v>20.12</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C282" t="n">
-        <v>81</v>
+        <v>9.15</v>
       </c>
       <c r="D282" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E282" t="n">
         <v>16.11</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C283" t="n">
-        <v>82</v>
+        <v>8.35</v>
       </c>
       <c r="D283" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E283" t="n">
         <v>16.1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C284" t="n">
-        <v>83</v>
+        <v>6.45</v>
       </c>
       <c r="D284" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="E284" t="n">
         <v>18.65</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C285" t="n">
-        <v>84</v>
+        <v>7.44</v>
       </c>
       <c r="D285" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E285" t="n">
         <v>16.94</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C286" t="n">
-        <v>85</v>
+        <v>6.13</v>
       </c>
       <c r="D286" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E286" t="n">
         <v>15.79</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C287" t="n">
-        <v>86</v>
+        <v>7.09</v>
       </c>
       <c r="D287" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="E287" t="n">
         <v>17.55</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C288" t="n">
-        <v>87</v>
+        <v>7.4</v>
       </c>
       <c r="D288" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E288" t="n">
         <v>17.47</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>88</v>
+        <v>7.82</v>
       </c>
       <c r="D289" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="E289" t="n">
         <v>14.18</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C290" t="n">
-        <v>89</v>
+        <v>6.22</v>
       </c>
       <c r="D290" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E290" t="n">
         <v>15.66</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C291" t="n">
-        <v>90</v>
+        <v>6.91</v>
       </c>
       <c r="D291" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="E291" t="n">
         <v>17.64</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C292" t="n">
-        <v>91</v>
+        <v>8.03</v>
       </c>
       <c r="D292" t="n">
-        <v>8.03</v>
-      </c>
-      <c r="E292" t="n">
         <v>15.53</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C293" t="n">
-        <v>92</v>
+        <v>6.84</v>
       </c>
       <c r="D293" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E293" t="n">
         <v>16.06</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C294" t="n">
-        <v>93</v>
+        <v>6.68</v>
       </c>
       <c r="D294" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E294" t="n">
         <v>16.67</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C295" t="n">
-        <v>94</v>
+        <v>6.36</v>
       </c>
       <c r="D295" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E295" t="n">
         <v>19.14</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C296" t="n">
-        <v>95</v>
+        <v>6.18</v>
       </c>
       <c r="D296" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E296" t="n">
         <v>17.09</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C297" t="n">
-        <v>96</v>
+        <v>4.2</v>
       </c>
       <c r="D297" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E297" t="n">
         <v>15.87</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C298" t="n">
-        <v>97</v>
+        <v>7.38</v>
       </c>
       <c r="D298" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E298" t="n">
         <v>19.99</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C299" t="n">
-        <v>98</v>
+        <v>6.11</v>
       </c>
       <c r="D299" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E299" t="n">
         <v>17.71</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C300" t="n">
-        <v>99</v>
+        <v>6.99</v>
       </c>
       <c r="D300" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E300" t="n">
         <v>18.06</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C301" t="n">
-        <v>100</v>
+        <v>7.43</v>
       </c>
       <c r="D301" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E301" t="n">
         <v>16.3</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>9.38</v>
       </c>
       <c r="D302" t="n">
-        <v>9.38</v>
-      </c>
-      <c r="E302" t="n">
         <v>21.54</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C303" t="n">
-        <v>2</v>
+        <v>10.93</v>
       </c>
       <c r="D303" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="E303" t="n">
         <v>25.42</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C304" t="n">
-        <v>3</v>
+        <v>10.73</v>
       </c>
       <c r="D304" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="E304" t="n">
         <v>25.71</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C305" t="n">
-        <v>4</v>
+        <v>8.87</v>
       </c>
       <c r="D305" t="n">
-        <v>8.87</v>
-      </c>
-      <c r="E305" t="n">
         <v>20.21</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C306" t="n">
-        <v>5</v>
+        <v>7.13</v>
       </c>
       <c r="D306" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="E306" t="n">
         <v>24.72</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C307" t="n">
-        <v>6</v>
+        <v>8.24</v>
       </c>
       <c r="D307" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E307" t="n">
         <v>20.66</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C308" t="n">
-        <v>7</v>
+        <v>9.89</v>
       </c>
       <c r="D308" t="n">
-        <v>9.89</v>
-      </c>
-      <c r="E308" t="n">
         <v>23.37</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C309" t="n">
-        <v>8</v>
+        <v>9.97</v>
       </c>
       <c r="D309" t="n">
-        <v>9.97</v>
-      </c>
-      <c r="E309" t="n">
         <v>21.79</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C310" t="n">
-        <v>9</v>
+        <v>8.54</v>
       </c>
       <c r="D310" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="E310" t="n">
         <v>22.92</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C311" t="n">
-        <v>10</v>
+        <v>8.95</v>
       </c>
       <c r="D311" t="n">
-        <v>8.95</v>
-      </c>
-      <c r="E311" t="n">
         <v>22.04</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C312" t="n">
-        <v>11</v>
+        <v>10.09</v>
       </c>
       <c r="D312" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="E312" t="n">
         <v>24.65</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B313" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C313" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="D313" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="E313" t="n">
         <v>24.91</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B314" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C314" t="n">
-        <v>13</v>
+        <v>7.89</v>
       </c>
       <c r="D314" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="E314" t="n">
         <v>25.3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C315" t="n">
-        <v>14</v>
+        <v>9.53</v>
       </c>
       <c r="D315" t="n">
-        <v>9.53</v>
-      </c>
-      <c r="E315" t="n">
         <v>21.95</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B316" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C316" t="n">
-        <v>15</v>
+        <v>8.67</v>
       </c>
       <c r="D316" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="E316" t="n">
         <v>25.38</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C317" t="n">
-        <v>16</v>
+        <v>8.21</v>
       </c>
       <c r="D317" t="n">
-        <v>8.21</v>
-      </c>
-      <c r="E317" t="n">
         <v>21.93</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C318" t="n">
-        <v>17</v>
+        <v>9.43</v>
       </c>
       <c r="D318" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="E318" t="n">
         <v>23.39</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C319" t="n">
-        <v>18</v>
+        <v>7.31</v>
       </c>
       <c r="D319" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E319" t="n">
         <v>22.74</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C320" t="n">
-        <v>19</v>
+        <v>8.91</v>
       </c>
       <c r="D320" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E320" t="n">
         <v>23.41</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C321" t="n">
-        <v>20</v>
+        <v>10.9</v>
       </c>
       <c r="D321" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E321" t="n">
         <v>19.92</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C322" t="n">
-        <v>21</v>
+        <v>9.98</v>
       </c>
       <c r="D322" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E322" t="n">
         <v>21.05</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C323" t="n">
-        <v>22</v>
+        <v>8.59</v>
       </c>
       <c r="D323" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="E323" t="n">
         <v>21.92</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C324" t="n">
-        <v>23</v>
+        <v>9.67</v>
       </c>
       <c r="D324" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="E324" t="n">
         <v>23.55</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B325" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C325" t="n">
-        <v>24</v>
+        <v>9.3</v>
       </c>
       <c r="D325" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E325" t="n">
         <v>22.72</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B326" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C326" t="n">
-        <v>25</v>
+        <v>8.45</v>
       </c>
       <c r="D326" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="E326" t="n">
         <v>24.07</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C327" t="n">
-        <v>26</v>
+        <v>8.27</v>
       </c>
       <c r="D327" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="E327" t="n">
         <v>19.02</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B328" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C328" t="n">
-        <v>27</v>
+        <v>9.59</v>
       </c>
       <c r="D328" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="E328" t="n">
         <v>21.1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C329" t="n">
-        <v>28</v>
+        <v>9.1</v>
       </c>
       <c r="D329" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="E329" t="n">
         <v>22.38</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C330" t="n">
-        <v>29</v>
+        <v>8.45</v>
       </c>
       <c r="D330" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="E330" t="n">
         <v>23.32</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C331" t="n">
-        <v>30</v>
+        <v>8.65</v>
       </c>
       <c r="D331" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="E331" t="n">
         <v>24.51</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B332" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C332" t="n">
-        <v>31</v>
+        <v>8.83</v>
       </c>
       <c r="D332" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="E332" t="n">
         <v>25.98</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C333" t="n">
-        <v>32</v>
+        <v>8.27</v>
       </c>
       <c r="D333" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="E333" t="n">
         <v>21.04</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C334" t="n">
-        <v>33</v>
+        <v>8.1</v>
       </c>
       <c r="D334" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E334" t="n">
         <v>21.85</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C335" t="n">
-        <v>34</v>
+        <v>8.51</v>
       </c>
       <c r="D335" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="E335" t="n">
         <v>20.15</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C336" t="n">
-        <v>35</v>
+        <v>11.2</v>
       </c>
       <c r="D336" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E336" t="n">
         <v>23.07</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C337" t="n">
-        <v>36</v>
+        <v>9.09</v>
       </c>
       <c r="D337" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E337" t="n">
         <v>22.43</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C338" t="n">
-        <v>37</v>
+        <v>8.91</v>
       </c>
       <c r="D338" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E338" t="n">
         <v>24.77</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C339" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D339" t="n">
-        <v>10</v>
-      </c>
-      <c r="E339" t="n">
         <v>24.74</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C340" t="n">
-        <v>39</v>
+        <v>9.86</v>
       </c>
       <c r="D340" t="n">
-        <v>9.86</v>
-      </c>
-      <c r="E340" t="n">
         <v>25.01</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C341" t="n">
-        <v>40</v>
+        <v>8.83</v>
       </c>
       <c r="D341" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="E341" t="n">
         <v>21.1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C342" t="n">
-        <v>41</v>
+        <v>7.76</v>
       </c>
       <c r="D342" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="E342" t="n">
         <v>21.72</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B343" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C343" t="n">
-        <v>42</v>
+        <v>9.25</v>
       </c>
       <c r="D343" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="E343" t="n">
         <v>21.46</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C344" t="n">
-        <v>43</v>
+        <v>8.42</v>
       </c>
       <c r="D344" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="E344" t="n">
         <v>23.92</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C345" t="n">
-        <v>44</v>
+        <v>7.59</v>
       </c>
       <c r="D345" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E345" t="n">
         <v>22.45</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C346" t="n">
-        <v>45</v>
+        <v>8.37</v>
       </c>
       <c r="D346" t="n">
-        <v>8.37</v>
-      </c>
-      <c r="E346" t="n">
         <v>27.92</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C347" t="n">
-        <v>46</v>
+        <v>10.05</v>
       </c>
       <c r="D347" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="E347" t="n">
         <v>23.18</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C348" t="n">
-        <v>47</v>
+        <v>7.66</v>
       </c>
       <c r="D348" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="E348" t="n">
         <v>23.96</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C349" t="n">
-        <v>48</v>
+        <v>8.5</v>
       </c>
       <c r="D349" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E349" t="n">
         <v>22.14</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B350" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C350" t="n">
-        <v>49</v>
+        <v>8.17</v>
       </c>
       <c r="D350" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="E350" t="n">
         <v>23.94</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C351" t="n">
-        <v>50</v>
+        <v>6.96</v>
       </c>
       <c r="D351" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="E351" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C352" t="n">
-        <v>51</v>
+        <v>10.76</v>
       </c>
       <c r="D352" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="E352" t="n">
         <v>24.45</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C353" t="n">
-        <v>52</v>
+        <v>8.96</v>
       </c>
       <c r="D353" t="n">
-        <v>8.96</v>
-      </c>
-      <c r="E353" t="n">
         <v>20.99</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C354" t="n">
-        <v>53</v>
+        <v>8.75</v>
       </c>
       <c r="D354" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E354" t="n">
         <v>25.41</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C355" t="n">
-        <v>54</v>
+        <v>6.15</v>
       </c>
       <c r="D355" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E355" t="n">
         <v>26.68</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C356" t="n">
-        <v>55</v>
+        <v>10.63</v>
       </c>
       <c r="D356" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="E356" t="n">
         <v>24.68</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C357" t="n">
-        <v>56</v>
+        <v>7.62</v>
       </c>
       <c r="D357" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E357" t="n">
         <v>23.46</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B358" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C358" t="n">
-        <v>57</v>
+        <v>9.01</v>
       </c>
       <c r="D358" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="E358" t="n">
         <v>22.57</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B359" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>58</v>
+        <v>9.15</v>
       </c>
       <c r="D359" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E359" t="n">
         <v>21.87</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B360" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C360" t="n">
-        <v>59</v>
+        <v>8.94</v>
       </c>
       <c r="D360" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E360" t="n">
         <v>22.92</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B361" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C361" t="n">
-        <v>60</v>
+        <v>7.43</v>
       </c>
       <c r="D361" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E361" t="n">
         <v>21.43</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B362" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C362" t="n">
-        <v>61</v>
+        <v>9.13</v>
       </c>
       <c r="D362" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="E362" t="n">
         <v>21.94</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B363" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C363" t="n">
-        <v>62</v>
+        <v>8.78</v>
       </c>
       <c r="D363" t="n">
-        <v>8.78</v>
-      </c>
-      <c r="E363" t="n">
         <v>25.25</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B364" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C364" t="n">
-        <v>63</v>
+        <v>9.4</v>
       </c>
       <c r="D364" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E364" t="n">
         <v>23.07</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C365" t="n">
-        <v>64</v>
+        <v>8.46</v>
       </c>
       <c r="D365" t="n">
-        <v>8.46</v>
-      </c>
-      <c r="E365" t="n">
         <v>21.38</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C366" t="n">
-        <v>65</v>
+        <v>8.92</v>
       </c>
       <c r="D366" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E366" t="n">
         <v>20.67</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C367" t="n">
-        <v>66</v>
+        <v>9.49</v>
       </c>
       <c r="D367" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E367" t="n">
         <v>22.09</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B368" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C368" t="n">
-        <v>67</v>
+        <v>7.93</v>
       </c>
       <c r="D368" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="E368" t="n">
         <v>22.31</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B369" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C369" t="n">
-        <v>68</v>
+        <v>7.9</v>
       </c>
       <c r="D369" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E369" t="n">
         <v>25.23</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C370" t="n">
-        <v>69</v>
+        <v>7.63</v>
       </c>
       <c r="D370" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E370" t="n">
         <v>23.23</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B371" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C371" t="n">
-        <v>70</v>
+        <v>7.55</v>
       </c>
       <c r="D371" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E371" t="n">
         <v>23.55</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C372" t="n">
-        <v>71</v>
+        <v>9.53</v>
       </c>
       <c r="D372" t="n">
-        <v>9.53</v>
-      </c>
-      <c r="E372" t="n">
         <v>19.94</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C373" t="n">
-        <v>72</v>
+        <v>9.09</v>
       </c>
       <c r="D373" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E373" t="n">
         <v>23.29</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C374" t="n">
-        <v>73</v>
+        <v>8.33</v>
       </c>
       <c r="D374" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="E374" t="n">
         <v>25.11</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C375" t="n">
-        <v>74</v>
+        <v>9.61</v>
       </c>
       <c r="D375" t="n">
-        <v>9.61</v>
-      </c>
-      <c r="E375" t="n">
         <v>21.95</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C376" t="n">
-        <v>75</v>
+        <v>8.98</v>
       </c>
       <c r="D376" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E376" t="n">
         <v>22.93</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C377" t="n">
-        <v>76</v>
+        <v>10.72</v>
       </c>
       <c r="D377" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="E377" t="n">
         <v>23.27</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B378" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C378" t="n">
-        <v>77</v>
+        <v>9.04</v>
       </c>
       <c r="D378" t="n">
-        <v>9.04</v>
-      </c>
-      <c r="E378" t="n">
         <v>20.38</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C379" t="n">
-        <v>78</v>
+        <v>8.23</v>
       </c>
       <c r="D379" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E379" t="n">
         <v>24.09</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C380" t="n">
-        <v>79</v>
+        <v>7.86</v>
       </c>
       <c r="D380" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="E380" t="n">
         <v>21.45</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B381" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C381" t="n">
-        <v>80</v>
+        <v>8.27</v>
       </c>
       <c r="D381" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="E381" t="n">
         <v>23.2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C382" t="n">
-        <v>81</v>
+        <v>9.22</v>
       </c>
       <c r="D382" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="E382" t="n">
         <v>24.18</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B383" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C383" t="n">
-        <v>82</v>
+        <v>10.2</v>
       </c>
       <c r="D383" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="E383" t="n">
         <v>24.58</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C384" t="n">
-        <v>83</v>
+        <v>10.82</v>
       </c>
       <c r="D384" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="E384" t="n">
         <v>24.14</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C385" t="n">
-        <v>84</v>
+        <v>9.36</v>
       </c>
       <c r="D385" t="n">
-        <v>9.36</v>
-      </c>
-      <c r="E385" t="n">
         <v>22.4</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C386" t="n">
-        <v>85</v>
+        <v>10.1</v>
       </c>
       <c r="D386" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E386" t="n">
         <v>24.89</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C387" t="n">
-        <v>86</v>
+        <v>7.87</v>
       </c>
       <c r="D387" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="E387" t="n">
         <v>21.66</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B388" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C388" t="n">
-        <v>87</v>
+        <v>7.64</v>
       </c>
       <c r="D388" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="E388" t="n">
         <v>23.2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C389" t="n">
-        <v>88</v>
+        <v>8.75</v>
       </c>
       <c r="D389" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E389" t="n">
         <v>22.89</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C390" t="n">
-        <v>89</v>
+        <v>9.6</v>
       </c>
       <c r="D390" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E390" t="n">
         <v>22.73</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C391" t="n">
-        <v>90</v>
+        <v>10.24</v>
       </c>
       <c r="D391" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="E391" t="n">
         <v>21.15</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B392" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C392" t="n">
-        <v>91</v>
+        <v>9.23</v>
       </c>
       <c r="D392" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E392" t="n">
         <v>21.76</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C393" t="n">
-        <v>92</v>
+        <v>10.42</v>
       </c>
       <c r="D393" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="E393" t="n">
         <v>24.9</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B394" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C394" t="n">
-        <v>93</v>
+        <v>10.9</v>
       </c>
       <c r="D394" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E394" t="n">
         <v>21.37</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C395" t="n">
-        <v>94</v>
+        <v>7.36</v>
       </c>
       <c r="D395" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E395" t="n">
         <v>22.67</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C396" t="n">
-        <v>95</v>
+        <v>7.99</v>
       </c>
       <c r="D396" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E396" t="n">
         <v>23.92</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B397" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>96</v>
+        <v>10.3</v>
       </c>
       <c r="D397" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E397" t="n">
         <v>20.45</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C398" t="n">
-        <v>97</v>
+        <v>8.73</v>
       </c>
       <c r="D398" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="E398" t="n">
         <v>21.03</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B399" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C399" t="n">
-        <v>98</v>
+        <v>9.07</v>
       </c>
       <c r="D399" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="E399" t="n">
         <v>20.7</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C400" t="n">
-        <v>99</v>
+        <v>9.3</v>
       </c>
       <c r="D400" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E400" t="n">
         <v>19.31</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C401" t="n">
-        <v>100</v>
+        <v>9.25</v>
       </c>
       <c r="D401" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="E401" t="n">
         <v>27.1</v>
       </c>
     </row>

--- a/data/flea_dog_cat_length_weight.xlsx
+++ b/data/flea_dog_cat_length_weight.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">animal</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">jump_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatch_time</t>
   </si>
   <si>
     <t xml:space="preserve">cat</t>
@@ -380,13 +383,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>6.02</v>
@@ -394,13 +400,16 @@
       <c r="D2" t="n">
         <v>16.93</v>
       </c>
+      <c r="E2" t="n">
+        <v>68.5607030828682</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>5.99</v>
@@ -408,13 +417,16 @@
       <c r="D3" t="n">
         <v>16.22</v>
       </c>
+      <c r="E3" t="n">
+        <v>131.663962463075</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>8.05</v>
@@ -422,13 +434,16 @@
       <c r="D4" t="n">
         <v>18.96</v>
       </c>
+      <c r="E4" t="n">
+        <v>94.6300466572861</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>6.71</v>
@@ -436,13 +451,16 @@
       <c r="D5" t="n">
         <v>19.83</v>
       </c>
+      <c r="E5" t="n">
+        <v>110.037620806241</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>6.19</v>
@@ -450,13 +468,16 @@
       <c r="D6" t="n">
         <v>17.37</v>
       </c>
+      <c r="E6" t="n">
+        <v>103.202381557306</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>8.18</v>
@@ -464,13 +485,16 @@
       <c r="D7" t="n">
         <v>14.45</v>
       </c>
+      <c r="E7" t="n">
+        <v>326.905571938527</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>7.46</v>
@@ -478,13 +502,16 @@
       <c r="D8" t="n">
         <v>15.46</v>
       </c>
+      <c r="E8" t="n">
+        <v>360.895299014955</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>5.58</v>
@@ -492,13 +519,16 @@
       <c r="D9" t="n">
         <v>15.81</v>
       </c>
+      <c r="E9" t="n">
+        <v>21.1496681345285</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>6.19</v>
@@ -506,13 +536,16 @@
       <c r="D10" t="n">
         <v>19.14</v>
       </c>
+      <c r="E10" t="n">
+        <v>203.734455254478</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>7.53</v>
@@ -520,13 +553,16 @@
       <c r="D11" t="n">
         <v>15.72</v>
       </c>
+      <c r="E11" t="n">
+        <v>878.640460495332</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>7.12</v>
@@ -534,13 +570,16 @@
       <c r="D12" t="n">
         <v>14.65</v>
       </c>
+      <c r="E12" t="n">
+        <v>338.424763258297</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>6.18</v>
@@ -548,13 +587,16 @@
       <c r="D13" t="n">
         <v>17.21</v>
       </c>
+      <c r="E13" t="n">
+        <v>81.7145993247279</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>7.04</v>
@@ -562,13 +604,16 @@
       <c r="D14" t="n">
         <v>14.07</v>
       </c>
+      <c r="E14" t="n">
+        <v>520.188781457742</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>5.91</v>
@@ -576,13 +621,16 @@
       <c r="D15" t="n">
         <v>15.5</v>
       </c>
+      <c r="E15" t="n">
+        <v>208.102243200523</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>6.84</v>
@@ -590,13 +638,16 @@
       <c r="D16" t="n">
         <v>15.37</v>
       </c>
+      <c r="E16" t="n">
+        <v>377.381338405879</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>4.86</v>
@@ -604,13 +655,16 @@
       <c r="D17" t="n">
         <v>14.79</v>
       </c>
+      <c r="E17" t="n">
+        <v>95.5500213810692</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>6.18</v>
@@ -618,13 +672,16 @@
       <c r="D18" t="n">
         <v>15.51</v>
       </c>
+      <c r="E18" t="n">
+        <v>191.668625005596</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>6.77</v>
@@ -632,13 +689,16 @@
       <c r="D19" t="n">
         <v>16.33</v>
       </c>
+      <c r="E19" t="n">
+        <v>92.6068959340921</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>6</v>
@@ -646,13 +706,16 @@
       <c r="D20" t="n">
         <v>16.04</v>
       </c>
+      <c r="E20" t="n">
+        <v>340.666860079945</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>6.75</v>
@@ -660,13 +723,16 @@
       <c r="D21" t="n">
         <v>16.57</v>
       </c>
+      <c r="E21" t="n">
+        <v>70.3109450046642</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>7.8</v>
@@ -674,13 +740,16 @@
       <c r="D22" t="n">
         <v>14.33</v>
       </c>
+      <c r="E22" t="n">
+        <v>115.371763451043</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
         <v>4.62</v>
@@ -688,13 +757,16 @@
       <c r="D23" t="n">
         <v>16.29</v>
       </c>
+      <c r="E23" t="n">
+        <v>38.6548692308782</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
         <v>5.22</v>
@@ -702,13 +774,16 @@
       <c r="D24" t="n">
         <v>17.31</v>
       </c>
+      <c r="E24" t="n">
+        <v>383.502289367727</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
         <v>5.81</v>
@@ -716,13 +791,16 @@
       <c r="D25" t="n">
         <v>15.45</v>
       </c>
+      <c r="E25" t="n">
+        <v>160.120318685478</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
         <v>6.46</v>
@@ -730,13 +808,16 @@
       <c r="D26" t="n">
         <v>19.64</v>
       </c>
+      <c r="E26" t="n">
+        <v>232.358316218593</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>7.71</v>
@@ -744,13 +825,16 @@
       <c r="D27" t="n">
         <v>17.51</v>
       </c>
+      <c r="E27" t="n">
+        <v>72.8777808918264</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>8.15</v>
@@ -758,13 +842,16 @@
       <c r="D28" t="n">
         <v>14.84</v>
       </c>
+      <c r="E28" t="n">
+        <v>158.019270176603</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
         <v>7.17</v>
@@ -772,13 +859,16 @@
       <c r="D29" t="n">
         <v>14.18</v>
       </c>
+      <c r="E29" t="n">
+        <v>459.033173485359</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
         <v>7.17</v>
@@ -786,13 +876,16 @@
       <c r="D30" t="n">
         <v>13.46</v>
       </c>
+      <c r="E30" t="n">
+        <v>72.5606942162136</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
         <v>6.12</v>
@@ -800,13 +893,16 @@
       <c r="D31" t="n">
         <v>17.43</v>
       </c>
+      <c r="E31" t="n">
+        <v>1523.09723340079</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
         <v>5.35</v>
@@ -814,13 +910,16 @@
       <c r="D32" t="n">
         <v>15.06</v>
       </c>
+      <c r="E32" t="n">
+        <v>39.487775162613</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
         <v>6.07</v>
@@ -828,13 +927,16 @@
       <c r="D33" t="n">
         <v>17.84</v>
       </c>
+      <c r="E33" t="n">
+        <v>188.294108385254</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
         <v>7.5</v>
@@ -842,13 +944,16 @@
       <c r="D34" t="n">
         <v>16.14</v>
       </c>
+      <c r="E34" t="n">
+        <v>102.661620152113</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>5.8</v>
@@ -856,13 +961,16 @@
       <c r="D35" t="n">
         <v>16.43</v>
       </c>
+      <c r="E35" t="n">
+        <v>202.030665732481</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
         <v>6.58</v>
@@ -870,13 +978,16 @@
       <c r="D36" t="n">
         <v>15.48</v>
       </c>
+      <c r="E36" t="n">
+        <v>73.3302152667139</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
         <v>5.63</v>
@@ -884,13 +995,16 @@
       <c r="D37" t="n">
         <v>18.53</v>
       </c>
+      <c r="E37" t="n">
+        <v>214.073195610809</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
         <v>6.19</v>
@@ -898,13 +1012,16 @@
       <c r="D38" t="n">
         <v>17.4</v>
       </c>
+      <c r="E38" t="n">
+        <v>42.53223372865</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
         <v>6.92</v>
@@ -912,13 +1029,16 @@
       <c r="D39" t="n">
         <v>15.59</v>
       </c>
+      <c r="E39" t="n">
+        <v>369.994982397467</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
         <v>8.01</v>
@@ -926,13 +1046,16 @@
       <c r="D40" t="n">
         <v>16.37</v>
       </c>
+      <c r="E40" t="n">
+        <v>63.7652168345018</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
         <v>7.88</v>
@@ -940,13 +1063,16 @@
       <c r="D41" t="n">
         <v>15.05</v>
       </c>
+      <c r="E41" t="n">
+        <v>389.151167553099</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
         <v>7.93</v>
@@ -954,13 +1080,16 @@
       <c r="D42" t="n">
         <v>18.1</v>
       </c>
+      <c r="E42" t="n">
+        <v>1333.02720096251</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
         <v>6.8</v>
@@ -968,13 +1097,16 @@
       <c r="D43" t="n">
         <v>14.53</v>
       </c>
+      <c r="E43" t="n">
+        <v>158.727726863538</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
         <v>8.17</v>
@@ -982,13 +1114,16 @@
       <c r="D44" t="n">
         <v>14.79</v>
       </c>
+      <c r="E44" t="n">
+        <v>207.648343905185</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
         <v>5.91</v>
@@ -996,13 +1131,16 @@
       <c r="D45" t="n">
         <v>16.74</v>
       </c>
+      <c r="E45" t="n">
+        <v>79.9430192625256</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
         <v>5.82</v>
@@ -1010,13 +1148,16 @@
       <c r="D46" t="n">
         <v>17.98</v>
       </c>
+      <c r="E46" t="n">
+        <v>141.623474372649</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
         <v>8.04</v>
@@ -1024,13 +1165,16 @@
       <c r="D47" t="n">
         <v>14.45</v>
       </c>
+      <c r="E47" t="n">
+        <v>52.6564191605655</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="n">
         <v>5.97</v>
@@ -1038,13 +1182,16 @@
       <c r="D48" t="n">
         <v>15.47</v>
       </c>
+      <c r="E48" t="n">
+        <v>286.334831463775</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
         <v>6.3</v>
@@ -1052,13 +1199,16 @@
       <c r="D49" t="n">
         <v>13.27</v>
       </c>
+      <c r="E49" t="n">
+        <v>1139.92549024171</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
         <v>6.21</v>
@@ -1066,13 +1216,16 @@
       <c r="D50" t="n">
         <v>12.97</v>
       </c>
+      <c r="E50" t="n">
+        <v>558.831675284408</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>4.75</v>
@@ -1080,13 +1233,16 @@
       <c r="D51" t="n">
         <v>12.86</v>
       </c>
+      <c r="E51" t="n">
+        <v>398.82131708698</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
         <v>7.36</v>
@@ -1094,13 +1250,16 @@
       <c r="D52" t="n">
         <v>19.14</v>
       </c>
+      <c r="E52" t="n">
+        <v>68.3580436354788</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
         <v>7.05</v>
@@ -1108,13 +1267,16 @@
       <c r="D53" t="n">
         <v>16.42</v>
       </c>
+      <c r="E53" t="n">
+        <v>86.1025975090735</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
         <v>7.28</v>
@@ -1122,13 +1284,16 @@
       <c r="D54" t="n">
         <v>14.55</v>
       </c>
+      <c r="E54" t="n">
+        <v>1216.5281362054</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
         <v>7.06</v>
@@ -1136,13 +1301,16 @@
       <c r="D55" t="n">
         <v>20</v>
       </c>
+      <c r="E55" t="n">
+        <v>131.594665698285</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
         <v>6.51</v>
@@ -1150,13 +1318,16 @@
       <c r="D56" t="n">
         <v>16.03</v>
       </c>
+      <c r="E56" t="n">
+        <v>41.0362503168788</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
         <v>9.8</v>
@@ -1164,13 +1335,16 @@
       <c r="D57" t="n">
         <v>11.88</v>
       </c>
+      <c r="E57" t="n">
+        <v>538.806128878053</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
         <v>6.74</v>
@@ -1178,13 +1352,16 @@
       <c r="D58" t="n">
         <v>15.59</v>
       </c>
+      <c r="E58" t="n">
+        <v>764.976546646818</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="n">
         <v>7.82</v>
@@ -1192,13 +1369,16 @@
       <c r="D59" t="n">
         <v>15.39</v>
       </c>
+      <c r="E59" t="n">
+        <v>97.3456766430028</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
         <v>7.11</v>
@@ -1206,13 +1386,16 @@
       <c r="D60" t="n">
         <v>13.12</v>
       </c>
+      <c r="E60" t="n">
+        <v>160.614844743453</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
         <v>8.45</v>
@@ -1220,13 +1403,16 @@
       <c r="D61" t="n">
         <v>14.67</v>
       </c>
+      <c r="E61" t="n">
+        <v>106.737368936117</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
         <v>7.05</v>
@@ -1234,13 +1420,16 @@
       <c r="D62" t="n">
         <v>17.36</v>
       </c>
+      <c r="E62" t="n">
+        <v>509.599584107201</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
         <v>6.39</v>
@@ -1248,13 +1437,16 @@
       <c r="D63" t="n">
         <v>14.72</v>
       </c>
+      <c r="E63" t="n">
+        <v>63.7575300082552</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
         <v>7.21</v>
@@ -1262,13 +1454,16 @@
       <c r="D64" t="n">
         <v>14</v>
       </c>
+      <c r="E64" t="n">
+        <v>141.114198708223</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="n">
         <v>6.29</v>
@@ -1276,13 +1471,16 @@
       <c r="D65" t="n">
         <v>14.76</v>
       </c>
+      <c r="E65" t="n">
+        <v>256.196022556866</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="n">
         <v>8.03</v>
@@ -1290,13 +1488,16 @@
       <c r="D66" t="n">
         <v>16.96</v>
       </c>
+      <c r="E66" t="n">
+        <v>125.068531345796</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
         <v>6.92</v>
@@ -1304,13 +1505,16 @@
       <c r="D67" t="n">
         <v>17.05</v>
       </c>
+      <c r="E67" t="n">
+        <v>81.2848635291989</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
         <v>7.55</v>
@@ -1318,13 +1522,16 @@
       <c r="D68" t="n">
         <v>16.91</v>
       </c>
+      <c r="E68" t="n">
+        <v>83.5427432034627</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
         <v>6.15</v>
@@ -1332,13 +1539,16 @@
       <c r="D69" t="n">
         <v>13.28</v>
       </c>
+      <c r="E69" t="n">
+        <v>122.629127433793</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
         <v>7.51</v>
@@ -1346,13 +1556,16 @@
       <c r="D70" t="n">
         <v>17.52</v>
       </c>
+      <c r="E70" t="n">
+        <v>83.5877709062878</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
         <v>7.22</v>
@@ -1360,13 +1573,16 @@
       <c r="D71" t="n">
         <v>13.39</v>
       </c>
+      <c r="E71" t="n">
+        <v>904.312447076019</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
         <v>6.89</v>
@@ -1374,13 +1590,16 @@
       <c r="D72" t="n">
         <v>17.59</v>
       </c>
+      <c r="E72" t="n">
+        <v>236.435005251914</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
         <v>7.51</v>
@@ -1388,13 +1607,16 @@
       <c r="D73" t="n">
         <v>17.77</v>
       </c>
+      <c r="E73" t="n">
+        <v>118.991970097524</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="n">
         <v>6.71</v>
@@ -1402,13 +1624,16 @@
       <c r="D74" t="n">
         <v>16.5</v>
       </c>
+      <c r="E74" t="n">
+        <v>65.7191011014196</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
         <v>6.81</v>
@@ -1416,13 +1641,16 @@
       <c r="D75" t="n">
         <v>15.75</v>
       </c>
+      <c r="E75" t="n">
+        <v>85.3182275372247</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
         <v>8.94</v>
@@ -1430,13 +1658,16 @@
       <c r="D76" t="n">
         <v>16.12</v>
       </c>
+      <c r="E76" t="n">
+        <v>133.146803068478</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
         <v>8.62</v>
@@ -1444,13 +1675,16 @@
       <c r="D77" t="n">
         <v>15.34</v>
       </c>
+      <c r="E77" t="n">
+        <v>69.7905275810356</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
         <v>7.83</v>
@@ -1458,13 +1692,16 @@
       <c r="D78" t="n">
         <v>15.83</v>
       </c>
+      <c r="E78" t="n">
+        <v>80.1993376016336</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
         <v>8.41</v>
@@ -1472,13 +1709,16 @@
       <c r="D79" t="n">
         <v>14.37</v>
       </c>
+      <c r="E79" t="n">
+        <v>22.1003260885369</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
         <v>7.8</v>
@@ -1486,13 +1726,16 @@
       <c r="D80" t="n">
         <v>16.31</v>
       </c>
+      <c r="E80" t="n">
+        <v>212.908460542169</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
         <v>6.34</v>
@@ -1500,13 +1743,16 @@
       <c r="D81" t="n">
         <v>14.95</v>
       </c>
+      <c r="E81" t="n">
+        <v>179.204637354441</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
         <v>6.25</v>
@@ -1514,13 +1760,16 @@
       <c r="D82" t="n">
         <v>14.47</v>
       </c>
+      <c r="E82" t="n">
+        <v>31.6382442319378</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="n">
         <v>5.75</v>
@@ -1528,13 +1777,16 @@
       <c r="D83" t="n">
         <v>12.94</v>
       </c>
+      <c r="E83" t="n">
+        <v>327.958741949703</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="n">
         <v>6.39</v>
@@ -1542,13 +1794,16 @@
       <c r="D84" t="n">
         <v>13.66</v>
       </c>
+      <c r="E84" t="n">
+        <v>114.416245790276</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
         <v>6.23</v>
@@ -1556,13 +1811,16 @@
       <c r="D85" t="n">
         <v>11.82</v>
       </c>
+      <c r="E85" t="n">
+        <v>56.8609935577368</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
         <v>7.28</v>
@@ -1570,13 +1828,16 @@
       <c r="D86" t="n">
         <v>17.68</v>
       </c>
+      <c r="E86" t="n">
+        <v>528.974480685149</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
         <v>7.19</v>
@@ -1584,13 +1845,16 @@
       <c r="D87" t="n">
         <v>18.66</v>
       </c>
+      <c r="E87" t="n">
+        <v>44.783634190953</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="n">
         <v>5.82</v>
@@ -1598,13 +1862,16 @@
       <c r="D88" t="n">
         <v>18.3</v>
       </c>
+      <c r="E88" t="n">
+        <v>36.4515807449904</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="n">
         <v>6.54</v>
@@ -1612,13 +1879,16 @@
       <c r="D89" t="n">
         <v>18.79</v>
       </c>
+      <c r="E89" t="n">
+        <v>106.701423888552</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
         <v>7.31</v>
@@ -1626,13 +1896,16 @@
       <c r="D90" t="n">
         <v>15.17</v>
       </c>
+      <c r="E90" t="n">
+        <v>956.735763083221</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="n">
         <v>6.84</v>
@@ -1640,13 +1913,16 @@
       <c r="D91" t="n">
         <v>19.04</v>
       </c>
+      <c r="E91" t="n">
+        <v>57.0222918847161</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
         <v>7.41</v>
@@ -1654,13 +1930,16 @@
       <c r="D92" t="n">
         <v>17.86</v>
       </c>
+      <c r="E92" t="n">
+        <v>307.287850202986</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="n">
         <v>6.39</v>
@@ -1668,13 +1947,16 @@
       <c r="D93" t="n">
         <v>12.72</v>
       </c>
+      <c r="E93" t="n">
+        <v>449.396925886893</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
         <v>7.33</v>
@@ -1682,13 +1964,16 @@
       <c r="D94" t="n">
         <v>16.11</v>
       </c>
+      <c r="E94" t="n">
+        <v>422.293746923865</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
         <v>5.69</v>
@@ -1696,13 +1981,16 @@
       <c r="D95" t="n">
         <v>12.76</v>
       </c>
+      <c r="E95" t="n">
+        <v>238.612421855381</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
         <v>6.23</v>
@@ -1710,13 +1998,16 @@
       <c r="D96" t="n">
         <v>16.48</v>
       </c>
+      <c r="E96" t="n">
+        <v>258.779227555316</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
         <v>6.01</v>
@@ -1724,13 +2015,16 @@
       <c r="D97" t="n">
         <v>15.15</v>
       </c>
+      <c r="E97" t="n">
+        <v>65.3565552409026</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="n">
         <v>7.19</v>
@@ -1738,13 +2032,16 @@
       <c r="D98" t="n">
         <v>14.77</v>
       </c>
+      <c r="E98" t="n">
+        <v>260.091547243054</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="n">
         <v>5.45</v>
@@ -1752,13 +2049,16 @@
       <c r="D99" t="n">
         <v>17.27</v>
       </c>
+      <c r="E99" t="n">
+        <v>105.627297931158</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="n">
         <v>6.08</v>
@@ -1766,13 +2066,16 @@
       <c r="D100" t="n">
         <v>13.98</v>
       </c>
+      <c r="E100" t="n">
+        <v>49.8664994325906</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="n">
         <v>6.22</v>
@@ -1780,13 +2083,16 @@
       <c r="D101" t="n">
         <v>14.38</v>
       </c>
+      <c r="E101" t="n">
+        <v>84.4659179040823</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="n">
         <v>8.16</v>
@@ -1794,13 +2100,16 @@
       <c r="D102" t="n">
         <v>19.76</v>
       </c>
+      <c r="E102" t="n">
+        <v>51.7817235471195</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
         <v>9.3</v>
@@ -1808,13 +2117,16 @@
       <c r="D103" t="n">
         <v>18.34</v>
       </c>
+      <c r="E103" t="n">
+        <v>338.621489574043</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
         <v>8.35</v>
@@ -1822,13 +2134,16 @@
       <c r="D104" t="n">
         <v>21.51</v>
       </c>
+      <c r="E104" t="n">
+        <v>31.0879134773189</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" t="n">
         <v>9.79</v>
@@ -1836,13 +2151,16 @@
       <c r="D105" t="n">
         <v>18.88</v>
       </c>
+      <c r="E105" t="n">
+        <v>1701.64874599703</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
         <v>8.92</v>
@@ -1850,13 +2168,16 @@
       <c r="D106" t="n">
         <v>19.88</v>
       </c>
+      <c r="E106" t="n">
+        <v>66.0972426262876</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
         <v>9.63</v>
@@ -1864,13 +2185,16 @@
       <c r="D107" t="n">
         <v>20.78</v>
       </c>
+      <c r="E107" t="n">
+        <v>57.173434777996</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="n">
         <v>9.87</v>
@@ -1878,13 +2202,16 @@
       <c r="D108" t="n">
         <v>16.54</v>
       </c>
+      <c r="E108" t="n">
+        <v>74.2084546085946</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
         <v>8.98</v>
@@ -1892,13 +2219,16 @@
       <c r="D109" t="n">
         <v>16.3</v>
       </c>
+      <c r="E109" t="n">
+        <v>144.010192772478</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="n">
         <v>7.19</v>
@@ -1906,13 +2236,16 @@
       <c r="D110" t="n">
         <v>23.53</v>
       </c>
+      <c r="E110" t="n">
+        <v>42.4817305844879</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="n">
         <v>9.69</v>
@@ -1920,13 +2253,16 @@
       <c r="D111" t="n">
         <v>19.95</v>
       </c>
+      <c r="E111" t="n">
+        <v>454.157418824854</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
         <v>9.93</v>
@@ -1934,13 +2270,16 @@
       <c r="D112" t="n">
         <v>19.71</v>
       </c>
+      <c r="E112" t="n">
+        <v>481.546939094501</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="n">
         <v>8.28</v>
@@ -1948,13 +2287,16 @@
       <c r="D113" t="n">
         <v>20.3</v>
       </c>
+      <c r="E113" t="n">
+        <v>171.396264513103</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="n">
         <v>8.44</v>
@@ -1962,13 +2304,16 @@
       <c r="D114" t="n">
         <v>24.13</v>
       </c>
+      <c r="E114" t="n">
+        <v>41.0769795979215</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="n">
         <v>9.33</v>
@@ -1976,13 +2321,16 @@
       <c r="D115" t="n">
         <v>18.08</v>
       </c>
+      <c r="E115" t="n">
+        <v>167.712397173219</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
         <v>9.69</v>
@@ -1990,13 +2338,16 @@
       <c r="D116" t="n">
         <v>23.49</v>
       </c>
+      <c r="E116" t="n">
+        <v>287.130323562999</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="n">
         <v>8.79</v>
@@ -2004,13 +2355,16 @@
       <c r="D117" t="n">
         <v>19.42</v>
       </c>
+      <c r="E117" t="n">
+        <v>489.385367046122</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
         <v>8.51</v>
@@ -2018,13 +2372,16 @@
       <c r="D118" t="n">
         <v>20.09</v>
       </c>
+      <c r="E118" t="n">
+        <v>28.9625977922901</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="n">
         <v>8.31</v>
@@ -2032,13 +2389,16 @@
       <c r="D119" t="n">
         <v>18.03</v>
       </c>
+      <c r="E119" t="n">
+        <v>28.1674291057018</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="n">
         <v>8.54</v>
@@ -2046,13 +2406,16 @@
       <c r="D120" t="n">
         <v>16.29</v>
       </c>
+      <c r="E120" t="n">
+        <v>255.842101170542</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="n">
         <v>9.26</v>
@@ -2060,13 +2423,16 @@
       <c r="D121" t="n">
         <v>20.28</v>
       </c>
+      <c r="E121" t="n">
+        <v>163.010792902763</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="n">
         <v>7.23</v>
@@ -2074,13 +2440,16 @@
       <c r="D122" t="n">
         <v>20.34</v>
       </c>
+      <c r="E122" t="n">
+        <v>757.26977393523</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="n">
         <v>9.86</v>
@@ -2088,13 +2457,16 @@
       <c r="D123" t="n">
         <v>20.4</v>
       </c>
+      <c r="E123" t="n">
+        <v>406.633660969245</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="n">
         <v>9.89</v>
@@ -2102,13 +2474,16 @@
       <c r="D124" t="n">
         <v>22</v>
       </c>
+      <c r="E124" t="n">
+        <v>35.0398788450239</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="n">
         <v>10.53</v>
@@ -2116,13 +2491,16 @@
       <c r="D125" t="n">
         <v>22.06</v>
       </c>
+      <c r="E125" t="n">
+        <v>162.70013360406</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="n">
         <v>9.03</v>
@@ -2130,13 +2508,16 @@
       <c r="D126" t="n">
         <v>21.06</v>
       </c>
+      <c r="E126" t="n">
+        <v>73.3825313157111</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="n">
         <v>10.18</v>
@@ -2144,13 +2525,16 @@
       <c r="D127" t="n">
         <v>20.9</v>
       </c>
+      <c r="E127" t="n">
+        <v>318.146771591428</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="n">
         <v>9.13</v>
@@ -2158,13 +2542,16 @@
       <c r="D128" t="n">
         <v>24.37</v>
       </c>
+      <c r="E128" t="n">
+        <v>241.085737752276</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="n">
         <v>8.09</v>
@@ -2172,13 +2559,16 @@
       <c r="D129" t="n">
         <v>18.99</v>
       </c>
+      <c r="E129" t="n">
+        <v>125.68248837009</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="n">
         <v>10.23</v>
@@ -2186,13 +2576,16 @@
       <c r="D130" t="n">
         <v>20.17</v>
       </c>
+      <c r="E130" t="n">
+        <v>57.6903319150131</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="n">
         <v>9.56</v>
@@ -2200,13 +2593,16 @@
       <c r="D131" t="n">
         <v>21.4</v>
       </c>
+      <c r="E131" t="n">
+        <v>32.3221825146871</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="n">
         <v>9.22</v>
@@ -2214,13 +2610,16 @@
       <c r="D132" t="n">
         <v>18.54</v>
       </c>
+      <c r="E132" t="n">
+        <v>521.895174970247</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="n">
         <v>9.56</v>
@@ -2228,13 +2627,16 @@
       <c r="D133" t="n">
         <v>18.94</v>
       </c>
+      <c r="E133" t="n">
+        <v>99.0022810835693</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
         <v>8.93</v>
@@ -2242,13 +2644,16 @@
       <c r="D134" t="n">
         <v>20.65</v>
       </c>
+      <c r="E134" t="n">
+        <v>226.714670809526</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="n">
         <v>6.88</v>
@@ -2256,13 +2661,16 @@
       <c r="D135" t="n">
         <v>21.02</v>
       </c>
+      <c r="E135" t="n">
+        <v>121.660673889057</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="n">
         <v>9.14</v>
@@ -2270,13 +2678,16 @@
       <c r="D136" t="n">
         <v>22.08</v>
       </c>
+      <c r="E136" t="n">
+        <v>429.30290284259</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="n">
         <v>7.4</v>
@@ -2284,13 +2695,16 @@
       <c r="D137" t="n">
         <v>17.63</v>
       </c>
+      <c r="E137" t="n">
+        <v>584.599265863535</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="n">
         <v>8.21</v>
@@ -2298,13 +2712,16 @@
       <c r="D138" t="n">
         <v>20.46</v>
       </c>
+      <c r="E138" t="n">
+        <v>127.338482327627</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="n">
         <v>9.17</v>
@@ -2312,13 +2729,16 @@
       <c r="D139" t="n">
         <v>20.07</v>
       </c>
+      <c r="E139" t="n">
+        <v>68.6420883205641</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="n">
         <v>8.95</v>
@@ -2326,13 +2746,16 @@
       <c r="D140" t="n">
         <v>23.94</v>
       </c>
+      <c r="E140" t="n">
+        <v>17.2107783187926</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="n">
         <v>9.09</v>
@@ -2340,13 +2763,16 @@
       <c r="D141" t="n">
         <v>20.89</v>
       </c>
+      <c r="E141" t="n">
+        <v>40.6273574055993</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="n">
         <v>8.19</v>
@@ -2354,13 +2780,16 @@
       <c r="D142" t="n">
         <v>20.07</v>
       </c>
+      <c r="E142" t="n">
+        <v>138.105310120901</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="n">
         <v>9.56</v>
@@ -2368,13 +2797,16 @@
       <c r="D143" t="n">
         <v>23.68</v>
       </c>
+      <c r="E143" t="n">
+        <v>335.348642045035</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
         <v>9.01</v>
@@ -2382,13 +2814,16 @@
       <c r="D144" t="n">
         <v>21.69</v>
       </c>
+      <c r="E144" t="n">
+        <v>158.291308925875</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="n">
         <v>8.22</v>
@@ -2396,13 +2831,16 @@
       <c r="D145" t="n">
         <v>18.02</v>
       </c>
+      <c r="E145" t="n">
+        <v>609.652699340448</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
         <v>8.24</v>
@@ -2410,13 +2848,16 @@
       <c r="D146" t="n">
         <v>21.31</v>
       </c>
+      <c r="E146" t="n">
+        <v>115.648878807451</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="n">
         <v>9.2</v>
@@ -2424,13 +2865,16 @@
       <c r="D147" t="n">
         <v>22.29</v>
       </c>
+      <c r="E147" t="n">
+        <v>74.5065083891898</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="n">
         <v>8.44</v>
@@ -2438,13 +2882,16 @@
       <c r="D148" t="n">
         <v>22.24</v>
       </c>
+      <c r="E148" t="n">
+        <v>109.928344419139</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="n">
         <v>9.28</v>
@@ -2452,13 +2899,16 @@
       <c r="D149" t="n">
         <v>17.77</v>
       </c>
+      <c r="E149" t="n">
+        <v>57.7826786414191</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="n">
         <v>8.87</v>
@@ -2466,13 +2916,16 @@
       <c r="D150" t="n">
         <v>19.24</v>
       </c>
+      <c r="E150" t="n">
+        <v>154.941774496483</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="n">
         <v>10.44</v>
@@ -2480,13 +2933,16 @@
       <c r="D151" t="n">
         <v>20.75</v>
       </c>
+      <c r="E151" t="n">
+        <v>105.866325014157</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="n">
         <v>8.01</v>
@@ -2494,13 +2950,16 @@
       <c r="D152" t="n">
         <v>20.31</v>
       </c>
+      <c r="E152" t="n">
+        <v>1007.04098643989</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="n">
         <v>8.16</v>
@@ -2508,13 +2967,16 @@
       <c r="D153" t="n">
         <v>18.73</v>
       </c>
+      <c r="E153" t="n">
+        <v>72.4621616360575</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="n">
         <v>8.3</v>
@@ -2522,13 +2984,16 @@
       <c r="D154" t="n">
         <v>22.07</v>
       </c>
+      <c r="E154" t="n">
+        <v>142.729424927295</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="n">
         <v>8.71</v>
@@ -2536,13 +3001,16 @@
       <c r="D155" t="n">
         <v>18.54</v>
       </c>
+      <c r="E155" t="n">
+        <v>80.2458993782025</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="n">
         <v>8.02</v>
@@ -2550,13 +3018,16 @@
       <c r="D156" t="n">
         <v>17.2</v>
       </c>
+      <c r="E156" t="n">
+        <v>85.3730234470876</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="n">
         <v>8.92</v>
@@ -2564,13 +3035,16 @@
       <c r="D157" t="n">
         <v>22.83</v>
       </c>
+      <c r="E157" t="n">
+        <v>382.574573030782</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="n">
         <v>8.53</v>
@@ -2578,13 +3052,16 @@
       <c r="D158" t="n">
         <v>18.41</v>
       </c>
+      <c r="E158" t="n">
+        <v>62.9933789810074</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="n">
         <v>7.61</v>
@@ -2592,13 +3069,16 @@
       <c r="D159" t="n">
         <v>18.65</v>
       </c>
+      <c r="E159" t="n">
+        <v>11.4842921872248</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="n">
         <v>8.75</v>
@@ -2606,13 +3086,16 @@
       <c r="D160" t="n">
         <v>18.62</v>
       </c>
+      <c r="E160" t="n">
+        <v>901.356510696764</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="n">
         <v>9.75</v>
@@ -2620,13 +3103,16 @@
       <c r="D161" t="n">
         <v>23.36</v>
       </c>
+      <c r="E161" t="n">
+        <v>194.517563422253</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="n">
         <v>8.93</v>
@@ -2634,13 +3120,16 @@
       <c r="D162" t="n">
         <v>21.17</v>
       </c>
+      <c r="E162" t="n">
+        <v>92.3442043104428</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="n">
         <v>10.21</v>
@@ -2648,13 +3137,16 @@
       <c r="D163" t="n">
         <v>21.5</v>
       </c>
+      <c r="E163" t="n">
+        <v>1663.41831610779</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="n">
         <v>11.43</v>
@@ -2662,13 +3154,16 @@
       <c r="D164" t="n">
         <v>24.39</v>
       </c>
+      <c r="E164" t="n">
+        <v>181.07304060951</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="n">
         <v>8.07</v>
@@ -2676,13 +3171,16 @@
       <c r="D165" t="n">
         <v>21.44</v>
       </c>
+      <c r="E165" t="n">
+        <v>217.882906249623</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
         <v>9.47</v>
@@ -2690,13 +3188,16 @@
       <c r="D166" t="n">
         <v>15.85</v>
       </c>
+      <c r="E166" t="n">
+        <v>520.431215200407</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="n">
         <v>9.86</v>
@@ -2704,13 +3205,16 @@
       <c r="D167" t="n">
         <v>22.28</v>
       </c>
+      <c r="E167" t="n">
+        <v>177.179593877921</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="n">
         <v>9</v>
@@ -2718,13 +3222,16 @@
       <c r="D168" t="n">
         <v>23.12</v>
       </c>
+      <c r="E168" t="n">
+        <v>65.4174581095297</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
         <v>10</v>
@@ -2732,13 +3239,16 @@
       <c r="D169" t="n">
         <v>18.3</v>
       </c>
+      <c r="E169" t="n">
+        <v>115.442783311371</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="n">
         <v>9.01</v>
@@ -2746,13 +3256,16 @@
       <c r="D170" t="n">
         <v>22.1</v>
       </c>
+      <c r="E170" t="n">
+        <v>119.82358422166</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="n">
         <v>9.68</v>
@@ -2760,13 +3273,16 @@
       <c r="D171" t="n">
         <v>22.43</v>
       </c>
+      <c r="E171" t="n">
+        <v>122.27449965663</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="n">
         <v>10.17</v>
@@ -2774,13 +3290,16 @@
       <c r="D172" t="n">
         <v>21.53</v>
       </c>
+      <c r="E172" t="n">
+        <v>114.814929020709</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="n">
         <v>9.94</v>
@@ -2788,13 +3307,16 @@
       <c r="D173" t="n">
         <v>19</v>
       </c>
+      <c r="E173" t="n">
+        <v>28.6329112439507</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="n">
         <v>9.38</v>
@@ -2802,13 +3324,16 @@
       <c r="D174" t="n">
         <v>20.28</v>
       </c>
+      <c r="E174" t="n">
+        <v>143.566338527602</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="n">
         <v>9.05</v>
@@ -2816,13 +3341,16 @@
       <c r="D175" t="n">
         <v>21.85</v>
       </c>
+      <c r="E175" t="n">
+        <v>282.032274012912</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="n">
         <v>9.75</v>
@@ -2830,13 +3358,16 @@
       <c r="D176" t="n">
         <v>22.06</v>
       </c>
+      <c r="E176" t="n">
+        <v>101.545895849423</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="n">
         <v>8.37</v>
@@ -2844,13 +3375,16 @@
       <c r="D177" t="n">
         <v>17.73</v>
       </c>
+      <c r="E177" t="n">
+        <v>188.899473413507</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="n">
         <v>8.57</v>
@@ -2858,13 +3392,16 @@
       <c r="D178" t="n">
         <v>18.78</v>
       </c>
+      <c r="E178" t="n">
+        <v>254.105123012718</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="n">
         <v>7.04</v>
@@ -2872,13 +3409,16 @@
       <c r="D179" t="n">
         <v>20.53</v>
       </c>
+      <c r="E179" t="n">
+        <v>22.3791387730458</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="n">
         <v>7.63</v>
@@ -2886,13 +3426,16 @@
       <c r="D180" t="n">
         <v>22.26</v>
       </c>
+      <c r="E180" t="n">
+        <v>334.121800104916</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="n">
         <v>9.35</v>
@@ -2900,13 +3443,16 @@
       <c r="D181" t="n">
         <v>21.88</v>
       </c>
+      <c r="E181" t="n">
+        <v>262.31945019871</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="n">
         <v>9.3</v>
@@ -2914,13 +3460,16 @@
       <c r="D182" t="n">
         <v>24.37</v>
       </c>
+      <c r="E182" t="n">
+        <v>46.6136803607249</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="n">
         <v>7.7</v>
@@ -2928,13 +3477,16 @@
       <c r="D183" t="n">
         <v>22.86</v>
       </c>
+      <c r="E183" t="n">
+        <v>270.269312196791</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="n">
         <v>8.24</v>
@@ -2942,13 +3494,16 @@
       <c r="D184" t="n">
         <v>20.65</v>
       </c>
+      <c r="E184" t="n">
+        <v>394.009324355873</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="n">
         <v>8.95</v>
@@ -2956,13 +3511,16 @@
       <c r="D185" t="n">
         <v>18.29</v>
       </c>
+      <c r="E185" t="n">
+        <v>73.5304361875883</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="n">
         <v>8.96</v>
@@ -2970,13 +3528,16 @@
       <c r="D186" t="n">
         <v>19.54</v>
       </c>
+      <c r="E186" t="n">
+        <v>382.299509996713</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="n">
         <v>9.83</v>
@@ -2984,13 +3545,16 @@
       <c r="D187" t="n">
         <v>23.05</v>
       </c>
+      <c r="E187" t="n">
+        <v>50.5259064248603</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="n">
         <v>10.02</v>
@@ -2998,13 +3562,16 @@
       <c r="D188" t="n">
         <v>22.55</v>
       </c>
+      <c r="E188" t="n">
+        <v>105.191017961926</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="n">
         <v>9.09</v>
@@ -3012,13 +3579,16 @@
       <c r="D189" t="n">
         <v>21.91</v>
       </c>
+      <c r="E189" t="n">
+        <v>77.0825263529158</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="n">
         <v>11.73</v>
@@ -3026,13 +3596,16 @@
       <c r="D190" t="n">
         <v>23.69</v>
       </c>
+      <c r="E190" t="n">
+        <v>81.3598057662272</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="n">
         <v>10.29</v>
@@ -3040,13 +3613,16 @@
       <c r="D191" t="n">
         <v>20.12</v>
       </c>
+      <c r="E191" t="n">
+        <v>515.133232459457</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="n">
         <v>10.11</v>
@@ -3054,13 +3630,16 @@
       <c r="D192" t="n">
         <v>23.2</v>
       </c>
+      <c r="E192" t="n">
+        <v>208.369822171315</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="n">
         <v>7.95</v>
@@ -3068,13 +3647,16 @@
       <c r="D193" t="n">
         <v>20.28</v>
       </c>
+      <c r="E193" t="n">
+        <v>95.8037114484387</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="n">
         <v>8.78</v>
@@ -3082,13 +3664,16 @@
       <c r="D194" t="n">
         <v>21.11</v>
       </c>
+      <c r="E194" t="n">
+        <v>1040.45778697251</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="n">
         <v>7.22</v>
@@ -3096,13 +3681,16 @@
       <c r="D195" t="n">
         <v>18.46</v>
       </c>
+      <c r="E195" t="n">
+        <v>233.525056889072</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="n">
         <v>10.57</v>
@@ -3110,13 +3698,16 @@
       <c r="D196" t="n">
         <v>18.58</v>
       </c>
+      <c r="E196" t="n">
+        <v>197.919079143795</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="n">
         <v>9.71</v>
@@ -3124,13 +3715,16 @@
       <c r="D197" t="n">
         <v>20.56</v>
       </c>
+      <c r="E197" t="n">
+        <v>319.291383777647</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="n">
         <v>10.49</v>
@@ -3138,13 +3732,16 @@
       <c r="D198" t="n">
         <v>17.35</v>
       </c>
+      <c r="E198" t="n">
+        <v>257.919969076912</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="n">
         <v>10.71</v>
@@ -3152,13 +3749,16 @@
       <c r="D199" t="n">
         <v>21.02</v>
       </c>
+      <c r="E199" t="n">
+        <v>157.13705649981</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="n">
         <v>8.5</v>
@@ -3166,13 +3766,16 @@
       <c r="D200" t="n">
         <v>20.2</v>
       </c>
+      <c r="E200" t="n">
+        <v>12.4563932996611</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="n">
         <v>8.09</v>
@@ -3180,13 +3783,16 @@
       <c r="D201" t="n">
         <v>18.27</v>
       </c>
+      <c r="E201" t="n">
+        <v>220.614285147443</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="n">
         <v>8.48</v>
@@ -3194,13 +3800,16 @@
       <c r="D202" t="n">
         <v>18.29</v>
       </c>
+      <c r="E202" t="n">
+        <v>393.962980563886</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="n">
         <v>5.84</v>
@@ -3208,13 +3817,16 @@
       <c r="D203" t="n">
         <v>20.83</v>
       </c>
+      <c r="E203" t="n">
+        <v>203.422982340904</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="n">
         <v>6.12</v>
@@ -3222,13 +3834,16 @@
       <c r="D204" t="n">
         <v>20.08</v>
       </c>
+      <c r="E204" t="n">
+        <v>107.075979202014</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
         <v>7.02</v>
@@ -3236,13 +3851,16 @@
       <c r="D205" t="n">
         <v>16.59</v>
       </c>
+      <c r="E205" t="n">
+        <v>246.996337251094</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="n">
         <v>6.12</v>
@@ -3250,13 +3868,16 @@
       <c r="D206" t="n">
         <v>20.72</v>
       </c>
+      <c r="E206" t="n">
+        <v>144.260364000828</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="n">
         <v>7.7</v>
@@ -3264,13 +3885,16 @@
       <c r="D207" t="n">
         <v>15.99</v>
       </c>
+      <c r="E207" t="n">
+        <v>107.216132761858</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="n">
         <v>7.24</v>
@@ -3278,13 +3902,16 @@
       <c r="D208" t="n">
         <v>18.78</v>
       </c>
+      <c r="E208" t="n">
+        <v>272.994044129398</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="n">
         <v>5.9</v>
@@ -3292,13 +3919,16 @@
       <c r="D209" t="n">
         <v>17.04</v>
       </c>
+      <c r="E209" t="n">
+        <v>484.835281212316</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="n">
         <v>8.16</v>
@@ -3306,13 +3936,16 @@
       <c r="D210" t="n">
         <v>18.86</v>
       </c>
+      <c r="E210" t="n">
+        <v>75.1232007207329</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="n">
         <v>5.37</v>
@@ -3320,13 +3953,16 @@
       <c r="D211" t="n">
         <v>17.58</v>
       </c>
+      <c r="E211" t="n">
+        <v>540.868308227741</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="n">
         <v>7.24</v>
@@ -3334,13 +3970,16 @@
       <c r="D212" t="n">
         <v>18.46</v>
       </c>
+      <c r="E212" t="n">
+        <v>1385.25929486031</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="n">
         <v>6.35</v>
@@ -3348,13 +3987,16 @@
       <c r="D213" t="n">
         <v>15.12</v>
       </c>
+      <c r="E213" t="n">
+        <v>44.5239556733933</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
         <v>6.52</v>
@@ -3362,13 +4004,16 @@
       <c r="D214" t="n">
         <v>20.09</v>
       </c>
+      <c r="E214" t="n">
+        <v>91.9347332067601</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="n">
         <v>8.29</v>
@@ -3376,13 +4021,16 @@
       <c r="D215" t="n">
         <v>17.02</v>
       </c>
+      <c r="E215" t="n">
+        <v>40.9687967463406</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
         <v>5.49</v>
@@ -3390,13 +4038,16 @@
       <c r="D216" t="n">
         <v>14.02</v>
       </c>
+      <c r="E216" t="n">
+        <v>44.0191539376998</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="n">
         <v>6.5</v>
@@ -3404,13 +4055,16 @@
       <c r="D217" t="n">
         <v>15.72</v>
       </c>
+      <c r="E217" t="n">
+        <v>335.650780645258</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="n">
         <v>8.23</v>
@@ -3418,13 +4072,16 @@
       <c r="D218" t="n">
         <v>16.61</v>
       </c>
+      <c r="E218" t="n">
+        <v>312.579741607409</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="n">
         <v>7.07</v>
@@ -3432,13 +4089,16 @@
       <c r="D219" t="n">
         <v>18.64</v>
       </c>
+      <c r="E219" t="n">
+        <v>673.915071721165</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="n">
         <v>7.18</v>
@@ -3446,13 +4106,16 @@
       <c r="D220" t="n">
         <v>17.55</v>
       </c>
+      <c r="E220" t="n">
+        <v>212.262103870768</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="n">
         <v>5.99</v>
@@ -3460,13 +4123,16 @@
       <c r="D221" t="n">
         <v>18.17</v>
       </c>
+      <c r="E221" t="n">
+        <v>131.554502270989</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="n">
         <v>7.34</v>
@@ -3474,13 +4140,16 @@
       <c r="D222" t="n">
         <v>17.14</v>
       </c>
+      <c r="E222" t="n">
+        <v>304.794690898231</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="n">
         <v>6.02</v>
@@ -3488,13 +4157,16 @@
       <c r="D223" t="n">
         <v>18.45</v>
       </c>
+      <c r="E223" t="n">
+        <v>570.930023466285</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="n">
         <v>7.11</v>
@@ -3502,13 +4174,16 @@
       <c r="D224" t="n">
         <v>19.5</v>
       </c>
+      <c r="E224" t="n">
+        <v>220.351292373007</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="n">
         <v>6.36</v>
@@ -3516,13 +4191,16 @@
       <c r="D225" t="n">
         <v>21.02</v>
       </c>
+      <c r="E225" t="n">
+        <v>83.4554024475024</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="n">
         <v>5.08</v>
@@ -3530,13 +4208,16 @@
       <c r="D226" t="n">
         <v>21.76</v>
       </c>
+      <c r="E226" t="n">
+        <v>33.9685806240675</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="n">
         <v>8.47</v>
@@ -3544,13 +4225,16 @@
       <c r="D227" t="n">
         <v>18.48</v>
       </c>
+      <c r="E227" t="n">
+        <v>58.3973085991545</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="n">
         <v>6.62</v>
@@ -3558,13 +4242,16 @@
       <c r="D228" t="n">
         <v>13.92</v>
       </c>
+      <c r="E228" t="n">
+        <v>110.734891039235</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="n">
         <v>6.36</v>
@@ -3572,13 +4259,16 @@
       <c r="D229" t="n">
         <v>19.91</v>
       </c>
+      <c r="E229" t="n">
+        <v>637.492560104346</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="n">
         <v>7.2</v>
@@ -3586,13 +4276,16 @@
       <c r="D230" t="n">
         <v>18.2</v>
       </c>
+      <c r="E230" t="n">
+        <v>361.887986218427</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="n">
         <v>6.16</v>
@@ -3600,13 +4293,16 @@
       <c r="D231" t="n">
         <v>18.42</v>
       </c>
+      <c r="E231" t="n">
+        <v>196.528708707482</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="n">
         <v>7.15</v>
@@ -3614,13 +4310,16 @@
       <c r="D232" t="n">
         <v>20.04</v>
       </c>
+      <c r="E232" t="n">
+        <v>70.5357657264197</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="n">
         <v>7.63</v>
@@ -3628,13 +4327,16 @@
       <c r="D233" t="n">
         <v>18.89</v>
       </c>
+      <c r="E233" t="n">
+        <v>291.070487249218</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="n">
         <v>7.13</v>
@@ -3642,13 +4344,16 @@
       <c r="D234" t="n">
         <v>18.73</v>
       </c>
+      <c r="E234" t="n">
+        <v>10.8946735651542</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="n">
         <v>7.11</v>
@@ -3656,13 +4361,16 @@
       <c r="D235" t="n">
         <v>17.16</v>
       </c>
+      <c r="E235" t="n">
+        <v>141.88154551955</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="n">
         <v>7.79</v>
@@ -3670,13 +4378,16 @@
       <c r="D236" t="n">
         <v>18.43</v>
       </c>
+      <c r="E236" t="n">
+        <v>838.705725199429</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="n">
         <v>7.09</v>
@@ -3684,13 +4395,16 @@
       <c r="D237" t="n">
         <v>20.75</v>
       </c>
+      <c r="E237" t="n">
+        <v>199.772651703551</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="n">
         <v>5.88</v>
@@ -3698,13 +4412,16 @@
       <c r="D238" t="n">
         <v>19.88</v>
       </c>
+      <c r="E238" t="n">
+        <v>238.950610892262</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="n">
         <v>7.3</v>
@@ -3712,13 +4429,16 @@
       <c r="D239" t="n">
         <v>17.19</v>
       </c>
+      <c r="E239" t="n">
+        <v>163.238723671842</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="n">
         <v>8.12</v>
@@ -3726,13 +4446,16 @@
       <c r="D240" t="n">
         <v>16.71</v>
       </c>
+      <c r="E240" t="n">
+        <v>80.6410439127384</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="n">
         <v>8.77</v>
@@ -3740,13 +4463,16 @@
       <c r="D241" t="n">
         <v>18.79</v>
       </c>
+      <c r="E241" t="n">
+        <v>128.564797828522</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="n">
         <v>6.68</v>
@@ -3754,13 +4480,16 @@
       <c r="D242" t="n">
         <v>17.54</v>
       </c>
+      <c r="E242" t="n">
+        <v>258.763417035334</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="n">
         <v>6.63</v>
@@ -3768,13 +4497,16 @@
       <c r="D243" t="n">
         <v>17.48</v>
       </c>
+      <c r="E243" t="n">
+        <v>97.2401719683259</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="n">
         <v>6.81</v>
@@ -3782,13 +4514,16 @@
       <c r="D244" t="n">
         <v>19.42</v>
       </c>
+      <c r="E244" t="n">
+        <v>45.5122475263045</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="n">
         <v>7.67</v>
@@ -3796,13 +4531,16 @@
       <c r="D245" t="n">
         <v>14.28</v>
       </c>
+      <c r="E245" t="n">
+        <v>588.803072797721</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="n">
         <v>6.57</v>
@@ -3810,13 +4548,16 @@
       <c r="D246" t="n">
         <v>16.45</v>
       </c>
+      <c r="E246" t="n">
+        <v>136.496111583199</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="n">
         <v>5.36</v>
@@ -3824,13 +4565,16 @@
       <c r="D247" t="n">
         <v>18.61</v>
       </c>
+      <c r="E247" t="n">
+        <v>253.710197766394</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="n">
         <v>7.96</v>
@@ -3838,13 +4582,16 @@
       <c r="D248" t="n">
         <v>17.85</v>
       </c>
+      <c r="E248" t="n">
+        <v>345.404091898682</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="n">
         <v>5.75</v>
@@ -3852,13 +4599,16 @@
       <c r="D249" t="n">
         <v>18.28</v>
       </c>
+      <c r="E249" t="n">
+        <v>23.557494490513</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="n">
         <v>6.14</v>
@@ -3866,13 +4616,16 @@
       <c r="D250" t="n">
         <v>16.49</v>
       </c>
+      <c r="E250" t="n">
+        <v>158.086417078228</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="n">
         <v>7.79</v>
@@ -3880,13 +4633,16 @@
       <c r="D251" t="n">
         <v>17.67</v>
       </c>
+      <c r="E251" t="n">
+        <v>137.131623485771</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="n">
         <v>6.95</v>
@@ -3894,13 +4650,16 @@
       <c r="D252" t="n">
         <v>18.63</v>
       </c>
+      <c r="E252" t="n">
+        <v>180.893533221791</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="n">
         <v>6.28</v>
@@ -3908,13 +4667,16 @@
       <c r="D253" t="n">
         <v>21.59</v>
       </c>
+      <c r="E253" t="n">
+        <v>129.240288687188</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="n">
         <v>4.43</v>
@@ -3922,13 +4684,16 @@
       <c r="D254" t="n">
         <v>19.81</v>
       </c>
+      <c r="E254" t="n">
+        <v>72.7694562331124</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="n">
         <v>7.02</v>
@@ -3936,13 +4701,16 @@
       <c r="D255" t="n">
         <v>16.69</v>
       </c>
+      <c r="E255" t="n">
+        <v>141.057340669341</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="n">
         <v>5.74</v>
@@ -3950,13 +4718,16 @@
       <c r="D256" t="n">
         <v>17.9</v>
       </c>
+      <c r="E256" t="n">
+        <v>60.2774959829646</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="n">
         <v>8.83</v>
@@ -3964,13 +4735,16 @@
       <c r="D257" t="n">
         <v>17.21</v>
       </c>
+      <c r="E257" t="n">
+        <v>68.5223829202787</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C258" t="n">
         <v>5.57</v>
@@ -3978,13 +4752,16 @@
       <c r="D258" t="n">
         <v>15.08</v>
       </c>
+      <c r="E258" t="n">
+        <v>216.682195034533</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C259" t="n">
         <v>7.1</v>
@@ -3992,13 +4769,16 @@
       <c r="D259" t="n">
         <v>15.4</v>
       </c>
+      <c r="E259" t="n">
+        <v>443.507119981457</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C260" t="n">
         <v>7.88</v>
@@ -4006,13 +4786,16 @@
       <c r="D260" t="n">
         <v>20.09</v>
       </c>
+      <c r="E260" t="n">
+        <v>223.096179827344</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C261" t="n">
         <v>6.44</v>
@@ -4020,13 +4803,16 @@
       <c r="D261" t="n">
         <v>19.36</v>
       </c>
+      <c r="E261" t="n">
+        <v>353.115356580473</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C262" t="n">
         <v>6.75</v>
@@ -4034,13 +4820,16 @@
       <c r="D262" t="n">
         <v>17.92</v>
       </c>
+      <c r="E262" t="n">
+        <v>1264.55700833534</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C263" t="n">
         <v>8.79</v>
@@ -4048,13 +4837,16 @@
       <c r="D263" t="n">
         <v>17.62</v>
       </c>
+      <c r="E263" t="n">
+        <v>145.510421254991</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C264" t="n">
         <v>5.73</v>
@@ -4062,13 +4854,16 @@
       <c r="D264" t="n">
         <v>20.24</v>
       </c>
+      <c r="E264" t="n">
+        <v>165.636340766245</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C265" t="n">
         <v>6.33</v>
@@ -4076,13 +4871,16 @@
       <c r="D265" t="n">
         <v>16.42</v>
       </c>
+      <c r="E265" t="n">
+        <v>431.132384855587</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C266" t="n">
         <v>8.31</v>
@@ -4090,13 +4888,16 @@
       <c r="D266" t="n">
         <v>20.53</v>
       </c>
+      <c r="E266" t="n">
+        <v>336.189175469901</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C267" t="n">
         <v>5.77</v>
@@ -4104,13 +4905,16 @@
       <c r="D267" t="n">
         <v>14.87</v>
       </c>
+      <c r="E267" t="n">
+        <v>243.886804445663</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B268" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C268" t="n">
         <v>5.54</v>
@@ -4118,13 +4922,16 @@
       <c r="D268" t="n">
         <v>21.44</v>
       </c>
+      <c r="E268" t="n">
+        <v>238.982571658634</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C269" t="n">
         <v>6.34</v>
@@ -4132,13 +4939,16 @@
       <c r="D269" t="n">
         <v>20.14</v>
       </c>
+      <c r="E269" t="n">
+        <v>354.551401562679</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C270" t="n">
         <v>6.72</v>
@@ -4146,13 +4956,16 @@
       <c r="D270" t="n">
         <v>14.33</v>
       </c>
+      <c r="E270" t="n">
+        <v>411.189108230962</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C271" t="n">
         <v>7.39</v>
@@ -4160,13 +4973,16 @@
       <c r="D271" t="n">
         <v>15.91</v>
       </c>
+      <c r="E271" t="n">
+        <v>93.9107354141073</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C272" t="n">
         <v>7.37</v>
@@ -4174,13 +4990,16 @@
       <c r="D272" t="n">
         <v>19.58</v>
       </c>
+      <c r="E272" t="n">
+        <v>58.999287469234</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C273" t="n">
         <v>6.58</v>
@@ -4188,13 +5007,16 @@
       <c r="D273" t="n">
         <v>19.62</v>
       </c>
+      <c r="E273" t="n">
+        <v>83.9600610186674</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C274" t="n">
         <v>7.97</v>
@@ -4202,13 +5024,16 @@
       <c r="D274" t="n">
         <v>18.11</v>
       </c>
+      <c r="E274" t="n">
+        <v>237.850727008128</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C275" t="n">
         <v>7.24</v>
@@ -4216,13 +5041,16 @@
       <c r="D275" t="n">
         <v>20.39</v>
       </c>
+      <c r="E275" t="n">
+        <v>107.242677582911</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C276" t="n">
         <v>6.22</v>
@@ -4230,13 +5058,16 @@
       <c r="D276" t="n">
         <v>19.47</v>
       </c>
+      <c r="E276" t="n">
+        <v>21.6857737887085</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C277" t="n">
         <v>7.93</v>
@@ -4244,13 +5075,16 @@
       <c r="D277" t="n">
         <v>16</v>
       </c>
+      <c r="E277" t="n">
+        <v>45.1510670403517</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C278" t="n">
         <v>6.75</v>
@@ -4258,13 +5092,16 @@
       <c r="D278" t="n">
         <v>17.92</v>
       </c>
+      <c r="E278" t="n">
+        <v>78.15969358554</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C279" t="n">
         <v>7.6</v>
@@ -4272,13 +5109,16 @@
       <c r="D279" t="n">
         <v>17.57</v>
       </c>
+      <c r="E279" t="n">
+        <v>1688.89254182877</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C280" t="n">
         <v>5.89</v>
@@ -4286,13 +5126,16 @@
       <c r="D280" t="n">
         <v>15.52</v>
       </c>
+      <c r="E280" t="n">
+        <v>79.4468903757499</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C281" t="n">
         <v>7.14</v>
@@ -4300,13 +5143,16 @@
       <c r="D281" t="n">
         <v>20.12</v>
       </c>
+      <c r="E281" t="n">
+        <v>114.613807677148</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C282" t="n">
         <v>9.15</v>
@@ -4314,13 +5160,16 @@
       <c r="D282" t="n">
         <v>16.11</v>
       </c>
+      <c r="E282" t="n">
+        <v>222.467064080266</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C283" t="n">
         <v>8.35</v>
@@ -4328,13 +5177,16 @@
       <c r="D283" t="n">
         <v>16.1</v>
       </c>
+      <c r="E283" t="n">
+        <v>224.396624719056</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C284" t="n">
         <v>6.45</v>
@@ -4342,13 +5194,16 @@
       <c r="D284" t="n">
         <v>18.65</v>
       </c>
+      <c r="E284" t="n">
+        <v>377.220299138353</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C285" t="n">
         <v>7.44</v>
@@ -4356,13 +5211,16 @@
       <c r="D285" t="n">
         <v>16.94</v>
       </c>
+      <c r="E285" t="n">
+        <v>34.2177486046988</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C286" t="n">
         <v>6.13</v>
@@ -4370,13 +5228,16 @@
       <c r="D286" t="n">
         <v>15.79</v>
       </c>
+      <c r="E286" t="n">
+        <v>464.146284779243</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C287" t="n">
         <v>7.09</v>
@@ -4384,13 +5245,16 @@
       <c r="D287" t="n">
         <v>17.55</v>
       </c>
+      <c r="E287" t="n">
+        <v>236.957999027463</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C288" t="n">
         <v>7.4</v>
@@ -4398,13 +5262,16 @@
       <c r="D288" t="n">
         <v>17.47</v>
       </c>
+      <c r="E288" t="n">
+        <v>290.171392411558</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C289" t="n">
         <v>7.82</v>
@@ -4412,13 +5279,16 @@
       <c r="D289" t="n">
         <v>14.18</v>
       </c>
+      <c r="E289" t="n">
+        <v>59.755503776313</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C290" t="n">
         <v>6.22</v>
@@ -4426,13 +5296,16 @@
       <c r="D290" t="n">
         <v>15.66</v>
       </c>
+      <c r="E290" t="n">
+        <v>85.5956123611464</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C291" t="n">
         <v>6.91</v>
@@ -4440,13 +5313,16 @@
       <c r="D291" t="n">
         <v>17.64</v>
       </c>
+      <c r="E291" t="n">
+        <v>23.4956512382643</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C292" t="n">
         <v>8.03</v>
@@ -4454,13 +5330,16 @@
       <c r="D292" t="n">
         <v>15.53</v>
       </c>
+      <c r="E292" t="n">
+        <v>1612.64228609497</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C293" t="n">
         <v>6.84</v>
@@ -4468,13 +5347,16 @@
       <c r="D293" t="n">
         <v>16.06</v>
       </c>
+      <c r="E293" t="n">
+        <v>112.167962234341</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C294" t="n">
         <v>6.68</v>
@@ -4482,13 +5364,16 @@
       <c r="D294" t="n">
         <v>16.67</v>
       </c>
+      <c r="E294" t="n">
+        <v>220.999678119633</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C295" t="n">
         <v>6.36</v>
@@ -4496,13 +5381,16 @@
       <c r="D295" t="n">
         <v>19.14</v>
       </c>
+      <c r="E295" t="n">
+        <v>57.7097430455918</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C296" t="n">
         <v>6.18</v>
@@ -4510,13 +5398,16 @@
       <c r="D296" t="n">
         <v>17.09</v>
       </c>
+      <c r="E296" t="n">
+        <v>377.240675269844</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C297" t="n">
         <v>4.2</v>
@@ -4524,13 +5415,16 @@
       <c r="D297" t="n">
         <v>15.87</v>
       </c>
+      <c r="E297" t="n">
+        <v>301.030638294713</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C298" t="n">
         <v>7.38</v>
@@ -4538,13 +5432,16 @@
       <c r="D298" t="n">
         <v>19.99</v>
       </c>
+      <c r="E298" t="n">
+        <v>70.9393206644189</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B299" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C299" t="n">
         <v>6.11</v>
@@ -4552,13 +5449,16 @@
       <c r="D299" t="n">
         <v>17.71</v>
       </c>
+      <c r="E299" t="n">
+        <v>447.837747768906</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C300" t="n">
         <v>6.99</v>
@@ -4566,13 +5466,16 @@
       <c r="D300" t="n">
         <v>18.06</v>
       </c>
+      <c r="E300" t="n">
+        <v>62.6342206904625</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C301" t="n">
         <v>7.43</v>
@@ -4580,13 +5483,16 @@
       <c r="D301" t="n">
         <v>16.3</v>
       </c>
+      <c r="E301" t="n">
+        <v>75.5591860262337</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B302" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C302" t="n">
         <v>9.38</v>
@@ -4594,13 +5500,16 @@
       <c r="D302" t="n">
         <v>21.54</v>
       </c>
+      <c r="E302" t="n">
+        <v>71.6540075242875</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B303" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C303" t="n">
         <v>10.93</v>
@@ -4608,13 +5517,16 @@
       <c r="D303" t="n">
         <v>25.42</v>
       </c>
+      <c r="E303" t="n">
+        <v>388.187340271473</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B304" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C304" t="n">
         <v>10.73</v>
@@ -4622,13 +5534,16 @@
       <c r="D304" t="n">
         <v>25.71</v>
       </c>
+      <c r="E304" t="n">
+        <v>251.002094329063</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C305" t="n">
         <v>8.87</v>
@@ -4636,13 +5551,16 @@
       <c r="D305" t="n">
         <v>20.21</v>
       </c>
+      <c r="E305" t="n">
+        <v>122.598635413952</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
         <v>7.13</v>
@@ -4650,13 +5568,16 @@
       <c r="D306" t="n">
         <v>24.72</v>
       </c>
+      <c r="E306" t="n">
+        <v>422.803075234547</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B307" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C307" t="n">
         <v>8.24</v>
@@ -4664,13 +5585,16 @@
       <c r="D307" t="n">
         <v>20.66</v>
       </c>
+      <c r="E307" t="n">
+        <v>91.3244952550643</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C308" t="n">
         <v>9.89</v>
@@ -4678,13 +5602,16 @@
       <c r="D308" t="n">
         <v>23.37</v>
       </c>
+      <c r="E308" t="n">
+        <v>200.10681280105</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B309" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C309" t="n">
         <v>9.97</v>
@@ -4692,13 +5619,16 @@
       <c r="D309" t="n">
         <v>21.79</v>
       </c>
+      <c r="E309" t="n">
+        <v>288.894744516793</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C310" t="n">
         <v>8.54</v>
@@ -4706,13 +5636,16 @@
       <c r="D310" t="n">
         <v>22.92</v>
       </c>
+      <c r="E310" t="n">
+        <v>1039.28089338029</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C311" t="n">
         <v>8.95</v>
@@ -4720,13 +5653,16 @@
       <c r="D311" t="n">
         <v>22.04</v>
       </c>
+      <c r="E311" t="n">
+        <v>709.204271032776</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C312" t="n">
         <v>10.09</v>
@@ -4734,13 +5670,16 @@
       <c r="D312" t="n">
         <v>24.65</v>
       </c>
+      <c r="E312" t="n">
+        <v>15.7490472823884</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C313" t="n">
         <v>8.25</v>
@@ -4748,13 +5687,16 @@
       <c r="D313" t="n">
         <v>24.91</v>
       </c>
+      <c r="E313" t="n">
+        <v>91.7773235747273</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C314" t="n">
         <v>7.89</v>
@@ -4762,13 +5704,16 @@
       <c r="D314" t="n">
         <v>25.3</v>
       </c>
+      <c r="E314" t="n">
+        <v>1244.46654431337</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C315" t="n">
         <v>9.53</v>
@@ -4776,13 +5721,16 @@
       <c r="D315" t="n">
         <v>21.95</v>
       </c>
+      <c r="E315" t="n">
+        <v>1065.68246028783</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C316" t="n">
         <v>8.67</v>
@@ -4790,13 +5738,16 @@
       <c r="D316" t="n">
         <v>25.38</v>
       </c>
+      <c r="E316" t="n">
+        <v>23.5617036520191</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C317" t="n">
         <v>8.21</v>
@@ -4804,13 +5755,16 @@
       <c r="D317" t="n">
         <v>21.93</v>
       </c>
+      <c r="E317" t="n">
+        <v>445.956747459107</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C318" t="n">
         <v>9.43</v>
@@ -4818,13 +5772,16 @@
       <c r="D318" t="n">
         <v>23.39</v>
       </c>
+      <c r="E318" t="n">
+        <v>263.830613423984</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C319" t="n">
         <v>7.31</v>
@@ -4832,13 +5789,16 @@
       <c r="D319" t="n">
         <v>22.74</v>
       </c>
+      <c r="E319" t="n">
+        <v>83.3399336764441</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B320" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C320" t="n">
         <v>8.91</v>
@@ -4846,13 +5806,16 @@
       <c r="D320" t="n">
         <v>23.41</v>
       </c>
+      <c r="E320" t="n">
+        <v>653.561147697531</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B321" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C321" t="n">
         <v>10.9</v>
@@ -4860,13 +5823,16 @@
       <c r="D321" t="n">
         <v>19.92</v>
       </c>
+      <c r="E321" t="n">
+        <v>69.6599053188291</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C322" t="n">
         <v>9.98</v>
@@ -4874,13 +5840,16 @@
       <c r="D322" t="n">
         <v>21.05</v>
       </c>
+      <c r="E322" t="n">
+        <v>24.5384313787126</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B323" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C323" t="n">
         <v>8.59</v>
@@ -4888,13 +5857,16 @@
       <c r="D323" t="n">
         <v>21.92</v>
       </c>
+      <c r="E323" t="n">
+        <v>245.480270738684</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B324" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C324" t="n">
         <v>9.67</v>
@@ -4902,13 +5874,16 @@
       <c r="D324" t="n">
         <v>23.55</v>
       </c>
+      <c r="E324" t="n">
+        <v>464.299083669613</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B325" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C325" t="n">
         <v>9.3</v>
@@ -4916,13 +5891,16 @@
       <c r="D325" t="n">
         <v>22.72</v>
       </c>
+      <c r="E325" t="n">
+        <v>61.7046780046362</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C326" t="n">
         <v>8.45</v>
@@ -4930,13 +5908,16 @@
       <c r="D326" t="n">
         <v>24.07</v>
       </c>
+      <c r="E326" t="n">
+        <v>64.945740385987</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B327" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C327" t="n">
         <v>8.27</v>
@@ -4944,13 +5925,16 @@
       <c r="D327" t="n">
         <v>19.02</v>
       </c>
+      <c r="E327" t="n">
+        <v>214.419931228245</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C328" t="n">
         <v>9.59</v>
@@ -4958,13 +5942,16 @@
       <c r="D328" t="n">
         <v>21.1</v>
       </c>
+      <c r="E328" t="n">
+        <v>435.384462658666</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B329" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C329" t="n">
         <v>9.1</v>
@@ -4972,13 +5959,16 @@
       <c r="D329" t="n">
         <v>22.38</v>
       </c>
+      <c r="E329" t="n">
+        <v>504.8838632258</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C330" t="n">
         <v>8.45</v>
@@ -4986,13 +5976,16 @@
       <c r="D330" t="n">
         <v>23.32</v>
       </c>
+      <c r="E330" t="n">
+        <v>342.212262192733</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C331" t="n">
         <v>8.65</v>
@@ -5000,13 +5993,16 @@
       <c r="D331" t="n">
         <v>24.51</v>
       </c>
+      <c r="E331" t="n">
+        <v>244.321996937826</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C332" t="n">
         <v>8.83</v>
@@ -5014,13 +6010,16 @@
       <c r="D332" t="n">
         <v>25.98</v>
       </c>
+      <c r="E332" t="n">
+        <v>107.584295014558</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C333" t="n">
         <v>8.27</v>
@@ -5028,13 +6027,16 @@
       <c r="D333" t="n">
         <v>21.04</v>
       </c>
+      <c r="E333" t="n">
+        <v>107.739076326046</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C334" t="n">
         <v>8.1</v>
@@ -5042,13 +6044,16 @@
       <c r="D334" t="n">
         <v>21.85</v>
       </c>
+      <c r="E334" t="n">
+        <v>188.367943270723</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C335" t="n">
         <v>8.51</v>
@@ -5056,13 +6061,16 @@
       <c r="D335" t="n">
         <v>20.15</v>
       </c>
+      <c r="E335" t="n">
+        <v>251.308399087833</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C336" t="n">
         <v>11.2</v>
@@ -5070,13 +6078,16 @@
       <c r="D336" t="n">
         <v>23.07</v>
       </c>
+      <c r="E336" t="n">
+        <v>235.609603445099</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C337" t="n">
         <v>9.09</v>
@@ -5084,13 +6095,16 @@
       <c r="D337" t="n">
         <v>22.43</v>
       </c>
+      <c r="E337" t="n">
+        <v>63.1498234359013</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C338" t="n">
         <v>8.91</v>
@@ -5098,13 +6112,16 @@
       <c r="D338" t="n">
         <v>24.77</v>
       </c>
+      <c r="E338" t="n">
+        <v>118.752651864807</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C339" t="n">
         <v>10</v>
@@ -5112,13 +6129,16 @@
       <c r="D339" t="n">
         <v>24.74</v>
       </c>
+      <c r="E339" t="n">
+        <v>80.51615856989</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C340" t="n">
         <v>9.86</v>
@@ -5126,13 +6146,16 @@
       <c r="D340" t="n">
         <v>25.01</v>
       </c>
+      <c r="E340" t="n">
+        <v>104.77499771068</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C341" t="n">
         <v>8.83</v>
@@ -5140,13 +6163,16 @@
       <c r="D341" t="n">
         <v>21.1</v>
       </c>
+      <c r="E341" t="n">
+        <v>31.3919692248154</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C342" t="n">
         <v>7.76</v>
@@ -5154,13 +6180,16 @@
       <c r="D342" t="n">
         <v>21.72</v>
       </c>
+      <c r="E342" t="n">
+        <v>76.3088940750719</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C343" t="n">
         <v>9.25</v>
@@ -5168,13 +6197,16 @@
       <c r="D343" t="n">
         <v>21.46</v>
       </c>
+      <c r="E343" t="n">
+        <v>23.0266492938873</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C344" t="n">
         <v>8.42</v>
@@ -5182,13 +6214,16 @@
       <c r="D344" t="n">
         <v>23.92</v>
       </c>
+      <c r="E344" t="n">
+        <v>136.441587763904</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C345" t="n">
         <v>7.59</v>
@@ -5196,13 +6231,16 @@
       <c r="D345" t="n">
         <v>22.45</v>
       </c>
+      <c r="E345" t="n">
+        <v>210.453573465418</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C346" t="n">
         <v>8.37</v>
@@ -5210,13 +6248,16 @@
       <c r="D346" t="n">
         <v>27.92</v>
       </c>
+      <c r="E346" t="n">
+        <v>472.850898608418</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C347" t="n">
         <v>10.05</v>
@@ -5224,13 +6265,16 @@
       <c r="D347" t="n">
         <v>23.18</v>
       </c>
+      <c r="E347" t="n">
+        <v>49.7382191914699</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C348" t="n">
         <v>7.66</v>
@@ -5238,13 +6282,16 @@
       <c r="D348" t="n">
         <v>23.96</v>
       </c>
+      <c r="E348" t="n">
+        <v>72.5864603979359</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C349" t="n">
         <v>8.5</v>
@@ -5252,13 +6299,16 @@
       <c r="D349" t="n">
         <v>22.14</v>
       </c>
+      <c r="E349" t="n">
+        <v>123.363548777496</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C350" t="n">
         <v>8.17</v>
@@ -5266,13 +6316,16 @@
       <c r="D350" t="n">
         <v>23.94</v>
       </c>
+      <c r="E350" t="n">
+        <v>99.5503749012441</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C351" t="n">
         <v>6.96</v>
@@ -5280,13 +6333,16 @@
       <c r="D351" t="n">
         <v>25</v>
       </c>
+      <c r="E351" t="n">
+        <v>166.772510987973</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C352" t="n">
         <v>10.76</v>
@@ -5294,13 +6350,16 @@
       <c r="D352" t="n">
         <v>24.45</v>
       </c>
+      <c r="E352" t="n">
+        <v>155.006040664971</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C353" t="n">
         <v>8.96</v>
@@ -5308,13 +6367,16 @@
       <c r="D353" t="n">
         <v>20.99</v>
       </c>
+      <c r="E353" t="n">
+        <v>327.153052723624</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B354" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C354" t="n">
         <v>8.75</v>
@@ -5322,13 +6384,16 @@
       <c r="D354" t="n">
         <v>25.41</v>
       </c>
+      <c r="E354" t="n">
+        <v>81.907288251821</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B355" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C355" t="n">
         <v>6.15</v>
@@ -5336,13 +6401,16 @@
       <c r="D355" t="n">
         <v>26.68</v>
       </c>
+      <c r="E355" t="n">
+        <v>19.1308595536032</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C356" t="n">
         <v>10.63</v>
@@ -5350,13 +6418,16 @@
       <c r="D356" t="n">
         <v>24.68</v>
       </c>
+      <c r="E356" t="n">
+        <v>39.3686325589894</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B357" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C357" t="n">
         <v>7.62</v>
@@ -5364,13 +6435,16 @@
       <c r="D357" t="n">
         <v>23.46</v>
       </c>
+      <c r="E357" t="n">
+        <v>143.149874767478</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C358" t="n">
         <v>9.01</v>
@@ -5378,13 +6452,16 @@
       <c r="D358" t="n">
         <v>22.57</v>
       </c>
+      <c r="E358" t="n">
+        <v>329.136511931103</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B359" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C359" t="n">
         <v>9.15</v>
@@ -5392,13 +6469,16 @@
       <c r="D359" t="n">
         <v>21.87</v>
       </c>
+      <c r="E359" t="n">
+        <v>319.105805624835</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C360" t="n">
         <v>8.94</v>
@@ -5406,13 +6486,16 @@
       <c r="D360" t="n">
         <v>22.92</v>
       </c>
+      <c r="E360" t="n">
+        <v>63.8115287500501</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B361" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C361" t="n">
         <v>7.43</v>
@@ -5420,13 +6503,16 @@
       <c r="D361" t="n">
         <v>21.43</v>
       </c>
+      <c r="E361" t="n">
+        <v>65.8094880596617</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B362" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C362" t="n">
         <v>9.13</v>
@@ -5434,13 +6520,16 @@
       <c r="D362" t="n">
         <v>21.94</v>
       </c>
+      <c r="E362" t="n">
+        <v>46.7557801613566</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C363" t="n">
         <v>8.78</v>
@@ -5448,13 +6537,16 @@
       <c r="D363" t="n">
         <v>25.25</v>
       </c>
+      <c r="E363" t="n">
+        <v>261.757879766146</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B364" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C364" t="n">
         <v>9.4</v>
@@ -5462,13 +6554,16 @@
       <c r="D364" t="n">
         <v>23.07</v>
       </c>
+      <c r="E364" t="n">
+        <v>649.356146824113</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C365" t="n">
         <v>8.46</v>
@@ -5476,13 +6571,16 @@
       <c r="D365" t="n">
         <v>21.38</v>
       </c>
+      <c r="E365" t="n">
+        <v>265.712430618291</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C366" t="n">
         <v>8.92</v>
@@ -5490,13 +6588,16 @@
       <c r="D366" t="n">
         <v>20.67</v>
       </c>
+      <c r="E366" t="n">
+        <v>48.6974725881171</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B367" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C367" t="n">
         <v>9.49</v>
@@ -5504,13 +6605,16 @@
       <c r="D367" t="n">
         <v>22.09</v>
       </c>
+      <c r="E367" t="n">
+        <v>227.287048999137</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C368" t="n">
         <v>7.93</v>
@@ -5518,13 +6622,16 @@
       <c r="D368" t="n">
         <v>22.31</v>
       </c>
+      <c r="E368" t="n">
+        <v>320.634052704095</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C369" t="n">
         <v>7.9</v>
@@ -5532,13 +6639,16 @@
       <c r="D369" t="n">
         <v>25.23</v>
       </c>
+      <c r="E369" t="n">
+        <v>123.529426265248</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B370" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C370" t="n">
         <v>7.63</v>
@@ -5546,13 +6656,16 @@
       <c r="D370" t="n">
         <v>23.23</v>
       </c>
+      <c r="E370" t="n">
+        <v>138.815369009504</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C371" t="n">
         <v>7.55</v>
@@ -5560,13 +6673,16 @@
       <c r="D371" t="n">
         <v>23.55</v>
       </c>
+      <c r="E371" t="n">
+        <v>178.185877573565</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C372" t="n">
         <v>9.53</v>
@@ -5574,13 +6690,16 @@
       <c r="D372" t="n">
         <v>19.94</v>
       </c>
+      <c r="E372" t="n">
+        <v>350.59093481343</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C373" t="n">
         <v>9.09</v>
@@ -5588,13 +6707,16 @@
       <c r="D373" t="n">
         <v>23.29</v>
       </c>
+      <c r="E373" t="n">
+        <v>44.0553334868564</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C374" t="n">
         <v>8.33</v>
@@ -5602,13 +6724,16 @@
       <c r="D374" t="n">
         <v>25.11</v>
       </c>
+      <c r="E374" t="n">
+        <v>485.157687872565</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C375" t="n">
         <v>9.61</v>
@@ -5616,13 +6741,16 @@
       <c r="D375" t="n">
         <v>21.95</v>
       </c>
+      <c r="E375" t="n">
+        <v>80.7532459176471</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C376" t="n">
         <v>8.98</v>
@@ -5630,13 +6758,16 @@
       <c r="D376" t="n">
         <v>22.93</v>
       </c>
+      <c r="E376" t="n">
+        <v>380.824588164036</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C377" t="n">
         <v>10.72</v>
@@ -5644,13 +6775,16 @@
       <c r="D377" t="n">
         <v>23.27</v>
       </c>
+      <c r="E377" t="n">
+        <v>215.391538886303</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C378" t="n">
         <v>9.04</v>
@@ -5658,13 +6792,16 @@
       <c r="D378" t="n">
         <v>20.38</v>
       </c>
+      <c r="E378" t="n">
+        <v>334.490195925823</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C379" t="n">
         <v>8.23</v>
@@ -5672,13 +6809,16 @@
       <c r="D379" t="n">
         <v>24.09</v>
       </c>
+      <c r="E379" t="n">
+        <v>619.003746988126</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C380" t="n">
         <v>7.86</v>
@@ -5686,13 +6826,16 @@
       <c r="D380" t="n">
         <v>21.45</v>
       </c>
+      <c r="E380" t="n">
+        <v>894.190755097031</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C381" t="n">
         <v>8.27</v>
@@ -5700,13 +6843,16 @@
       <c r="D381" t="n">
         <v>23.2</v>
       </c>
+      <c r="E381" t="n">
+        <v>21.0713945116081</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B382" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C382" t="n">
         <v>9.22</v>
@@ -5714,13 +6860,16 @@
       <c r="D382" t="n">
         <v>24.18</v>
       </c>
+      <c r="E382" t="n">
+        <v>84.9523921402267</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C383" t="n">
         <v>10.2</v>
@@ -5728,13 +6877,16 @@
       <c r="D383" t="n">
         <v>24.58</v>
       </c>
+      <c r="E383" t="n">
+        <v>43.1112046661957</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B384" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C384" t="n">
         <v>10.82</v>
@@ -5742,13 +6894,16 @@
       <c r="D384" t="n">
         <v>24.14</v>
       </c>
+      <c r="E384" t="n">
+        <v>191.36468902992</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C385" t="n">
         <v>9.36</v>
@@ -5756,13 +6911,16 @@
       <c r="D385" t="n">
         <v>22.4</v>
       </c>
+      <c r="E385" t="n">
+        <v>394.213445175744</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C386" t="n">
         <v>10.1</v>
@@ -5770,13 +6928,16 @@
       <c r="D386" t="n">
         <v>24.89</v>
       </c>
+      <c r="E386" t="n">
+        <v>647.514168088255</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C387" t="n">
         <v>7.87</v>
@@ -5784,13 +6945,16 @@
       <c r="D387" t="n">
         <v>21.66</v>
       </c>
+      <c r="E387" t="n">
+        <v>100.487894975881</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B388" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C388" t="n">
         <v>7.64</v>
@@ -5798,13 +6962,16 @@
       <c r="D388" t="n">
         <v>23.2</v>
       </c>
+      <c r="E388" t="n">
+        <v>141.782024294885</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C389" t="n">
         <v>8.75</v>
@@ -5812,13 +6979,16 @@
       <c r="D389" t="n">
         <v>22.89</v>
       </c>
+      <c r="E389" t="n">
+        <v>44.1661435241631</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C390" t="n">
         <v>9.6</v>
@@ -5826,13 +6996,16 @@
       <c r="D390" t="n">
         <v>22.73</v>
       </c>
+      <c r="E390" t="n">
+        <v>339.194991250897</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B391" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C391" t="n">
         <v>10.24</v>
@@ -5840,13 +7013,16 @@
       <c r="D391" t="n">
         <v>21.15</v>
       </c>
+      <c r="E391" t="n">
+        <v>33.4742192897725</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B392" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C392" t="n">
         <v>9.23</v>
@@ -5854,13 +7030,16 @@
       <c r="D392" t="n">
         <v>21.76</v>
       </c>
+      <c r="E392" t="n">
+        <v>72.4245899053795</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C393" t="n">
         <v>10.42</v>
@@ -5868,13 +7047,16 @@
       <c r="D393" t="n">
         <v>24.9</v>
       </c>
+      <c r="E393" t="n">
+        <v>590.758778806838</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B394" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C394" t="n">
         <v>10.9</v>
@@ -5882,13 +7064,16 @@
       <c r="D394" t="n">
         <v>21.37</v>
       </c>
+      <c r="E394" t="n">
+        <v>357.971680608154</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C395" t="n">
         <v>7.36</v>
@@ -5896,13 +7081,16 @@
       <c r="D395" t="n">
         <v>22.67</v>
       </c>
+      <c r="E395" t="n">
+        <v>31.2139721456778</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C396" t="n">
         <v>7.99</v>
@@ -5910,13 +7098,16 @@
       <c r="D396" t="n">
         <v>23.92</v>
       </c>
+      <c r="E396" t="n">
+        <v>470.26290386353</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C397" t="n">
         <v>10.3</v>
@@ -5924,13 +7115,16 @@
       <c r="D397" t="n">
         <v>20.45</v>
       </c>
+      <c r="E397" t="n">
+        <v>70.9623490246244</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B398" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C398" t="n">
         <v>8.73</v>
@@ -5938,13 +7132,16 @@
       <c r="D398" t="n">
         <v>21.03</v>
       </c>
+      <c r="E398" t="n">
+        <v>91.5422028120055</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B399" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C399" t="n">
         <v>9.07</v>
@@ -5952,13 +7149,16 @@
       <c r="D399" t="n">
         <v>20.7</v>
       </c>
+      <c r="E399" t="n">
+        <v>83.583403323177</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B400" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C400" t="n">
         <v>9.3</v>
@@ -5966,19 +7166,25 @@
       <c r="D400" t="n">
         <v>19.31</v>
       </c>
+      <c r="E400" t="n">
+        <v>84.0240877720691</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C401" t="n">
         <v>9.25</v>
       </c>
       <c r="D401" t="n">
         <v>27.1</v>
+      </c>
+      <c r="E401" t="n">
+        <v>27.5068842626427</v>
       </c>
     </row>
   </sheetData>

--- a/data/flea_dog_cat_length_weight.xlsx
+++ b/data/flea_dog_cat_length_weight.xlsx
@@ -401,7 +401,7 @@
         <v>16.93</v>
       </c>
       <c r="E2" t="n">
-        <v>68.5607030828682</v>
+        <v>68.56</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>16.22</v>
       </c>
       <c r="E3" t="n">
-        <v>131.663962463075</v>
+        <v>131.66</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>18.96</v>
       </c>
       <c r="E4" t="n">
-        <v>94.6300466572861</v>
+        <v>94.63</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>19.83</v>
       </c>
       <c r="E5" t="n">
-        <v>110.037620806241</v>
+        <v>110.04</v>
       </c>
     </row>
     <row r="6">
@@ -469,7 +469,7 @@
         <v>17.37</v>
       </c>
       <c r="E6" t="n">
-        <v>103.202381557306</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +486,7 @@
         <v>14.45</v>
       </c>
       <c r="E7" t="n">
-        <v>326.905571938527</v>
+        <v>326.91</v>
       </c>
     </row>
     <row r="8">
@@ -503,7 +503,7 @@
         <v>15.46</v>
       </c>
       <c r="E8" t="n">
-        <v>360.895299014955</v>
+        <v>360.9</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         <v>15.81</v>
       </c>
       <c r="E9" t="n">
-        <v>21.1496681345285</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +537,7 @@
         <v>19.14</v>
       </c>
       <c r="E10" t="n">
-        <v>203.734455254478</v>
+        <v>203.73</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +554,7 @@
         <v>15.72</v>
       </c>
       <c r="E11" t="n">
-        <v>878.640460495332</v>
+        <v>878.64</v>
       </c>
     </row>
     <row r="12">
@@ -571,7 +571,7 @@
         <v>14.65</v>
       </c>
       <c r="E12" t="n">
-        <v>338.424763258297</v>
+        <v>338.42</v>
       </c>
     </row>
     <row r="13">
@@ -588,7 +588,7 @@
         <v>17.21</v>
       </c>
       <c r="E13" t="n">
-        <v>81.7145993247279</v>
+        <v>81.71</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +605,7 @@
         <v>14.07</v>
       </c>
       <c r="E14" t="n">
-        <v>520.188781457742</v>
+        <v>520.19</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +622,7 @@
         <v>15.5</v>
       </c>
       <c r="E15" t="n">
-        <v>208.102243200523</v>
+        <v>208.1</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +639,7 @@
         <v>15.37</v>
       </c>
       <c r="E16" t="n">
-        <v>377.381338405879</v>
+        <v>377.38</v>
       </c>
     </row>
     <row r="17">
@@ -656,7 +656,7 @@
         <v>14.79</v>
       </c>
       <c r="E17" t="n">
-        <v>95.5500213810692</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="18">
@@ -673,7 +673,7 @@
         <v>15.51</v>
       </c>
       <c r="E18" t="n">
-        <v>191.668625005596</v>
+        <v>191.67</v>
       </c>
     </row>
     <row r="19">
@@ -690,7 +690,7 @@
         <v>16.33</v>
       </c>
       <c r="E19" t="n">
-        <v>92.6068959340921</v>
+        <v>92.61</v>
       </c>
     </row>
     <row r="20">
@@ -707,7 +707,7 @@
         <v>16.04</v>
       </c>
       <c r="E20" t="n">
-        <v>340.666860079945</v>
+        <v>340.67</v>
       </c>
     </row>
     <row r="21">
@@ -724,7 +724,7 @@
         <v>16.57</v>
       </c>
       <c r="E21" t="n">
-        <v>70.3109450046642</v>
+        <v>70.31</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>14.33</v>
       </c>
       <c r="E22" t="n">
-        <v>115.371763451043</v>
+        <v>115.37</v>
       </c>
     </row>
     <row r="23">
@@ -758,7 +758,7 @@
         <v>16.29</v>
       </c>
       <c r="E23" t="n">
-        <v>38.6548692308782</v>
+        <v>38.65</v>
       </c>
     </row>
     <row r="24">
@@ -775,7 +775,7 @@
         <v>17.31</v>
       </c>
       <c r="E24" t="n">
-        <v>383.502289367727</v>
+        <v>383.5</v>
       </c>
     </row>
     <row r="25">
@@ -792,7 +792,7 @@
         <v>15.45</v>
       </c>
       <c r="E25" t="n">
-        <v>160.120318685478</v>
+        <v>160.12</v>
       </c>
     </row>
     <row r="26">
@@ -809,7 +809,7 @@
         <v>19.64</v>
       </c>
       <c r="E26" t="n">
-        <v>232.358316218593</v>
+        <v>232.36</v>
       </c>
     </row>
     <row r="27">
@@ -826,7 +826,7 @@
         <v>17.51</v>
       </c>
       <c r="E27" t="n">
-        <v>72.8777808918264</v>
+        <v>72.88</v>
       </c>
     </row>
     <row r="28">
@@ -843,7 +843,7 @@
         <v>14.84</v>
       </c>
       <c r="E28" t="n">
-        <v>158.019270176603</v>
+        <v>158.02</v>
       </c>
     </row>
     <row r="29">
@@ -860,7 +860,7 @@
         <v>14.18</v>
       </c>
       <c r="E29" t="n">
-        <v>459.033173485359</v>
+        <v>459.03</v>
       </c>
     </row>
     <row r="30">
@@ -877,7 +877,7 @@
         <v>13.46</v>
       </c>
       <c r="E30" t="n">
-        <v>72.5606942162136</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="31">
@@ -894,7 +894,7 @@
         <v>17.43</v>
       </c>
       <c r="E31" t="n">
-        <v>1523.09723340079</v>
+        <v>1523.1</v>
       </c>
     </row>
     <row r="32">
@@ -911,7 +911,7 @@
         <v>15.06</v>
       </c>
       <c r="E32" t="n">
-        <v>39.487775162613</v>
+        <v>39.49</v>
       </c>
     </row>
     <row r="33">
@@ -928,7 +928,7 @@
         <v>17.84</v>
       </c>
       <c r="E33" t="n">
-        <v>188.294108385254</v>
+        <v>188.29</v>
       </c>
     </row>
     <row r="34">
@@ -945,7 +945,7 @@
         <v>16.14</v>
       </c>
       <c r="E34" t="n">
-        <v>102.661620152113</v>
+        <v>102.66</v>
       </c>
     </row>
     <row r="35">
@@ -962,7 +962,7 @@
         <v>16.43</v>
       </c>
       <c r="E35" t="n">
-        <v>202.030665732481</v>
+        <v>202.03</v>
       </c>
     </row>
     <row r="36">
@@ -979,7 +979,7 @@
         <v>15.48</v>
       </c>
       <c r="E36" t="n">
-        <v>73.3302152667139</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="37">
@@ -996,7 +996,7 @@
         <v>18.53</v>
       </c>
       <c r="E37" t="n">
-        <v>214.073195610809</v>
+        <v>214.07</v>
       </c>
     </row>
     <row r="38">
@@ -1013,7 +1013,7 @@
         <v>17.4</v>
       </c>
       <c r="E38" t="n">
-        <v>42.53223372865</v>
+        <v>42.53</v>
       </c>
     </row>
     <row r="39">
@@ -1030,7 +1030,7 @@
         <v>15.59</v>
       </c>
       <c r="E39" t="n">
-        <v>369.994982397467</v>
+        <v>369.99</v>
       </c>
     </row>
     <row r="40">
@@ -1047,7 +1047,7 @@
         <v>16.37</v>
       </c>
       <c r="E40" t="n">
-        <v>63.7652168345018</v>
+        <v>63.77</v>
       </c>
     </row>
     <row r="41">
@@ -1064,7 +1064,7 @@
         <v>15.05</v>
       </c>
       <c r="E41" t="n">
-        <v>389.151167553099</v>
+        <v>389.15</v>
       </c>
     </row>
     <row r="42">
@@ -1081,7 +1081,7 @@
         <v>18.1</v>
       </c>
       <c r="E42" t="n">
-        <v>1333.02720096251</v>
+        <v>1333.03</v>
       </c>
     </row>
     <row r="43">
@@ -1098,7 +1098,7 @@
         <v>14.53</v>
       </c>
       <c r="E43" t="n">
-        <v>158.727726863538</v>
+        <v>158.73</v>
       </c>
     </row>
     <row r="44">
@@ -1115,7 +1115,7 @@
         <v>14.79</v>
       </c>
       <c r="E44" t="n">
-        <v>207.648343905185</v>
+        <v>207.65</v>
       </c>
     </row>
     <row r="45">
@@ -1132,7 +1132,7 @@
         <v>16.74</v>
       </c>
       <c r="E45" t="n">
-        <v>79.9430192625256</v>
+        <v>79.94</v>
       </c>
     </row>
     <row r="46">
@@ -1149,7 +1149,7 @@
         <v>17.98</v>
       </c>
       <c r="E46" t="n">
-        <v>141.623474372649</v>
+        <v>141.62</v>
       </c>
     </row>
     <row r="47">
@@ -1166,7 +1166,7 @@
         <v>14.45</v>
       </c>
       <c r="E47" t="n">
-        <v>52.6564191605655</v>
+        <v>52.66</v>
       </c>
     </row>
     <row r="48">
@@ -1183,7 +1183,7 @@
         <v>15.47</v>
       </c>
       <c r="E48" t="n">
-        <v>286.334831463775</v>
+        <v>286.33</v>
       </c>
     </row>
     <row r="49">
@@ -1200,7 +1200,7 @@
         <v>13.27</v>
       </c>
       <c r="E49" t="n">
-        <v>1139.92549024171</v>
+        <v>1139.93</v>
       </c>
     </row>
     <row r="50">
@@ -1217,7 +1217,7 @@
         <v>12.97</v>
       </c>
       <c r="E50" t="n">
-        <v>558.831675284408</v>
+        <v>558.83</v>
       </c>
     </row>
     <row r="51">
@@ -1234,7 +1234,7 @@
         <v>12.86</v>
       </c>
       <c r="E51" t="n">
-        <v>398.82131708698</v>
+        <v>398.82</v>
       </c>
     </row>
     <row r="52">
@@ -1251,7 +1251,7 @@
         <v>19.14</v>
       </c>
       <c r="E52" t="n">
-        <v>68.3580436354788</v>
+        <v>68.36</v>
       </c>
     </row>
     <row r="53">
@@ -1268,7 +1268,7 @@
         <v>16.42</v>
       </c>
       <c r="E53" t="n">
-        <v>86.1025975090735</v>
+        <v>86.1</v>
       </c>
     </row>
     <row r="54">
@@ -1285,7 +1285,7 @@
         <v>14.55</v>
       </c>
       <c r="E54" t="n">
-        <v>1216.5281362054</v>
+        <v>1216.53</v>
       </c>
     </row>
     <row r="55">
@@ -1302,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="E55" t="n">
-        <v>131.594665698285</v>
+        <v>131.59</v>
       </c>
     </row>
     <row r="56">
@@ -1319,7 +1319,7 @@
         <v>16.03</v>
       </c>
       <c r="E56" t="n">
-        <v>41.0362503168788</v>
+        <v>41.04</v>
       </c>
     </row>
     <row r="57">
@@ -1336,7 +1336,7 @@
         <v>11.88</v>
       </c>
       <c r="E57" t="n">
-        <v>538.806128878053</v>
+        <v>538.81</v>
       </c>
     </row>
     <row r="58">
@@ -1353,7 +1353,7 @@
         <v>15.59</v>
       </c>
       <c r="E58" t="n">
-        <v>764.976546646818</v>
+        <v>764.98</v>
       </c>
     </row>
     <row r="59">
@@ -1370,7 +1370,7 @@
         <v>15.39</v>
       </c>
       <c r="E59" t="n">
-        <v>97.3456766430028</v>
+        <v>97.35</v>
       </c>
     </row>
     <row r="60">
@@ -1387,7 +1387,7 @@
         <v>13.12</v>
       </c>
       <c r="E60" t="n">
-        <v>160.614844743453</v>
+        <v>160.61</v>
       </c>
     </row>
     <row r="61">
@@ -1404,7 +1404,7 @@
         <v>14.67</v>
       </c>
       <c r="E61" t="n">
-        <v>106.737368936117</v>
+        <v>106.74</v>
       </c>
     </row>
     <row r="62">
@@ -1421,7 +1421,7 @@
         <v>17.36</v>
       </c>
       <c r="E62" t="n">
-        <v>509.599584107201</v>
+        <v>509.6</v>
       </c>
     </row>
     <row r="63">
@@ -1438,7 +1438,7 @@
         <v>14.72</v>
       </c>
       <c r="E63" t="n">
-        <v>63.7575300082552</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="64">
@@ -1455,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>141.114198708223</v>
+        <v>141.11</v>
       </c>
     </row>
     <row r="65">
@@ -1472,7 +1472,7 @@
         <v>14.76</v>
       </c>
       <c r="E65" t="n">
-        <v>256.196022556866</v>
+        <v>256.2</v>
       </c>
     </row>
     <row r="66">
@@ -1489,7 +1489,7 @@
         <v>16.96</v>
       </c>
       <c r="E66" t="n">
-        <v>125.068531345796</v>
+        <v>125.07</v>
       </c>
     </row>
     <row r="67">
@@ -1506,7 +1506,7 @@
         <v>17.05</v>
       </c>
       <c r="E67" t="n">
-        <v>81.2848635291989</v>
+        <v>81.28</v>
       </c>
     </row>
     <row r="68">
@@ -1523,7 +1523,7 @@
         <v>16.91</v>
       </c>
       <c r="E68" t="n">
-        <v>83.5427432034627</v>
+        <v>83.54</v>
       </c>
     </row>
     <row r="69">
@@ -1540,7 +1540,7 @@
         <v>13.28</v>
       </c>
       <c r="E69" t="n">
-        <v>122.629127433793</v>
+        <v>122.63</v>
       </c>
     </row>
     <row r="70">
@@ -1557,7 +1557,7 @@
         <v>17.52</v>
       </c>
       <c r="E70" t="n">
-        <v>83.5877709062878</v>
+        <v>83.59</v>
       </c>
     </row>
     <row r="71">
@@ -1574,7 +1574,7 @@
         <v>13.39</v>
       </c>
       <c r="E71" t="n">
-        <v>904.312447076019</v>
+        <v>904.31</v>
       </c>
     </row>
     <row r="72">
@@ -1591,7 +1591,7 @@
         <v>17.59</v>
       </c>
       <c r="E72" t="n">
-        <v>236.435005251914</v>
+        <v>236.44</v>
       </c>
     </row>
     <row r="73">
@@ -1608,7 +1608,7 @@
         <v>17.77</v>
       </c>
       <c r="E73" t="n">
-        <v>118.991970097524</v>
+        <v>118.99</v>
       </c>
     </row>
     <row r="74">
@@ -1625,7 +1625,7 @@
         <v>16.5</v>
       </c>
       <c r="E74" t="n">
-        <v>65.7191011014196</v>
+        <v>65.72</v>
       </c>
     </row>
     <row r="75">
@@ -1642,7 +1642,7 @@
         <v>15.75</v>
       </c>
       <c r="E75" t="n">
-        <v>85.3182275372247</v>
+        <v>85.32</v>
       </c>
     </row>
     <row r="76">
@@ -1659,7 +1659,7 @@
         <v>16.12</v>
       </c>
       <c r="E76" t="n">
-        <v>133.146803068478</v>
+        <v>133.15</v>
       </c>
     </row>
     <row r="77">
@@ -1676,7 +1676,7 @@
         <v>15.34</v>
       </c>
       <c r="E77" t="n">
-        <v>69.7905275810356</v>
+        <v>69.79</v>
       </c>
     </row>
     <row r="78">
@@ -1693,7 +1693,7 @@
         <v>15.83</v>
       </c>
       <c r="E78" t="n">
-        <v>80.1993376016336</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="79">
@@ -1710,7 +1710,7 @@
         <v>14.37</v>
       </c>
       <c r="E79" t="n">
-        <v>22.1003260885369</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="80">
@@ -1727,7 +1727,7 @@
         <v>16.31</v>
       </c>
       <c r="E80" t="n">
-        <v>212.908460542169</v>
+        <v>212.91</v>
       </c>
     </row>
     <row r="81">
@@ -1744,7 +1744,7 @@
         <v>14.95</v>
       </c>
       <c r="E81" t="n">
-        <v>179.204637354441</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="82">
@@ -1761,7 +1761,7 @@
         <v>14.47</v>
       </c>
       <c r="E82" t="n">
-        <v>31.6382442319378</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="83">
@@ -1778,7 +1778,7 @@
         <v>12.94</v>
       </c>
       <c r="E83" t="n">
-        <v>327.958741949703</v>
+        <v>327.96</v>
       </c>
     </row>
     <row r="84">
@@ -1795,7 +1795,7 @@
         <v>13.66</v>
       </c>
       <c r="E84" t="n">
-        <v>114.416245790276</v>
+        <v>114.42</v>
       </c>
     </row>
     <row r="85">
@@ -1812,7 +1812,7 @@
         <v>11.82</v>
       </c>
       <c r="E85" t="n">
-        <v>56.8609935577368</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="86">
@@ -1829,7 +1829,7 @@
         <v>17.68</v>
       </c>
       <c r="E86" t="n">
-        <v>528.974480685149</v>
+        <v>528.97</v>
       </c>
     </row>
     <row r="87">
@@ -1846,7 +1846,7 @@
         <v>18.66</v>
       </c>
       <c r="E87" t="n">
-        <v>44.783634190953</v>
+        <v>44.78</v>
       </c>
     </row>
     <row r="88">
@@ -1863,7 +1863,7 @@
         <v>18.3</v>
       </c>
       <c r="E88" t="n">
-        <v>36.4515807449904</v>
+        <v>36.45</v>
       </c>
     </row>
     <row r="89">
@@ -1880,7 +1880,7 @@
         <v>18.79</v>
       </c>
       <c r="E89" t="n">
-        <v>106.701423888552</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="90">
@@ -1897,7 +1897,7 @@
         <v>15.17</v>
       </c>
       <c r="E90" t="n">
-        <v>956.735763083221</v>
+        <v>956.74</v>
       </c>
     </row>
     <row r="91">
@@ -1914,7 +1914,7 @@
         <v>19.04</v>
       </c>
       <c r="E91" t="n">
-        <v>57.0222918847161</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="92">
@@ -1931,7 +1931,7 @@
         <v>17.86</v>
       </c>
       <c r="E92" t="n">
-        <v>307.287850202986</v>
+        <v>307.29</v>
       </c>
     </row>
     <row r="93">
@@ -1948,7 +1948,7 @@
         <v>12.72</v>
       </c>
       <c r="E93" t="n">
-        <v>449.396925886893</v>
+        <v>449.4</v>
       </c>
     </row>
     <row r="94">
@@ -1965,7 +1965,7 @@
         <v>16.11</v>
       </c>
       <c r="E94" t="n">
-        <v>422.293746923865</v>
+        <v>422.29</v>
       </c>
     </row>
     <row r="95">
@@ -1982,7 +1982,7 @@
         <v>12.76</v>
       </c>
       <c r="E95" t="n">
-        <v>238.612421855381</v>
+        <v>238.61</v>
       </c>
     </row>
     <row r="96">
@@ -1999,7 +1999,7 @@
         <v>16.48</v>
       </c>
       <c r="E96" t="n">
-        <v>258.779227555316</v>
+        <v>258.78</v>
       </c>
     </row>
     <row r="97">
@@ -2016,7 +2016,7 @@
         <v>15.15</v>
       </c>
       <c r="E97" t="n">
-        <v>65.3565552409026</v>
+        <v>65.36</v>
       </c>
     </row>
     <row r="98">
@@ -2033,7 +2033,7 @@
         <v>14.77</v>
       </c>
       <c r="E98" t="n">
-        <v>260.091547243054</v>
+        <v>260.09</v>
       </c>
     </row>
     <row r="99">
@@ -2050,7 +2050,7 @@
         <v>17.27</v>
       </c>
       <c r="E99" t="n">
-        <v>105.627297931158</v>
+        <v>105.63</v>
       </c>
     </row>
     <row r="100">
@@ -2067,7 +2067,7 @@
         <v>13.98</v>
       </c>
       <c r="E100" t="n">
-        <v>49.8664994325906</v>
+        <v>49.87</v>
       </c>
     </row>
     <row r="101">
@@ -2084,7 +2084,7 @@
         <v>14.38</v>
       </c>
       <c r="E101" t="n">
-        <v>84.4659179040823</v>
+        <v>84.47</v>
       </c>
     </row>
     <row r="102">
@@ -2101,7 +2101,7 @@
         <v>19.76</v>
       </c>
       <c r="E102" t="n">
-        <v>51.7817235471195</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="103">
@@ -2118,7 +2118,7 @@
         <v>18.34</v>
       </c>
       <c r="E103" t="n">
-        <v>338.621489574043</v>
+        <v>338.62</v>
       </c>
     </row>
     <row r="104">
@@ -2135,7 +2135,7 @@
         <v>21.51</v>
       </c>
       <c r="E104" t="n">
-        <v>31.0879134773189</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="105">
@@ -2152,7 +2152,7 @@
         <v>18.88</v>
       </c>
       <c r="E105" t="n">
-        <v>1701.64874599703</v>
+        <v>1701.65</v>
       </c>
     </row>
     <row r="106">
@@ -2169,7 +2169,7 @@
         <v>19.88</v>
       </c>
       <c r="E106" t="n">
-        <v>66.0972426262876</v>
+        <v>66.1</v>
       </c>
     </row>
     <row r="107">
@@ -2186,7 +2186,7 @@
         <v>20.78</v>
       </c>
       <c r="E107" t="n">
-        <v>57.173434777996</v>
+        <v>57.17</v>
       </c>
     </row>
     <row r="108">
@@ -2203,7 +2203,7 @@
         <v>16.54</v>
       </c>
       <c r="E108" t="n">
-        <v>74.2084546085946</v>
+        <v>74.21</v>
       </c>
     </row>
     <row r="109">
@@ -2220,7 +2220,7 @@
         <v>16.3</v>
       </c>
       <c r="E109" t="n">
-        <v>144.010192772478</v>
+        <v>144.01</v>
       </c>
     </row>
     <row r="110">
@@ -2237,7 +2237,7 @@
         <v>23.53</v>
       </c>
       <c r="E110" t="n">
-        <v>42.4817305844879</v>
+        <v>42.48</v>
       </c>
     </row>
     <row r="111">
@@ -2254,7 +2254,7 @@
         <v>19.95</v>
       </c>
       <c r="E111" t="n">
-        <v>454.157418824854</v>
+        <v>454.16</v>
       </c>
     </row>
     <row r="112">
@@ -2271,7 +2271,7 @@
         <v>19.71</v>
       </c>
       <c r="E112" t="n">
-        <v>481.546939094501</v>
+        <v>481.55</v>
       </c>
     </row>
     <row r="113">
@@ -2288,7 +2288,7 @@
         <v>20.3</v>
       </c>
       <c r="E113" t="n">
-        <v>171.396264513103</v>
+        <v>171.4</v>
       </c>
     </row>
     <row r="114">
@@ -2305,7 +2305,7 @@
         <v>24.13</v>
       </c>
       <c r="E114" t="n">
-        <v>41.0769795979215</v>
+        <v>41.08</v>
       </c>
     </row>
     <row r="115">
@@ -2322,7 +2322,7 @@
         <v>18.08</v>
       </c>
       <c r="E115" t="n">
-        <v>167.712397173219</v>
+        <v>167.71</v>
       </c>
     </row>
     <row r="116">
@@ -2339,7 +2339,7 @@
         <v>23.49</v>
       </c>
       <c r="E116" t="n">
-        <v>287.130323562999</v>
+        <v>287.13</v>
       </c>
     </row>
     <row r="117">
@@ -2356,7 +2356,7 @@
         <v>19.42</v>
       </c>
       <c r="E117" t="n">
-        <v>489.385367046122</v>
+        <v>489.39</v>
       </c>
     </row>
     <row r="118">
@@ -2373,7 +2373,7 @@
         <v>20.09</v>
       </c>
       <c r="E118" t="n">
-        <v>28.9625977922901</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="119">
@@ -2390,7 +2390,7 @@
         <v>18.03</v>
       </c>
       <c r="E119" t="n">
-        <v>28.1674291057018</v>
+        <v>28.17</v>
       </c>
     </row>
     <row r="120">
@@ -2407,7 +2407,7 @@
         <v>16.29</v>
       </c>
       <c r="E120" t="n">
-        <v>255.842101170542</v>
+        <v>255.84</v>
       </c>
     </row>
     <row r="121">
@@ -2424,7 +2424,7 @@
         <v>20.28</v>
       </c>
       <c r="E121" t="n">
-        <v>163.010792902763</v>
+        <v>163.01</v>
       </c>
     </row>
     <row r="122">
@@ -2441,7 +2441,7 @@
         <v>20.34</v>
       </c>
       <c r="E122" t="n">
-        <v>757.26977393523</v>
+        <v>757.27</v>
       </c>
     </row>
     <row r="123">
@@ -2458,7 +2458,7 @@
         <v>20.4</v>
       </c>
       <c r="E123" t="n">
-        <v>406.633660969245</v>
+        <v>406.63</v>
       </c>
     </row>
     <row r="124">
@@ -2475,7 +2475,7 @@
         <v>22</v>
       </c>
       <c r="E124" t="n">
-        <v>35.0398788450239</v>
+        <v>35.04</v>
       </c>
     </row>
     <row r="125">
@@ -2492,7 +2492,7 @@
         <v>22.06</v>
       </c>
       <c r="E125" t="n">
-        <v>162.70013360406</v>
+        <v>162.7</v>
       </c>
     </row>
     <row r="126">
@@ -2509,7 +2509,7 @@
         <v>21.06</v>
       </c>
       <c r="E126" t="n">
-        <v>73.3825313157111</v>
+        <v>73.38</v>
       </c>
     </row>
     <row r="127">
@@ -2526,7 +2526,7 @@
         <v>20.9</v>
       </c>
       <c r="E127" t="n">
-        <v>318.146771591428</v>
+        <v>318.15</v>
       </c>
     </row>
     <row r="128">
@@ -2543,7 +2543,7 @@
         <v>24.37</v>
       </c>
       <c r="E128" t="n">
-        <v>241.085737752276</v>
+        <v>241.09</v>
       </c>
     </row>
     <row r="129">
@@ -2560,7 +2560,7 @@
         <v>18.99</v>
       </c>
       <c r="E129" t="n">
-        <v>125.68248837009</v>
+        <v>125.68</v>
       </c>
     </row>
     <row r="130">
@@ -2577,7 +2577,7 @@
         <v>20.17</v>
       </c>
       <c r="E130" t="n">
-        <v>57.6903319150131</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="131">
@@ -2594,7 +2594,7 @@
         <v>21.4</v>
       </c>
       <c r="E131" t="n">
-        <v>32.3221825146871</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="132">
@@ -2611,7 +2611,7 @@
         <v>18.54</v>
       </c>
       <c r="E132" t="n">
-        <v>521.895174970247</v>
+        <v>521.9</v>
       </c>
     </row>
     <row r="133">
@@ -2628,7 +2628,7 @@
         <v>18.94</v>
       </c>
       <c r="E133" t="n">
-        <v>99.0022810835693</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134">
@@ -2645,7 +2645,7 @@
         <v>20.65</v>
       </c>
       <c r="E134" t="n">
-        <v>226.714670809526</v>
+        <v>226.71</v>
       </c>
     </row>
     <row r="135">
@@ -2662,7 +2662,7 @@
         <v>21.02</v>
       </c>
       <c r="E135" t="n">
-        <v>121.660673889057</v>
+        <v>121.66</v>
       </c>
     </row>
     <row r="136">
@@ -2679,7 +2679,7 @@
         <v>22.08</v>
       </c>
       <c r="E136" t="n">
-        <v>429.30290284259</v>
+        <v>429.3</v>
       </c>
     </row>
     <row r="137">
@@ -2696,7 +2696,7 @@
         <v>17.63</v>
       </c>
       <c r="E137" t="n">
-        <v>584.599265863535</v>
+        <v>584.6</v>
       </c>
     </row>
     <row r="138">
@@ -2713,7 +2713,7 @@
         <v>20.46</v>
       </c>
       <c r="E138" t="n">
-        <v>127.338482327627</v>
+        <v>127.34</v>
       </c>
     </row>
     <row r="139">
@@ -2730,7 +2730,7 @@
         <v>20.07</v>
       </c>
       <c r="E139" t="n">
-        <v>68.6420883205641</v>
+        <v>68.64</v>
       </c>
     </row>
     <row r="140">
@@ -2747,7 +2747,7 @@
         <v>23.94</v>
       </c>
       <c r="E140" t="n">
-        <v>17.2107783187926</v>
+        <v>17.21</v>
       </c>
     </row>
     <row r="141">
@@ -2764,7 +2764,7 @@
         <v>20.89</v>
       </c>
       <c r="E141" t="n">
-        <v>40.6273574055993</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="142">
@@ -2781,7 +2781,7 @@
         <v>20.07</v>
       </c>
       <c r="E142" t="n">
-        <v>138.105310120901</v>
+        <v>138.11</v>
       </c>
     </row>
     <row r="143">
@@ -2798,7 +2798,7 @@
         <v>23.68</v>
       </c>
       <c r="E143" t="n">
-        <v>335.348642045035</v>
+        <v>335.35</v>
       </c>
     </row>
     <row r="144">
@@ -2815,7 +2815,7 @@
         <v>21.69</v>
       </c>
       <c r="E144" t="n">
-        <v>158.291308925875</v>
+        <v>158.29</v>
       </c>
     </row>
     <row r="145">
@@ -2832,7 +2832,7 @@
         <v>18.02</v>
       </c>
       <c r="E145" t="n">
-        <v>609.652699340448</v>
+        <v>609.65</v>
       </c>
     </row>
     <row r="146">
@@ -2849,7 +2849,7 @@
         <v>21.31</v>
       </c>
       <c r="E146" t="n">
-        <v>115.648878807451</v>
+        <v>115.65</v>
       </c>
     </row>
     <row r="147">
@@ -2866,7 +2866,7 @@
         <v>22.29</v>
       </c>
       <c r="E147" t="n">
-        <v>74.5065083891898</v>
+        <v>74.51</v>
       </c>
     </row>
     <row r="148">
@@ -2883,7 +2883,7 @@
         <v>22.24</v>
       </c>
       <c r="E148" t="n">
-        <v>109.928344419139</v>
+        <v>109.93</v>
       </c>
     </row>
     <row r="149">
@@ -2900,7 +2900,7 @@
         <v>17.77</v>
       </c>
       <c r="E149" t="n">
-        <v>57.7826786414191</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="150">
@@ -2917,7 +2917,7 @@
         <v>19.24</v>
       </c>
       <c r="E150" t="n">
-        <v>154.941774496483</v>
+        <v>154.94</v>
       </c>
     </row>
     <row r="151">
@@ -2934,7 +2934,7 @@
         <v>20.75</v>
       </c>
       <c r="E151" t="n">
-        <v>105.866325014157</v>
+        <v>105.87</v>
       </c>
     </row>
     <row r="152">
@@ -2951,7 +2951,7 @@
         <v>20.31</v>
       </c>
       <c r="E152" t="n">
-        <v>1007.04098643989</v>
+        <v>1007.04</v>
       </c>
     </row>
     <row r="153">
@@ -2968,7 +2968,7 @@
         <v>18.73</v>
       </c>
       <c r="E153" t="n">
-        <v>72.4621616360575</v>
+        <v>72.46</v>
       </c>
     </row>
     <row r="154">
@@ -2985,7 +2985,7 @@
         <v>22.07</v>
       </c>
       <c r="E154" t="n">
-        <v>142.729424927295</v>
+        <v>142.73</v>
       </c>
     </row>
     <row r="155">
@@ -3002,7 +3002,7 @@
         <v>18.54</v>
       </c>
       <c r="E155" t="n">
-        <v>80.2458993782025</v>
+        <v>80.25</v>
       </c>
     </row>
     <row r="156">
@@ -3019,7 +3019,7 @@
         <v>17.2</v>
       </c>
       <c r="E156" t="n">
-        <v>85.3730234470876</v>
+        <v>85.37</v>
       </c>
     </row>
     <row r="157">
@@ -3036,7 +3036,7 @@
         <v>22.83</v>
       </c>
       <c r="E157" t="n">
-        <v>382.574573030782</v>
+        <v>382.57</v>
       </c>
     </row>
     <row r="158">
@@ -3053,7 +3053,7 @@
         <v>18.41</v>
       </c>
       <c r="E158" t="n">
-        <v>62.9933789810074</v>
+        <v>62.99</v>
       </c>
     </row>
     <row r="159">
@@ -3070,7 +3070,7 @@
         <v>18.65</v>
       </c>
       <c r="E159" t="n">
-        <v>11.4842921872248</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="160">
@@ -3087,7 +3087,7 @@
         <v>18.62</v>
       </c>
       <c r="E160" t="n">
-        <v>901.356510696764</v>
+        <v>901.36</v>
       </c>
     </row>
     <row r="161">
@@ -3104,7 +3104,7 @@
         <v>23.36</v>
       </c>
       <c r="E161" t="n">
-        <v>194.517563422253</v>
+        <v>194.52</v>
       </c>
     </row>
     <row r="162">
@@ -3121,7 +3121,7 @@
         <v>21.17</v>
       </c>
       <c r="E162" t="n">
-        <v>92.3442043104428</v>
+        <v>92.34</v>
       </c>
     </row>
     <row r="163">
@@ -3138,7 +3138,7 @@
         <v>21.5</v>
       </c>
       <c r="E163" t="n">
-        <v>1663.41831610779</v>
+        <v>1663.42</v>
       </c>
     </row>
     <row r="164">
@@ -3155,7 +3155,7 @@
         <v>24.39</v>
       </c>
       <c r="E164" t="n">
-        <v>181.07304060951</v>
+        <v>181.07</v>
       </c>
     </row>
     <row r="165">
@@ -3172,7 +3172,7 @@
         <v>21.44</v>
       </c>
       <c r="E165" t="n">
-        <v>217.882906249623</v>
+        <v>217.88</v>
       </c>
     </row>
     <row r="166">
@@ -3189,7 +3189,7 @@
         <v>15.85</v>
       </c>
       <c r="E166" t="n">
-        <v>520.431215200407</v>
+        <v>520.43</v>
       </c>
     </row>
     <row r="167">
@@ -3206,7 +3206,7 @@
         <v>22.28</v>
       </c>
       <c r="E167" t="n">
-        <v>177.179593877921</v>
+        <v>177.18</v>
       </c>
     </row>
     <row r="168">
@@ -3223,7 +3223,7 @@
         <v>23.12</v>
       </c>
       <c r="E168" t="n">
-        <v>65.4174581095297</v>
+        <v>65.42</v>
       </c>
     </row>
     <row r="169">
@@ -3240,7 +3240,7 @@
         <v>18.3</v>
       </c>
       <c r="E169" t="n">
-        <v>115.442783311371</v>
+        <v>115.44</v>
       </c>
     </row>
     <row r="170">
@@ -3257,7 +3257,7 @@
         <v>22.1</v>
       </c>
       <c r="E170" t="n">
-        <v>119.82358422166</v>
+        <v>119.82</v>
       </c>
     </row>
     <row r="171">
@@ -3274,7 +3274,7 @@
         <v>22.43</v>
       </c>
       <c r="E171" t="n">
-        <v>122.27449965663</v>
+        <v>122.27</v>
       </c>
     </row>
     <row r="172">
@@ -3291,7 +3291,7 @@
         <v>21.53</v>
       </c>
       <c r="E172" t="n">
-        <v>114.814929020709</v>
+        <v>114.81</v>
       </c>
     </row>
     <row r="173">
@@ -3308,7 +3308,7 @@
         <v>19</v>
       </c>
       <c r="E173" t="n">
-        <v>28.6329112439507</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="174">
@@ -3325,7 +3325,7 @@
         <v>20.28</v>
       </c>
       <c r="E174" t="n">
-        <v>143.566338527602</v>
+        <v>143.57</v>
       </c>
     </row>
     <row r="175">
@@ -3342,7 +3342,7 @@
         <v>21.85</v>
       </c>
       <c r="E175" t="n">
-        <v>282.032274012912</v>
+        <v>282.03</v>
       </c>
     </row>
     <row r="176">
@@ -3359,7 +3359,7 @@
         <v>22.06</v>
       </c>
       <c r="E176" t="n">
-        <v>101.545895849423</v>
+        <v>101.55</v>
       </c>
     </row>
     <row r="177">
@@ -3376,7 +3376,7 @@
         <v>17.73</v>
       </c>
       <c r="E177" t="n">
-        <v>188.899473413507</v>
+        <v>188.9</v>
       </c>
     </row>
     <row r="178">
@@ -3393,7 +3393,7 @@
         <v>18.78</v>
       </c>
       <c r="E178" t="n">
-        <v>254.105123012718</v>
+        <v>254.11</v>
       </c>
     </row>
     <row r="179">
@@ -3410,7 +3410,7 @@
         <v>20.53</v>
       </c>
       <c r="E179" t="n">
-        <v>22.3791387730458</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="180">
@@ -3427,7 +3427,7 @@
         <v>22.26</v>
       </c>
       <c r="E180" t="n">
-        <v>334.121800104916</v>
+        <v>334.12</v>
       </c>
     </row>
     <row r="181">
@@ -3444,7 +3444,7 @@
         <v>21.88</v>
       </c>
       <c r="E181" t="n">
-        <v>262.31945019871</v>
+        <v>262.32</v>
       </c>
     </row>
     <row r="182">
@@ -3461,7 +3461,7 @@
         <v>24.37</v>
       </c>
       <c r="E182" t="n">
-        <v>46.6136803607249</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="183">
@@ -3478,7 +3478,7 @@
         <v>22.86</v>
       </c>
       <c r="E183" t="n">
-        <v>270.269312196791</v>
+        <v>270.27</v>
       </c>
     </row>
     <row r="184">
@@ -3495,7 +3495,7 @@
         <v>20.65</v>
       </c>
       <c r="E184" t="n">
-        <v>394.009324355873</v>
+        <v>394.01</v>
       </c>
     </row>
     <row r="185">
@@ -3512,7 +3512,7 @@
         <v>18.29</v>
       </c>
       <c r="E185" t="n">
-        <v>73.5304361875883</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="186">
@@ -3529,7 +3529,7 @@
         <v>19.54</v>
       </c>
       <c r="E186" t="n">
-        <v>382.299509996713</v>
+        <v>382.3</v>
       </c>
     </row>
     <row r="187">
@@ -3546,7 +3546,7 @@
         <v>23.05</v>
       </c>
       <c r="E187" t="n">
-        <v>50.5259064248603</v>
+        <v>50.53</v>
       </c>
     </row>
     <row r="188">
@@ -3563,7 +3563,7 @@
         <v>22.55</v>
       </c>
       <c r="E188" t="n">
-        <v>105.191017961926</v>
+        <v>105.19</v>
       </c>
     </row>
     <row r="189">
@@ -3580,7 +3580,7 @@
         <v>21.91</v>
       </c>
       <c r="E189" t="n">
-        <v>77.0825263529158</v>
+        <v>77.08</v>
       </c>
     </row>
     <row r="190">
@@ -3597,7 +3597,7 @@
         <v>23.69</v>
       </c>
       <c r="E190" t="n">
-        <v>81.3598057662272</v>
+        <v>81.36</v>
       </c>
     </row>
     <row r="191">
@@ -3614,7 +3614,7 @@
         <v>20.12</v>
       </c>
       <c r="E191" t="n">
-        <v>515.133232459457</v>
+        <v>515.13</v>
       </c>
     </row>
     <row r="192">
@@ -3631,7 +3631,7 @@
         <v>23.2</v>
       </c>
       <c r="E192" t="n">
-        <v>208.369822171315</v>
+        <v>208.37</v>
       </c>
     </row>
     <row r="193">
@@ -3648,7 +3648,7 @@
         <v>20.28</v>
       </c>
       <c r="E193" t="n">
-        <v>95.8037114484387</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="194">
@@ -3665,7 +3665,7 @@
         <v>21.11</v>
       </c>
       <c r="E194" t="n">
-        <v>1040.45778697251</v>
+        <v>1040.46</v>
       </c>
     </row>
     <row r="195">
@@ -3682,7 +3682,7 @@
         <v>18.46</v>
       </c>
       <c r="E195" t="n">
-        <v>233.525056889072</v>
+        <v>233.53</v>
       </c>
     </row>
     <row r="196">
@@ -3699,7 +3699,7 @@
         <v>18.58</v>
       </c>
       <c r="E196" t="n">
-        <v>197.919079143795</v>
+        <v>197.92</v>
       </c>
     </row>
     <row r="197">
@@ -3716,7 +3716,7 @@
         <v>20.56</v>
       </c>
       <c r="E197" t="n">
-        <v>319.291383777647</v>
+        <v>319.29</v>
       </c>
     </row>
     <row r="198">
@@ -3733,7 +3733,7 @@
         <v>17.35</v>
       </c>
       <c r="E198" t="n">
-        <v>257.919969076912</v>
+        <v>257.92</v>
       </c>
     </row>
     <row r="199">
@@ -3750,7 +3750,7 @@
         <v>21.02</v>
       </c>
       <c r="E199" t="n">
-        <v>157.13705649981</v>
+        <v>157.14</v>
       </c>
     </row>
     <row r="200">
@@ -3767,7 +3767,7 @@
         <v>20.2</v>
       </c>
       <c r="E200" t="n">
-        <v>12.4563932996611</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="201">
@@ -3784,7 +3784,7 @@
         <v>18.27</v>
       </c>
       <c r="E201" t="n">
-        <v>220.614285147443</v>
+        <v>220.61</v>
       </c>
     </row>
     <row r="202">
@@ -3801,7 +3801,7 @@
         <v>18.29</v>
       </c>
       <c r="E202" t="n">
-        <v>393.962980563886</v>
+        <v>393.96</v>
       </c>
     </row>
     <row r="203">
@@ -3818,7 +3818,7 @@
         <v>20.83</v>
       </c>
       <c r="E203" t="n">
-        <v>203.422982340904</v>
+        <v>203.42</v>
       </c>
     </row>
     <row r="204">
@@ -3835,7 +3835,7 @@
         <v>20.08</v>
       </c>
       <c r="E204" t="n">
-        <v>107.075979202014</v>
+        <v>107.08</v>
       </c>
     </row>
     <row r="205">
@@ -3852,7 +3852,7 @@
         <v>16.59</v>
       </c>
       <c r="E205" t="n">
-        <v>246.996337251094</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206">
@@ -3869,7 +3869,7 @@
         <v>20.72</v>
       </c>
       <c r="E206" t="n">
-        <v>144.260364000828</v>
+        <v>144.26</v>
       </c>
     </row>
     <row r="207">
@@ -3886,7 +3886,7 @@
         <v>15.99</v>
       </c>
       <c r="E207" t="n">
-        <v>107.216132761858</v>
+        <v>107.22</v>
       </c>
     </row>
     <row r="208">
@@ -3903,7 +3903,7 @@
         <v>18.78</v>
       </c>
       <c r="E208" t="n">
-        <v>272.994044129398</v>
+        <v>272.99</v>
       </c>
     </row>
     <row r="209">
@@ -3920,7 +3920,7 @@
         <v>17.04</v>
       </c>
       <c r="E209" t="n">
-        <v>484.835281212316</v>
+        <v>484.84</v>
       </c>
     </row>
     <row r="210">
@@ -3937,7 +3937,7 @@
         <v>18.86</v>
       </c>
       <c r="E210" t="n">
-        <v>75.1232007207329</v>
+        <v>75.12</v>
       </c>
     </row>
     <row r="211">
@@ -3954,7 +3954,7 @@
         <v>17.58</v>
       </c>
       <c r="E211" t="n">
-        <v>540.868308227741</v>
+        <v>540.87</v>
       </c>
     </row>
     <row r="212">
@@ -3971,7 +3971,7 @@
         <v>18.46</v>
       </c>
       <c r="E212" t="n">
-        <v>1385.25929486031</v>
+        <v>1385.26</v>
       </c>
     </row>
     <row r="213">
@@ -3988,7 +3988,7 @@
         <v>15.12</v>
       </c>
       <c r="E213" t="n">
-        <v>44.5239556733933</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="214">
@@ -4005,7 +4005,7 @@
         <v>20.09</v>
       </c>
       <c r="E214" t="n">
-        <v>91.9347332067601</v>
+        <v>91.93</v>
       </c>
     </row>
     <row r="215">
@@ -4022,7 +4022,7 @@
         <v>17.02</v>
       </c>
       <c r="E215" t="n">
-        <v>40.9687967463406</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="216">
@@ -4039,7 +4039,7 @@
         <v>14.02</v>
       </c>
       <c r="E216" t="n">
-        <v>44.0191539376998</v>
+        <v>44.02</v>
       </c>
     </row>
     <row r="217">
@@ -4056,7 +4056,7 @@
         <v>15.72</v>
       </c>
       <c r="E217" t="n">
-        <v>335.650780645258</v>
+        <v>335.65</v>
       </c>
     </row>
     <row r="218">
@@ -4073,7 +4073,7 @@
         <v>16.61</v>
       </c>
       <c r="E218" t="n">
-        <v>312.579741607409</v>
+        <v>312.58</v>
       </c>
     </row>
     <row r="219">
@@ -4090,7 +4090,7 @@
         <v>18.64</v>
       </c>
       <c r="E219" t="n">
-        <v>673.915071721165</v>
+        <v>673.92</v>
       </c>
     </row>
     <row r="220">
@@ -4107,7 +4107,7 @@
         <v>17.55</v>
       </c>
       <c r="E220" t="n">
-        <v>212.262103870768</v>
+        <v>212.26</v>
       </c>
     </row>
     <row r="221">
@@ -4124,7 +4124,7 @@
         <v>18.17</v>
       </c>
       <c r="E221" t="n">
-        <v>131.554502270989</v>
+        <v>131.55</v>
       </c>
     </row>
     <row r="222">
@@ -4141,7 +4141,7 @@
         <v>17.14</v>
       </c>
       <c r="E222" t="n">
-        <v>304.794690898231</v>
+        <v>304.79</v>
       </c>
     </row>
     <row r="223">
@@ -4158,7 +4158,7 @@
         <v>18.45</v>
       </c>
       <c r="E223" t="n">
-        <v>570.930023466285</v>
+        <v>570.93</v>
       </c>
     </row>
     <row r="224">
@@ -4175,7 +4175,7 @@
         <v>19.5</v>
       </c>
       <c r="E224" t="n">
-        <v>220.351292373007</v>
+        <v>220.35</v>
       </c>
     </row>
     <row r="225">
@@ -4192,7 +4192,7 @@
         <v>21.02</v>
       </c>
       <c r="E225" t="n">
-        <v>83.4554024475024</v>
+        <v>83.46</v>
       </c>
     </row>
     <row r="226">
@@ -4209,7 +4209,7 @@
         <v>21.76</v>
       </c>
       <c r="E226" t="n">
-        <v>33.9685806240675</v>
+        <v>33.97</v>
       </c>
     </row>
     <row r="227">
@@ -4226,7 +4226,7 @@
         <v>18.48</v>
       </c>
       <c r="E227" t="n">
-        <v>58.3973085991545</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="228">
@@ -4243,7 +4243,7 @@
         <v>13.92</v>
       </c>
       <c r="E228" t="n">
-        <v>110.734891039235</v>
+        <v>110.73</v>
       </c>
     </row>
     <row r="229">
@@ -4260,7 +4260,7 @@
         <v>19.91</v>
       </c>
       <c r="E229" t="n">
-        <v>637.492560104346</v>
+        <v>637.49</v>
       </c>
     </row>
     <row r="230">
@@ -4277,7 +4277,7 @@
         <v>18.2</v>
       </c>
       <c r="E230" t="n">
-        <v>361.887986218427</v>
+        <v>361.89</v>
       </c>
     </row>
     <row r="231">
@@ -4294,7 +4294,7 @@
         <v>18.42</v>
       </c>
       <c r="E231" t="n">
-        <v>196.528708707482</v>
+        <v>196.53</v>
       </c>
     </row>
     <row r="232">
@@ -4311,7 +4311,7 @@
         <v>20.04</v>
       </c>
       <c r="E232" t="n">
-        <v>70.5357657264197</v>
+        <v>70.54</v>
       </c>
     </row>
     <row r="233">
@@ -4328,7 +4328,7 @@
         <v>18.89</v>
       </c>
       <c r="E233" t="n">
-        <v>291.070487249218</v>
+        <v>291.07</v>
       </c>
     </row>
     <row r="234">
@@ -4345,7 +4345,7 @@
         <v>18.73</v>
       </c>
       <c r="E234" t="n">
-        <v>10.8946735651542</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="235">
@@ -4362,7 +4362,7 @@
         <v>17.16</v>
       </c>
       <c r="E235" t="n">
-        <v>141.88154551955</v>
+        <v>141.88</v>
       </c>
     </row>
     <row r="236">
@@ -4379,7 +4379,7 @@
         <v>18.43</v>
       </c>
       <c r="E236" t="n">
-        <v>838.705725199429</v>
+        <v>838.71</v>
       </c>
     </row>
     <row r="237">
@@ -4396,7 +4396,7 @@
         <v>20.75</v>
       </c>
       <c r="E237" t="n">
-        <v>199.772651703551</v>
+        <v>199.77</v>
       </c>
     </row>
     <row r="238">
@@ -4413,7 +4413,7 @@
         <v>19.88</v>
       </c>
       <c r="E238" t="n">
-        <v>238.950610892262</v>
+        <v>238.95</v>
       </c>
     </row>
     <row r="239">
@@ -4430,7 +4430,7 @@
         <v>17.19</v>
       </c>
       <c r="E239" t="n">
-        <v>163.238723671842</v>
+        <v>163.24</v>
       </c>
     </row>
     <row r="240">
@@ -4447,7 +4447,7 @@
         <v>16.71</v>
       </c>
       <c r="E240" t="n">
-        <v>80.6410439127384</v>
+        <v>80.64</v>
       </c>
     </row>
     <row r="241">
@@ -4464,7 +4464,7 @@
         <v>18.79</v>
       </c>
       <c r="E241" t="n">
-        <v>128.564797828522</v>
+        <v>128.56</v>
       </c>
     </row>
     <row r="242">
@@ -4481,7 +4481,7 @@
         <v>17.54</v>
       </c>
       <c r="E242" t="n">
-        <v>258.763417035334</v>
+        <v>258.76</v>
       </c>
     </row>
     <row r="243">
@@ -4498,7 +4498,7 @@
         <v>17.48</v>
       </c>
       <c r="E243" t="n">
-        <v>97.2401719683259</v>
+        <v>97.24</v>
       </c>
     </row>
     <row r="244">
@@ -4515,7 +4515,7 @@
         <v>19.42</v>
       </c>
       <c r="E244" t="n">
-        <v>45.5122475263045</v>
+        <v>45.51</v>
       </c>
     </row>
     <row r="245">
@@ -4532,7 +4532,7 @@
         <v>14.28</v>
       </c>
       <c r="E245" t="n">
-        <v>588.803072797721</v>
+        <v>588.8</v>
       </c>
     </row>
     <row r="246">
@@ -4549,7 +4549,7 @@
         <v>16.45</v>
       </c>
       <c r="E246" t="n">
-        <v>136.496111583199</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="247">
@@ -4566,7 +4566,7 @@
         <v>18.61</v>
       </c>
       <c r="E247" t="n">
-        <v>253.710197766394</v>
+        <v>253.71</v>
       </c>
     </row>
     <row r="248">
@@ -4583,7 +4583,7 @@
         <v>17.85</v>
       </c>
       <c r="E248" t="n">
-        <v>345.404091898682</v>
+        <v>345.4</v>
       </c>
     </row>
     <row r="249">
@@ -4600,7 +4600,7 @@
         <v>18.28</v>
       </c>
       <c r="E249" t="n">
-        <v>23.557494490513</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="250">
@@ -4617,7 +4617,7 @@
         <v>16.49</v>
       </c>
       <c r="E250" t="n">
-        <v>158.086417078228</v>
+        <v>158.09</v>
       </c>
     </row>
     <row r="251">
@@ -4634,7 +4634,7 @@
         <v>17.67</v>
       </c>
       <c r="E251" t="n">
-        <v>137.131623485771</v>
+        <v>137.13</v>
       </c>
     </row>
     <row r="252">
@@ -4651,7 +4651,7 @@
         <v>18.63</v>
       </c>
       <c r="E252" t="n">
-        <v>180.893533221791</v>
+        <v>180.89</v>
       </c>
     </row>
     <row r="253">
@@ -4668,7 +4668,7 @@
         <v>21.59</v>
       </c>
       <c r="E253" t="n">
-        <v>129.240288687188</v>
+        <v>129.24</v>
       </c>
     </row>
     <row r="254">
@@ -4685,7 +4685,7 @@
         <v>19.81</v>
       </c>
       <c r="E254" t="n">
-        <v>72.7694562331124</v>
+        <v>72.77</v>
       </c>
     </row>
     <row r="255">
@@ -4702,7 +4702,7 @@
         <v>16.69</v>
       </c>
       <c r="E255" t="n">
-        <v>141.057340669341</v>
+        <v>141.06</v>
       </c>
     </row>
     <row r="256">
@@ -4719,7 +4719,7 @@
         <v>17.9</v>
       </c>
       <c r="E256" t="n">
-        <v>60.2774959829646</v>
+        <v>60.28</v>
       </c>
     </row>
     <row r="257">
@@ -4736,7 +4736,7 @@
         <v>17.21</v>
       </c>
       <c r="E257" t="n">
-        <v>68.5223829202787</v>
+        <v>68.52</v>
       </c>
     </row>
     <row r="258">
@@ -4753,7 +4753,7 @@
         <v>15.08</v>
       </c>
       <c r="E258" t="n">
-        <v>216.682195034533</v>
+        <v>216.68</v>
       </c>
     </row>
     <row r="259">
@@ -4770,7 +4770,7 @@
         <v>15.4</v>
       </c>
       <c r="E259" t="n">
-        <v>443.507119981457</v>
+        <v>443.51</v>
       </c>
     </row>
     <row r="260">
@@ -4787,7 +4787,7 @@
         <v>20.09</v>
       </c>
       <c r="E260" t="n">
-        <v>223.096179827344</v>
+        <v>223.1</v>
       </c>
     </row>
     <row r="261">
@@ -4804,7 +4804,7 @@
         <v>19.36</v>
       </c>
       <c r="E261" t="n">
-        <v>353.115356580473</v>
+        <v>353.12</v>
       </c>
     </row>
     <row r="262">
@@ -4821,7 +4821,7 @@
         <v>17.92</v>
       </c>
       <c r="E262" t="n">
-        <v>1264.55700833534</v>
+        <v>1264.56</v>
       </c>
     </row>
     <row r="263">
@@ -4838,7 +4838,7 @@
         <v>17.62</v>
       </c>
       <c r="E263" t="n">
-        <v>145.510421254991</v>
+        <v>145.51</v>
       </c>
     </row>
     <row r="264">
@@ -4855,7 +4855,7 @@
         <v>20.24</v>
       </c>
       <c r="E264" t="n">
-        <v>165.636340766245</v>
+        <v>165.64</v>
       </c>
     </row>
     <row r="265">
@@ -4872,7 +4872,7 @@
         <v>16.42</v>
       </c>
       <c r="E265" t="n">
-        <v>431.132384855587</v>
+        <v>431.13</v>
       </c>
     </row>
     <row r="266">
@@ -4889,7 +4889,7 @@
         <v>20.53</v>
       </c>
       <c r="E266" t="n">
-        <v>336.189175469901</v>
+        <v>336.19</v>
       </c>
     </row>
     <row r="267">
@@ -4906,7 +4906,7 @@
         <v>14.87</v>
       </c>
       <c r="E267" t="n">
-        <v>243.886804445663</v>
+        <v>243.89</v>
       </c>
     </row>
     <row r="268">
@@ -4923,7 +4923,7 @@
         <v>21.44</v>
       </c>
       <c r="E268" t="n">
-        <v>238.982571658634</v>
+        <v>238.98</v>
       </c>
     </row>
     <row r="269">
@@ -4940,7 +4940,7 @@
         <v>20.14</v>
       </c>
       <c r="E269" t="n">
-        <v>354.551401562679</v>
+        <v>354.55</v>
       </c>
     </row>
     <row r="270">
@@ -4957,7 +4957,7 @@
         <v>14.33</v>
       </c>
       <c r="E270" t="n">
-        <v>411.189108230962</v>
+        <v>411.19</v>
       </c>
     </row>
     <row r="271">
@@ -4974,7 +4974,7 @@
         <v>15.91</v>
       </c>
       <c r="E271" t="n">
-        <v>93.9107354141073</v>
+        <v>93.91</v>
       </c>
     </row>
     <row r="272">
@@ -4991,7 +4991,7 @@
         <v>19.58</v>
       </c>
       <c r="E272" t="n">
-        <v>58.999287469234</v>
+        <v>59</v>
       </c>
     </row>
     <row r="273">
@@ -5008,7 +5008,7 @@
         <v>19.62</v>
       </c>
       <c r="E273" t="n">
-        <v>83.9600610186674</v>
+        <v>83.96</v>
       </c>
     </row>
     <row r="274">
@@ -5025,7 +5025,7 @@
         <v>18.11</v>
       </c>
       <c r="E274" t="n">
-        <v>237.850727008128</v>
+        <v>237.85</v>
       </c>
     </row>
     <row r="275">
@@ -5042,7 +5042,7 @@
         <v>20.39</v>
       </c>
       <c r="E275" t="n">
-        <v>107.242677582911</v>
+        <v>107.24</v>
       </c>
     </row>
     <row r="276">
@@ -5059,7 +5059,7 @@
         <v>19.47</v>
       </c>
       <c r="E276" t="n">
-        <v>21.6857737887085</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="277">
@@ -5076,7 +5076,7 @@
         <v>16</v>
       </c>
       <c r="E277" t="n">
-        <v>45.1510670403517</v>
+        <v>45.15</v>
       </c>
     </row>
     <row r="278">
@@ -5093,7 +5093,7 @@
         <v>17.92</v>
       </c>
       <c r="E278" t="n">
-        <v>78.15969358554</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="279">
@@ -5110,7 +5110,7 @@
         <v>17.57</v>
       </c>
       <c r="E279" t="n">
-        <v>1688.89254182877</v>
+        <v>1688.89</v>
       </c>
     </row>
     <row r="280">
@@ -5127,7 +5127,7 @@
         <v>15.52</v>
       </c>
       <c r="E280" t="n">
-        <v>79.4468903757499</v>
+        <v>79.45</v>
       </c>
     </row>
     <row r="281">
@@ -5144,7 +5144,7 @@
         <v>20.12</v>
       </c>
       <c r="E281" t="n">
-        <v>114.613807677148</v>
+        <v>114.61</v>
       </c>
     </row>
     <row r="282">
@@ -5161,7 +5161,7 @@
         <v>16.11</v>
       </c>
       <c r="E282" t="n">
-        <v>222.467064080266</v>
+        <v>222.47</v>
       </c>
     </row>
     <row r="283">
@@ -5178,7 +5178,7 @@
         <v>16.1</v>
       </c>
       <c r="E283" t="n">
-        <v>224.396624719056</v>
+        <v>224.4</v>
       </c>
     </row>
     <row r="284">
@@ -5195,7 +5195,7 @@
         <v>18.65</v>
       </c>
       <c r="E284" t="n">
-        <v>377.220299138353</v>
+        <v>377.22</v>
       </c>
     </row>
     <row r="285">
@@ -5212,7 +5212,7 @@
         <v>16.94</v>
       </c>
       <c r="E285" t="n">
-        <v>34.2177486046988</v>
+        <v>34.22</v>
       </c>
     </row>
     <row r="286">
@@ -5229,7 +5229,7 @@
         <v>15.79</v>
       </c>
       <c r="E286" t="n">
-        <v>464.146284779243</v>
+        <v>464.15</v>
       </c>
     </row>
     <row r="287">
@@ -5246,7 +5246,7 @@
         <v>17.55</v>
       </c>
       <c r="E287" t="n">
-        <v>236.957999027463</v>
+        <v>236.96</v>
       </c>
     </row>
     <row r="288">
@@ -5263,7 +5263,7 @@
         <v>17.47</v>
       </c>
       <c r="E288" t="n">
-        <v>290.171392411558</v>
+        <v>290.17</v>
       </c>
     </row>
     <row r="289">
@@ -5280,7 +5280,7 @@
         <v>14.18</v>
       </c>
       <c r="E289" t="n">
-        <v>59.755503776313</v>
+        <v>59.76</v>
       </c>
     </row>
     <row r="290">
@@ -5297,7 +5297,7 @@
         <v>15.66</v>
       </c>
       <c r="E290" t="n">
-        <v>85.5956123611464</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="291">
@@ -5314,7 +5314,7 @@
         <v>17.64</v>
       </c>
       <c r="E291" t="n">
-        <v>23.4956512382643</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="292">
@@ -5331,7 +5331,7 @@
         <v>15.53</v>
       </c>
       <c r="E292" t="n">
-        <v>1612.64228609497</v>
+        <v>1612.64</v>
       </c>
     </row>
     <row r="293">
@@ -5348,7 +5348,7 @@
         <v>16.06</v>
       </c>
       <c r="E293" t="n">
-        <v>112.167962234341</v>
+        <v>112.17</v>
       </c>
     </row>
     <row r="294">
@@ -5365,7 +5365,7 @@
         <v>16.67</v>
       </c>
       <c r="E294" t="n">
-        <v>220.999678119633</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295">
@@ -5382,7 +5382,7 @@
         <v>19.14</v>
       </c>
       <c r="E295" t="n">
-        <v>57.7097430455918</v>
+        <v>57.71</v>
       </c>
     </row>
     <row r="296">
@@ -5399,7 +5399,7 @@
         <v>17.09</v>
       </c>
       <c r="E296" t="n">
-        <v>377.240675269844</v>
+        <v>377.24</v>
       </c>
     </row>
     <row r="297">
@@ -5416,7 +5416,7 @@
         <v>15.87</v>
       </c>
       <c r="E297" t="n">
-        <v>301.030638294713</v>
+        <v>301.03</v>
       </c>
     </row>
     <row r="298">
@@ -5433,7 +5433,7 @@
         <v>19.99</v>
       </c>
       <c r="E298" t="n">
-        <v>70.9393206644189</v>
+        <v>70.94</v>
       </c>
     </row>
     <row r="299">
@@ -5450,7 +5450,7 @@
         <v>17.71</v>
       </c>
       <c r="E299" t="n">
-        <v>447.837747768906</v>
+        <v>447.84</v>
       </c>
     </row>
     <row r="300">
@@ -5467,7 +5467,7 @@
         <v>18.06</v>
       </c>
       <c r="E300" t="n">
-        <v>62.6342206904625</v>
+        <v>62.63</v>
       </c>
     </row>
     <row r="301">
@@ -5484,7 +5484,7 @@
         <v>16.3</v>
       </c>
       <c r="E301" t="n">
-        <v>75.5591860262337</v>
+        <v>75.56</v>
       </c>
     </row>
     <row r="302">
@@ -5501,7 +5501,7 @@
         <v>21.54</v>
       </c>
       <c r="E302" t="n">
-        <v>71.6540075242875</v>
+        <v>71.65</v>
       </c>
     </row>
     <row r="303">
@@ -5518,7 +5518,7 @@
         <v>25.42</v>
       </c>
       <c r="E303" t="n">
-        <v>388.187340271473</v>
+        <v>388.19</v>
       </c>
     </row>
     <row r="304">
@@ -5535,7 +5535,7 @@
         <v>25.71</v>
       </c>
       <c r="E304" t="n">
-        <v>251.002094329063</v>
+        <v>251</v>
       </c>
     </row>
     <row r="305">
@@ -5552,7 +5552,7 @@
         <v>20.21</v>
       </c>
       <c r="E305" t="n">
-        <v>122.598635413952</v>
+        <v>122.6</v>
       </c>
     </row>
     <row r="306">
@@ -5569,7 +5569,7 @@
         <v>24.72</v>
       </c>
       <c r="E306" t="n">
-        <v>422.803075234547</v>
+        <v>422.8</v>
       </c>
     </row>
     <row r="307">
@@ -5586,7 +5586,7 @@
         <v>20.66</v>
       </c>
       <c r="E307" t="n">
-        <v>91.3244952550643</v>
+        <v>91.32</v>
       </c>
     </row>
     <row r="308">
@@ -5603,7 +5603,7 @@
         <v>23.37</v>
       </c>
       <c r="E308" t="n">
-        <v>200.10681280105</v>
+        <v>200.11</v>
       </c>
     </row>
     <row r="309">
@@ -5620,7 +5620,7 @@
         <v>21.79</v>
       </c>
       <c r="E309" t="n">
-        <v>288.894744516793</v>
+        <v>288.89</v>
       </c>
     </row>
     <row r="310">
@@ -5637,7 +5637,7 @@
         <v>22.92</v>
       </c>
       <c r="E310" t="n">
-        <v>1039.28089338029</v>
+        <v>1039.28</v>
       </c>
     </row>
     <row r="311">
@@ -5654,7 +5654,7 @@
         <v>22.04</v>
       </c>
       <c r="E311" t="n">
-        <v>709.204271032776</v>
+        <v>709.2</v>
       </c>
     </row>
     <row r="312">
@@ -5671,7 +5671,7 @@
         <v>24.65</v>
       </c>
       <c r="E312" t="n">
-        <v>15.7490472823884</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="313">
@@ -5688,7 +5688,7 @@
         <v>24.91</v>
       </c>
       <c r="E313" t="n">
-        <v>91.7773235747273</v>
+        <v>91.78</v>
       </c>
     </row>
     <row r="314">
@@ -5705,7 +5705,7 @@
         <v>25.3</v>
       </c>
       <c r="E314" t="n">
-        <v>1244.46654431337</v>
+        <v>1244.47</v>
       </c>
     </row>
     <row r="315">
@@ -5722,7 +5722,7 @@
         <v>21.95</v>
       </c>
       <c r="E315" t="n">
-        <v>1065.68246028783</v>
+        <v>1065.68</v>
       </c>
     </row>
     <row r="316">
@@ -5739,7 +5739,7 @@
         <v>25.38</v>
       </c>
       <c r="E316" t="n">
-        <v>23.5617036520191</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="317">
@@ -5756,7 +5756,7 @@
         <v>21.93</v>
       </c>
       <c r="E317" t="n">
-        <v>445.956747459107</v>
+        <v>445.96</v>
       </c>
     </row>
     <row r="318">
@@ -5773,7 +5773,7 @@
         <v>23.39</v>
       </c>
       <c r="E318" t="n">
-        <v>263.830613423984</v>
+        <v>263.83</v>
       </c>
     </row>
     <row r="319">
@@ -5790,7 +5790,7 @@
         <v>22.74</v>
       </c>
       <c r="E319" t="n">
-        <v>83.3399336764441</v>
+        <v>83.34</v>
       </c>
     </row>
     <row r="320">
@@ -5807,7 +5807,7 @@
         <v>23.41</v>
       </c>
       <c r="E320" t="n">
-        <v>653.561147697531</v>
+        <v>653.56</v>
       </c>
     </row>
     <row r="321">
@@ -5824,7 +5824,7 @@
         <v>19.92</v>
       </c>
       <c r="E321" t="n">
-        <v>69.6599053188291</v>
+        <v>69.66</v>
       </c>
     </row>
     <row r="322">
@@ -5841,7 +5841,7 @@
         <v>21.05</v>
       </c>
       <c r="E322" t="n">
-        <v>24.5384313787126</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="323">
@@ -5858,7 +5858,7 @@
         <v>21.92</v>
       </c>
       <c r="E323" t="n">
-        <v>245.480270738684</v>
+        <v>245.48</v>
       </c>
     </row>
     <row r="324">
@@ -5875,7 +5875,7 @@
         <v>23.55</v>
       </c>
       <c r="E324" t="n">
-        <v>464.299083669613</v>
+        <v>464.3</v>
       </c>
     </row>
     <row r="325">
@@ -5892,7 +5892,7 @@
         <v>22.72</v>
       </c>
       <c r="E325" t="n">
-        <v>61.7046780046362</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="326">
@@ -5909,7 +5909,7 @@
         <v>24.07</v>
       </c>
       <c r="E326" t="n">
-        <v>64.945740385987</v>
+        <v>64.95</v>
       </c>
     </row>
     <row r="327">
@@ -5926,7 +5926,7 @@
         <v>19.02</v>
       </c>
       <c r="E327" t="n">
-        <v>214.419931228245</v>
+        <v>214.42</v>
       </c>
     </row>
     <row r="328">
@@ -5943,7 +5943,7 @@
         <v>21.1</v>
       </c>
       <c r="E328" t="n">
-        <v>435.384462658666</v>
+        <v>435.38</v>
       </c>
     </row>
     <row r="329">
@@ -5960,7 +5960,7 @@
         <v>22.38</v>
       </c>
       <c r="E329" t="n">
-        <v>504.8838632258</v>
+        <v>504.88</v>
       </c>
     </row>
     <row r="330">
@@ -5977,7 +5977,7 @@
         <v>23.32</v>
       </c>
       <c r="E330" t="n">
-        <v>342.212262192733</v>
+        <v>342.21</v>
       </c>
     </row>
     <row r="331">
@@ -5994,7 +5994,7 @@
         <v>24.51</v>
       </c>
       <c r="E331" t="n">
-        <v>244.321996937826</v>
+        <v>244.32</v>
       </c>
     </row>
     <row r="332">
@@ -6011,7 +6011,7 @@
         <v>25.98</v>
       </c>
       <c r="E332" t="n">
-        <v>107.584295014558</v>
+        <v>107.58</v>
       </c>
     </row>
     <row r="333">
@@ -6028,7 +6028,7 @@
         <v>21.04</v>
       </c>
       <c r="E333" t="n">
-        <v>107.739076326046</v>
+        <v>107.74</v>
       </c>
     </row>
     <row r="334">
@@ -6045,7 +6045,7 @@
         <v>21.85</v>
       </c>
       <c r="E334" t="n">
-        <v>188.367943270723</v>
+        <v>188.37</v>
       </c>
     </row>
     <row r="335">
@@ -6062,7 +6062,7 @@
         <v>20.15</v>
       </c>
       <c r="E335" t="n">
-        <v>251.308399087833</v>
+        <v>251.31</v>
       </c>
     </row>
     <row r="336">
@@ -6079,7 +6079,7 @@
         <v>23.07</v>
       </c>
       <c r="E336" t="n">
-        <v>235.609603445099</v>
+        <v>235.61</v>
       </c>
     </row>
     <row r="337">
@@ -6096,7 +6096,7 @@
         <v>22.43</v>
       </c>
       <c r="E337" t="n">
-        <v>63.1498234359013</v>
+        <v>63.15</v>
       </c>
     </row>
     <row r="338">
@@ -6113,7 +6113,7 @@
         <v>24.77</v>
       </c>
       <c r="E338" t="n">
-        <v>118.752651864807</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="339">
@@ -6130,7 +6130,7 @@
         <v>24.74</v>
       </c>
       <c r="E339" t="n">
-        <v>80.51615856989</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="340">
@@ -6147,7 +6147,7 @@
         <v>25.01</v>
       </c>
       <c r="E340" t="n">
-        <v>104.77499771068</v>
+        <v>104.77</v>
       </c>
     </row>
     <row r="341">
@@ -6164,7 +6164,7 @@
         <v>21.1</v>
       </c>
       <c r="E341" t="n">
-        <v>31.3919692248154</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="342">
@@ -6181,7 +6181,7 @@
         <v>21.72</v>
       </c>
       <c r="E342" t="n">
-        <v>76.3088940750719</v>
+        <v>76.31</v>
       </c>
     </row>
     <row r="343">
@@ -6198,7 +6198,7 @@
         <v>21.46</v>
       </c>
       <c r="E343" t="n">
-        <v>23.0266492938873</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="344">
@@ -6215,7 +6215,7 @@
         <v>23.92</v>
       </c>
       <c r="E344" t="n">
-        <v>136.441587763904</v>
+        <v>136.44</v>
       </c>
     </row>
     <row r="345">
@@ -6232,7 +6232,7 @@
         <v>22.45</v>
       </c>
       <c r="E345" t="n">
-        <v>210.453573465418</v>
+        <v>210.45</v>
       </c>
     </row>
     <row r="346">
@@ -6249,7 +6249,7 @@
         <v>27.92</v>
       </c>
       <c r="E346" t="n">
-        <v>472.850898608418</v>
+        <v>472.85</v>
       </c>
     </row>
     <row r="347">
@@ -6266,7 +6266,7 @@
         <v>23.18</v>
       </c>
       <c r="E347" t="n">
-        <v>49.7382191914699</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="348">
@@ -6283,7 +6283,7 @@
         <v>23.96</v>
       </c>
       <c r="E348" t="n">
-        <v>72.5864603979359</v>
+        <v>72.59</v>
       </c>
     </row>
     <row r="349">
@@ -6300,7 +6300,7 @@
         <v>22.14</v>
       </c>
       <c r="E349" t="n">
-        <v>123.363548777496</v>
+        <v>123.36</v>
       </c>
     </row>
     <row r="350">
@@ -6317,7 +6317,7 @@
         <v>23.94</v>
       </c>
       <c r="E350" t="n">
-        <v>99.5503749012441</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="351">
@@ -6334,7 +6334,7 @@
         <v>25</v>
       </c>
       <c r="E351" t="n">
-        <v>166.772510987973</v>
+        <v>166.77</v>
       </c>
     </row>
     <row r="352">
@@ -6351,7 +6351,7 @@
         <v>24.45</v>
       </c>
       <c r="E352" t="n">
-        <v>155.006040664971</v>
+        <v>155.01</v>
       </c>
     </row>
     <row r="353">
@@ -6368,7 +6368,7 @@
         <v>20.99</v>
       </c>
       <c r="E353" t="n">
-        <v>327.153052723624</v>
+        <v>327.15</v>
       </c>
     </row>
     <row r="354">
@@ -6385,7 +6385,7 @@
         <v>25.41</v>
       </c>
       <c r="E354" t="n">
-        <v>81.907288251821</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="355">
@@ -6402,7 +6402,7 @@
         <v>26.68</v>
       </c>
       <c r="E355" t="n">
-        <v>19.1308595536032</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="356">
@@ -6419,7 +6419,7 @@
         <v>24.68</v>
       </c>
       <c r="E356" t="n">
-        <v>39.3686325589894</v>
+        <v>39.37</v>
       </c>
     </row>
     <row r="357">
@@ -6436,7 +6436,7 @@
         <v>23.46</v>
       </c>
       <c r="E357" t="n">
-        <v>143.149874767478</v>
+        <v>143.15</v>
       </c>
     </row>
     <row r="358">
@@ -6453,7 +6453,7 @@
         <v>22.57</v>
       </c>
       <c r="E358" t="n">
-        <v>329.136511931103</v>
+        <v>329.14</v>
       </c>
     </row>
     <row r="359">
@@ -6470,7 +6470,7 @@
         <v>21.87</v>
       </c>
       <c r="E359" t="n">
-        <v>319.105805624835</v>
+        <v>319.11</v>
       </c>
     </row>
     <row r="360">
@@ -6487,7 +6487,7 @@
         <v>22.92</v>
       </c>
       <c r="E360" t="n">
-        <v>63.8115287500501</v>
+        <v>63.81</v>
       </c>
     </row>
     <row r="361">
@@ -6504,7 +6504,7 @@
         <v>21.43</v>
       </c>
       <c r="E361" t="n">
-        <v>65.8094880596617</v>
+        <v>65.81</v>
       </c>
     </row>
     <row r="362">
@@ -6521,7 +6521,7 @@
         <v>21.94</v>
       </c>
       <c r="E362" t="n">
-        <v>46.7557801613566</v>
+        <v>46.76</v>
       </c>
     </row>
     <row r="363">
@@ -6538,7 +6538,7 @@
         <v>25.25</v>
       </c>
       <c r="E363" t="n">
-        <v>261.757879766146</v>
+        <v>261.76</v>
       </c>
     </row>
     <row r="364">
@@ -6555,7 +6555,7 @@
         <v>23.07</v>
       </c>
       <c r="E364" t="n">
-        <v>649.356146824113</v>
+        <v>649.36</v>
       </c>
     </row>
     <row r="365">
@@ -6572,7 +6572,7 @@
         <v>21.38</v>
       </c>
       <c r="E365" t="n">
-        <v>265.712430618291</v>
+        <v>265.71</v>
       </c>
     </row>
     <row r="366">
@@ -6589,7 +6589,7 @@
         <v>20.67</v>
       </c>
       <c r="E366" t="n">
-        <v>48.6974725881171</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="367">
@@ -6606,7 +6606,7 @@
         <v>22.09</v>
       </c>
       <c r="E367" t="n">
-        <v>227.287048999137</v>
+        <v>227.29</v>
       </c>
     </row>
     <row r="368">
@@ -6623,7 +6623,7 @@
         <v>22.31</v>
       </c>
       <c r="E368" t="n">
-        <v>320.634052704095</v>
+        <v>320.63</v>
       </c>
     </row>
     <row r="369">
@@ -6640,7 +6640,7 @@
         <v>25.23</v>
       </c>
       <c r="E369" t="n">
-        <v>123.529426265248</v>
+        <v>123.53</v>
       </c>
     </row>
     <row r="370">
@@ -6657,7 +6657,7 @@
         <v>23.23</v>
       </c>
       <c r="E370" t="n">
-        <v>138.815369009504</v>
+        <v>138.82</v>
       </c>
     </row>
     <row r="371">
@@ -6674,7 +6674,7 @@
         <v>23.55</v>
       </c>
       <c r="E371" t="n">
-        <v>178.185877573565</v>
+        <v>178.19</v>
       </c>
     </row>
     <row r="372">
@@ -6691,7 +6691,7 @@
         <v>19.94</v>
       </c>
       <c r="E372" t="n">
-        <v>350.59093481343</v>
+        <v>350.59</v>
       </c>
     </row>
     <row r="373">
@@ -6708,7 +6708,7 @@
         <v>23.29</v>
       </c>
       <c r="E373" t="n">
-        <v>44.0553334868564</v>
+        <v>44.06</v>
       </c>
     </row>
     <row r="374">
@@ -6725,7 +6725,7 @@
         <v>25.11</v>
       </c>
       <c r="E374" t="n">
-        <v>485.157687872565</v>
+        <v>485.16</v>
       </c>
     </row>
     <row r="375">
@@ -6742,7 +6742,7 @@
         <v>21.95</v>
       </c>
       <c r="E375" t="n">
-        <v>80.7532459176471</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="376">
@@ -6759,7 +6759,7 @@
         <v>22.93</v>
       </c>
       <c r="E376" t="n">
-        <v>380.824588164036</v>
+        <v>380.82</v>
       </c>
     </row>
     <row r="377">
@@ -6776,7 +6776,7 @@
         <v>23.27</v>
       </c>
       <c r="E377" t="n">
-        <v>215.391538886303</v>
+        <v>215.39</v>
       </c>
     </row>
     <row r="378">
@@ -6793,7 +6793,7 @@
         <v>20.38</v>
       </c>
       <c r="E378" t="n">
-        <v>334.490195925823</v>
+        <v>334.49</v>
       </c>
     </row>
     <row r="379">
@@ -6810,7 +6810,7 @@
         <v>24.09</v>
       </c>
       <c r="E379" t="n">
-        <v>619.003746988126</v>
+        <v>619</v>
       </c>
     </row>
     <row r="380">
@@ -6827,7 +6827,7 @@
         <v>21.45</v>
       </c>
       <c r="E380" t="n">
-        <v>894.190755097031</v>
+        <v>894.19</v>
       </c>
     </row>
     <row r="381">
@@ -6844,7 +6844,7 @@
         <v>23.2</v>
       </c>
       <c r="E381" t="n">
-        <v>21.0713945116081</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="382">
@@ -6861,7 +6861,7 @@
         <v>24.18</v>
       </c>
       <c r="E382" t="n">
-        <v>84.9523921402267</v>
+        <v>84.95</v>
       </c>
     </row>
     <row r="383">
@@ -6878,7 +6878,7 @@
         <v>24.58</v>
       </c>
       <c r="E383" t="n">
-        <v>43.1112046661957</v>
+        <v>43.11</v>
       </c>
     </row>
     <row r="384">
@@ -6895,7 +6895,7 @@
         <v>24.14</v>
       </c>
       <c r="E384" t="n">
-        <v>191.36468902992</v>
+        <v>191.36</v>
       </c>
     </row>
     <row r="385">
@@ -6912,7 +6912,7 @@
         <v>22.4</v>
       </c>
       <c r="E385" t="n">
-        <v>394.213445175744</v>
+        <v>394.21</v>
       </c>
     </row>
     <row r="386">
@@ -6929,7 +6929,7 @@
         <v>24.89</v>
       </c>
       <c r="E386" t="n">
-        <v>647.514168088255</v>
+        <v>647.51</v>
       </c>
     </row>
     <row r="387">
@@ -6946,7 +6946,7 @@
         <v>21.66</v>
       </c>
       <c r="E387" t="n">
-        <v>100.487894975881</v>
+        <v>100.49</v>
       </c>
     </row>
     <row r="388">
@@ -6963,7 +6963,7 @@
         <v>23.2</v>
       </c>
       <c r="E388" t="n">
-        <v>141.782024294885</v>
+        <v>141.78</v>
       </c>
     </row>
     <row r="389">
@@ -6980,7 +6980,7 @@
         <v>22.89</v>
       </c>
       <c r="E389" t="n">
-        <v>44.1661435241631</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="390">
@@ -6997,7 +6997,7 @@
         <v>22.73</v>
       </c>
       <c r="E390" t="n">
-        <v>339.194991250897</v>
+        <v>339.19</v>
       </c>
     </row>
     <row r="391">
@@ -7014,7 +7014,7 @@
         <v>21.15</v>
       </c>
       <c r="E391" t="n">
-        <v>33.4742192897725</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="392">
@@ -7031,7 +7031,7 @@
         <v>21.76</v>
       </c>
       <c r="E392" t="n">
-        <v>72.4245899053795</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="393">
@@ -7048,7 +7048,7 @@
         <v>24.9</v>
       </c>
       <c r="E393" t="n">
-        <v>590.758778806838</v>
+        <v>590.76</v>
       </c>
     </row>
     <row r="394">
@@ -7065,7 +7065,7 @@
         <v>21.37</v>
       </c>
       <c r="E394" t="n">
-        <v>357.971680608154</v>
+        <v>357.97</v>
       </c>
     </row>
     <row r="395">
@@ -7082,7 +7082,7 @@
         <v>22.67</v>
       </c>
       <c r="E395" t="n">
-        <v>31.2139721456778</v>
+        <v>31.21</v>
       </c>
     </row>
     <row r="396">
@@ -7099,7 +7099,7 @@
         <v>23.92</v>
       </c>
       <c r="E396" t="n">
-        <v>470.26290386353</v>
+        <v>470.26</v>
       </c>
     </row>
     <row r="397">
@@ -7116,7 +7116,7 @@
         <v>20.45</v>
       </c>
       <c r="E397" t="n">
-        <v>70.9623490246244</v>
+        <v>70.96</v>
       </c>
     </row>
     <row r="398">
@@ -7133,7 +7133,7 @@
         <v>21.03</v>
       </c>
       <c r="E398" t="n">
-        <v>91.5422028120055</v>
+        <v>91.54</v>
       </c>
     </row>
     <row r="399">
@@ -7150,7 +7150,7 @@
         <v>20.7</v>
       </c>
       <c r="E399" t="n">
-        <v>83.583403323177</v>
+        <v>83.58</v>
       </c>
     </row>
     <row r="400">
@@ -7167,7 +7167,7 @@
         <v>19.31</v>
       </c>
       <c r="E400" t="n">
-        <v>84.0240877720691</v>
+        <v>84.02</v>
       </c>
     </row>
     <row r="401">
@@ -7184,7 +7184,7 @@
         <v>27.1</v>
       </c>
       <c r="E401" t="n">
-        <v>27.5068842626427</v>
+        <v>27.51</v>
       </c>
     </row>
   </sheetData>

--- a/data/flea_dog_cat_length_weight.xlsx
+++ b/data/flea_dog_cat_length_weight.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">animal</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">jump_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flea_count</t>
   </si>
   <si>
     <t xml:space="preserve">hatch_time</t>
@@ -386,13 +389,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>6.02</v>
@@ -401,15 +407,18 @@
         <v>16.93</v>
       </c>
       <c r="E2" t="n">
-        <v>68.56</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>393.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>5.99</v>
@@ -418,15 +427,18 @@
         <v>16.22</v>
       </c>
       <c r="E3" t="n">
-        <v>131.66</v>
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>203.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>8.05</v>
@@ -435,15 +447,18 @@
         <v>18.96</v>
       </c>
       <c r="E4" t="n">
-        <v>94.63</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>107.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>6.71</v>
@@ -452,15 +467,18 @@
         <v>19.83</v>
       </c>
       <c r="E5" t="n">
-        <v>110.04</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>6.19</v>
@@ -469,15 +487,18 @@
         <v>17.37</v>
       </c>
       <c r="E6" t="n">
-        <v>103.2</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>144.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>8.18</v>
@@ -486,15 +507,18 @@
         <v>14.45</v>
       </c>
       <c r="E7" t="n">
-        <v>326.91</v>
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>107.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>7.46</v>
@@ -503,15 +527,18 @@
         <v>15.46</v>
       </c>
       <c r="E8" t="n">
-        <v>360.9</v>
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>272.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>5.58</v>
@@ -520,15 +547,18 @@
         <v>15.81</v>
       </c>
       <c r="E9" t="n">
-        <v>21.15</v>
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>484.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>6.19</v>
@@ -537,15 +567,18 @@
         <v>19.14</v>
       </c>
       <c r="E10" t="n">
-        <v>203.73</v>
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>75.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>7.53</v>
@@ -554,15 +587,18 @@
         <v>15.72</v>
       </c>
       <c r="E11" t="n">
-        <v>878.64</v>
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>540.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>7.12</v>
@@ -571,15 +607,18 @@
         <v>14.65</v>
       </c>
       <c r="E12" t="n">
-        <v>338.42</v>
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1385.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>6.18</v>
@@ -588,15 +627,18 @@
         <v>17.21</v>
       </c>
       <c r="E13" t="n">
-        <v>81.71</v>
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>44.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>7.04</v>
@@ -605,15 +647,18 @@
         <v>14.07</v>
       </c>
       <c r="E14" t="n">
-        <v>520.19</v>
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>91.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>5.91</v>
@@ -622,15 +667,18 @@
         <v>15.5</v>
       </c>
       <c r="E15" t="n">
-        <v>208.1</v>
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>40.97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>6.84</v>
@@ -639,15 +687,18 @@
         <v>15.37</v>
       </c>
       <c r="E16" t="n">
-        <v>377.38</v>
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>44.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>4.86</v>
@@ -656,15 +707,18 @@
         <v>14.79</v>
       </c>
       <c r="E17" t="n">
-        <v>95.55</v>
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>335.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>6.18</v>
@@ -673,15 +727,18 @@
         <v>15.51</v>
       </c>
       <c r="E18" t="n">
-        <v>191.67</v>
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>312.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>6.77</v>
@@ -690,15 +747,18 @@
         <v>16.33</v>
       </c>
       <c r="E19" t="n">
-        <v>92.61</v>
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>673.92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>6</v>
@@ -707,15 +767,18 @@
         <v>16.04</v>
       </c>
       <c r="E20" t="n">
-        <v>340.67</v>
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>212.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>6.75</v>
@@ -724,15 +787,18 @@
         <v>16.57</v>
       </c>
       <c r="E21" t="n">
-        <v>70.31</v>
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>131.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>7.8</v>
@@ -741,15 +807,18 @@
         <v>14.33</v>
       </c>
       <c r="E22" t="n">
-        <v>115.37</v>
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>304.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
         <v>4.62</v>
@@ -758,15 +827,18 @@
         <v>16.29</v>
       </c>
       <c r="E23" t="n">
-        <v>38.65</v>
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>570.93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
         <v>5.22</v>
@@ -775,15 +847,18 @@
         <v>17.31</v>
       </c>
       <c r="E24" t="n">
-        <v>383.5</v>
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>220.35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
         <v>5.81</v>
@@ -792,15 +867,18 @@
         <v>15.45</v>
       </c>
       <c r="E25" t="n">
-        <v>160.12</v>
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>83.46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
         <v>6.46</v>
@@ -809,15 +887,18 @@
         <v>19.64</v>
       </c>
       <c r="E26" t="n">
-        <v>232.36</v>
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33.97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
         <v>7.71</v>
@@ -826,15 +907,18 @@
         <v>17.51</v>
       </c>
       <c r="E27" t="n">
-        <v>72.88</v>
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>58.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
         <v>8.15</v>
@@ -843,15 +927,18 @@
         <v>14.84</v>
       </c>
       <c r="E28" t="n">
-        <v>158.02</v>
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>110.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
         <v>7.17</v>
@@ -860,15 +947,18 @@
         <v>14.18</v>
       </c>
       <c r="E29" t="n">
-        <v>459.03</v>
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>637.49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
         <v>7.17</v>
@@ -877,15 +967,18 @@
         <v>13.46</v>
       </c>
       <c r="E30" t="n">
-        <v>72.56</v>
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>361.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
         <v>6.12</v>
@@ -894,15 +987,18 @@
         <v>17.43</v>
       </c>
       <c r="E31" t="n">
-        <v>1523.1</v>
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>196.53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
         <v>5.35</v>
@@ -911,15 +1007,18 @@
         <v>15.06</v>
       </c>
       <c r="E32" t="n">
-        <v>39.49</v>
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>70.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
         <v>6.07</v>
@@ -928,15 +1027,18 @@
         <v>17.84</v>
       </c>
       <c r="E33" t="n">
-        <v>188.29</v>
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>291.07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
         <v>7.5</v>
@@ -945,15 +1047,18 @@
         <v>16.14</v>
       </c>
       <c r="E34" t="n">
-        <v>102.66</v>
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
         <v>5.8</v>
@@ -962,15 +1067,18 @@
         <v>16.43</v>
       </c>
       <c r="E35" t="n">
-        <v>202.03</v>
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>141.88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
         <v>6.58</v>
@@ -979,15 +1087,18 @@
         <v>15.48</v>
       </c>
       <c r="E36" t="n">
-        <v>73.33</v>
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>838.71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
         <v>5.63</v>
@@ -996,15 +1107,18 @@
         <v>18.53</v>
       </c>
       <c r="E37" t="n">
-        <v>214.07</v>
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>199.77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
         <v>6.19</v>
@@ -1013,15 +1127,18 @@
         <v>17.4</v>
       </c>
       <c r="E38" t="n">
-        <v>42.53</v>
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>238.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
         <v>6.92</v>
@@ -1030,15 +1147,18 @@
         <v>15.59</v>
       </c>
       <c r="E39" t="n">
-        <v>369.99</v>
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>163.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
         <v>8.01</v>
@@ -1047,15 +1167,18 @@
         <v>16.37</v>
       </c>
       <c r="E40" t="n">
-        <v>63.77</v>
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>80.64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
         <v>7.88</v>
@@ -1064,15 +1187,18 @@
         <v>15.05</v>
       </c>
       <c r="E41" t="n">
-        <v>389.15</v>
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>128.56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>7.93</v>
@@ -1081,15 +1207,18 @@
         <v>18.1</v>
       </c>
       <c r="E42" t="n">
-        <v>1333.03</v>
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>258.76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
         <v>6.8</v>
@@ -1098,15 +1227,18 @@
         <v>14.53</v>
       </c>
       <c r="E43" t="n">
-        <v>158.73</v>
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>97.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
         <v>8.17</v>
@@ -1115,15 +1247,18 @@
         <v>14.79</v>
       </c>
       <c r="E44" t="n">
-        <v>207.65</v>
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>45.51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
         <v>5.91</v>
@@ -1132,15 +1267,18 @@
         <v>16.74</v>
       </c>
       <c r="E45" t="n">
-        <v>79.94</v>
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>588.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
         <v>5.82</v>
@@ -1149,15 +1287,18 @@
         <v>17.98</v>
       </c>
       <c r="E46" t="n">
-        <v>141.62</v>
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>136.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
         <v>8.04</v>
@@ -1166,15 +1307,18 @@
         <v>14.45</v>
       </c>
       <c r="E47" t="n">
-        <v>52.66</v>
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253.71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
         <v>5.97</v>
@@ -1183,15 +1327,18 @@
         <v>15.47</v>
       </c>
       <c r="E48" t="n">
-        <v>286.33</v>
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>345.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
         <v>6.3</v>
@@ -1200,15 +1347,18 @@
         <v>13.27</v>
       </c>
       <c r="E49" t="n">
-        <v>1139.93</v>
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>23.56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
         <v>6.21</v>
@@ -1217,15 +1367,18 @@
         <v>12.97</v>
       </c>
       <c r="E50" t="n">
-        <v>558.83</v>
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>158.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
         <v>4.75</v>
@@ -1234,15 +1387,18 @@
         <v>12.86</v>
       </c>
       <c r="E51" t="n">
-        <v>398.82</v>
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>137.13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
         <v>7.36</v>
@@ -1251,15 +1407,18 @@
         <v>19.14</v>
       </c>
       <c r="E52" t="n">
-        <v>68.36</v>
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>180.89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
         <v>7.05</v>
@@ -1268,15 +1427,18 @@
         <v>16.42</v>
       </c>
       <c r="E53" t="n">
-        <v>86.1</v>
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>129.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
         <v>7.28</v>
@@ -1285,15 +1447,18 @@
         <v>14.55</v>
       </c>
       <c r="E54" t="n">
-        <v>1216.53</v>
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>72.77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
         <v>7.06</v>
@@ -1302,15 +1467,18 @@
         <v>20</v>
       </c>
       <c r="E55" t="n">
-        <v>131.59</v>
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>141.06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
         <v>6.51</v>
@@ -1319,15 +1487,18 @@
         <v>16.03</v>
       </c>
       <c r="E56" t="n">
-        <v>41.04</v>
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>60.28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
         <v>9.8</v>
@@ -1336,15 +1507,18 @@
         <v>11.88</v>
       </c>
       <c r="E57" t="n">
-        <v>538.81</v>
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>68.52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
         <v>6.74</v>
@@ -1353,15 +1527,18 @@
         <v>15.59</v>
       </c>
       <c r="E58" t="n">
-        <v>764.98</v>
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>216.68</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
         <v>7.82</v>
@@ -1370,15 +1547,18 @@
         <v>15.39</v>
       </c>
       <c r="E59" t="n">
-        <v>97.35</v>
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>443.51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
         <v>7.11</v>
@@ -1387,15 +1567,18 @@
         <v>13.12</v>
       </c>
       <c r="E60" t="n">
-        <v>160.61</v>
+        <v>6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>223.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
         <v>8.45</v>
@@ -1404,15 +1587,18 @@
         <v>14.67</v>
       </c>
       <c r="E61" t="n">
-        <v>106.74</v>
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>353.12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
         <v>7.05</v>
@@ -1421,15 +1607,18 @@
         <v>17.36</v>
       </c>
       <c r="E62" t="n">
-        <v>509.6</v>
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1264.56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
         <v>6.39</v>
@@ -1438,15 +1627,18 @@
         <v>14.72</v>
       </c>
       <c r="E63" t="n">
-        <v>63.76</v>
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>145.51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
         <v>7.21</v>
@@ -1455,15 +1647,18 @@
         <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>141.11</v>
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>165.64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
         <v>6.29</v>
@@ -1472,15 +1667,18 @@
         <v>14.76</v>
       </c>
       <c r="E65" t="n">
-        <v>256.2</v>
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>431.13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
         <v>8.03</v>
@@ -1489,15 +1687,18 @@
         <v>16.96</v>
       </c>
       <c r="E66" t="n">
-        <v>125.07</v>
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>336.19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="n">
         <v>6.92</v>
@@ -1506,15 +1707,18 @@
         <v>17.05</v>
       </c>
       <c r="E67" t="n">
-        <v>81.28</v>
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>243.89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
         <v>7.55</v>
@@ -1523,15 +1727,18 @@
         <v>16.91</v>
       </c>
       <c r="E68" t="n">
-        <v>83.54</v>
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>238.98</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
         <v>6.15</v>
@@ -1540,15 +1747,18 @@
         <v>13.28</v>
       </c>
       <c r="E69" t="n">
-        <v>122.63</v>
+        <v>4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>354.55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
         <v>7.51</v>
@@ -1557,15 +1767,18 @@
         <v>17.52</v>
       </c>
       <c r="E70" t="n">
-        <v>83.59</v>
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>411.19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
         <v>7.22</v>
@@ -1574,15 +1787,18 @@
         <v>13.39</v>
       </c>
       <c r="E71" t="n">
-        <v>904.31</v>
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>93.91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
         <v>6.89</v>
@@ -1591,15 +1807,18 @@
         <v>17.59</v>
       </c>
       <c r="E72" t="n">
-        <v>236.44</v>
+        <v>2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
         <v>7.51</v>
@@ -1608,15 +1827,18 @@
         <v>17.77</v>
       </c>
       <c r="E73" t="n">
-        <v>118.99</v>
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>83.96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
         <v>6.71</v>
@@ -1625,15 +1847,18 @@
         <v>16.5</v>
       </c>
       <c r="E74" t="n">
-        <v>65.72</v>
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>237.85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="n">
         <v>6.81</v>
@@ -1642,15 +1867,18 @@
         <v>15.75</v>
       </c>
       <c r="E75" t="n">
-        <v>85.32</v>
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>107.24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
         <v>8.94</v>
@@ -1659,15 +1887,18 @@
         <v>16.12</v>
       </c>
       <c r="E76" t="n">
-        <v>133.15</v>
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>21.69</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
         <v>8.62</v>
@@ -1676,15 +1907,18 @@
         <v>15.34</v>
       </c>
       <c r="E77" t="n">
-        <v>69.79</v>
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>45.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
         <v>7.83</v>
@@ -1693,15 +1927,18 @@
         <v>15.83</v>
       </c>
       <c r="E78" t="n">
-        <v>80.2</v>
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>78.16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
         <v>8.41</v>
@@ -1710,15 +1947,18 @@
         <v>14.37</v>
       </c>
       <c r="E79" t="n">
-        <v>22.1</v>
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1688.89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
         <v>7.8</v>
@@ -1727,15 +1967,18 @@
         <v>16.31</v>
       </c>
       <c r="E80" t="n">
-        <v>212.91</v>
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>79.45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
         <v>6.34</v>
@@ -1744,15 +1987,18 @@
         <v>14.95</v>
       </c>
       <c r="E81" t="n">
-        <v>179.2</v>
+        <v>2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>114.61</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
         <v>6.25</v>
@@ -1761,15 +2007,18 @@
         <v>14.47</v>
       </c>
       <c r="E82" t="n">
-        <v>31.64</v>
+        <v>6</v>
+      </c>
+      <c r="F82" t="n">
+        <v>222.47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
         <v>5.75</v>
@@ -1778,15 +2027,18 @@
         <v>12.94</v>
       </c>
       <c r="E83" t="n">
-        <v>327.96</v>
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>224.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
         <v>6.39</v>
@@ -1795,15 +2047,18 @@
         <v>13.66</v>
       </c>
       <c r="E84" t="n">
-        <v>114.42</v>
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>377.22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
         <v>6.23</v>
@@ -1812,15 +2067,18 @@
         <v>11.82</v>
       </c>
       <c r="E85" t="n">
-        <v>56.86</v>
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>34.22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="n">
         <v>7.28</v>
@@ -1829,15 +2087,18 @@
         <v>17.68</v>
       </c>
       <c r="E86" t="n">
-        <v>528.97</v>
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>464.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
         <v>7.19</v>
@@ -1846,15 +2107,18 @@
         <v>18.66</v>
       </c>
       <c r="E87" t="n">
-        <v>44.78</v>
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>236.96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
         <v>5.82</v>
@@ -1863,15 +2127,18 @@
         <v>18.3</v>
       </c>
       <c r="E88" t="n">
-        <v>36.45</v>
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>290.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
         <v>6.54</v>
@@ -1880,15 +2147,18 @@
         <v>18.79</v>
       </c>
       <c r="E89" t="n">
-        <v>106.7</v>
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>59.76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="n">
         <v>7.31</v>
@@ -1897,15 +2167,18 @@
         <v>15.17</v>
       </c>
       <c r="E90" t="n">
-        <v>956.74</v>
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>85.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="n">
         <v>6.84</v>
@@ -1914,15 +2187,18 @@
         <v>19.04</v>
       </c>
       <c r="E91" t="n">
-        <v>57.02</v>
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="n">
         <v>7.41</v>
@@ -1931,15 +2207,18 @@
         <v>17.86</v>
       </c>
       <c r="E92" t="n">
-        <v>307.29</v>
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1612.64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="n">
         <v>6.39</v>
@@ -1948,15 +2227,18 @@
         <v>12.72</v>
       </c>
       <c r="E93" t="n">
-        <v>449.4</v>
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>112.17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="n">
         <v>7.33</v>
@@ -1965,15 +2247,18 @@
         <v>16.11</v>
       </c>
       <c r="E94" t="n">
-        <v>422.29</v>
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="n">
         <v>5.69</v>
@@ -1982,15 +2267,18 @@
         <v>12.76</v>
       </c>
       <c r="E95" t="n">
-        <v>238.61</v>
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>57.71</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="n">
         <v>6.23</v>
@@ -1999,15 +2287,18 @@
         <v>16.48</v>
       </c>
       <c r="E96" t="n">
-        <v>258.78</v>
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>377.24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
         <v>6.01</v>
@@ -2016,15 +2307,18 @@
         <v>15.15</v>
       </c>
       <c r="E97" t="n">
-        <v>65.36</v>
+        <v>2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>301.03</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="n">
         <v>7.19</v>
@@ -2033,15 +2327,18 @@
         <v>14.77</v>
       </c>
       <c r="E98" t="n">
-        <v>260.09</v>
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>70.94</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
         <v>5.45</v>
@@ -2050,15 +2347,18 @@
         <v>17.27</v>
       </c>
       <c r="E99" t="n">
-        <v>105.63</v>
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>447.84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="n">
         <v>6.08</v>
@@ -2067,15 +2367,18 @@
         <v>13.98</v>
       </c>
       <c r="E100" t="n">
-        <v>49.87</v>
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>62.63</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
         <v>6.22</v>
@@ -2084,15 +2387,18 @@
         <v>14.38</v>
       </c>
       <c r="E101" t="n">
-        <v>84.47</v>
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>75.56</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
         <v>8.16</v>
@@ -2101,15 +2407,18 @@
         <v>19.76</v>
       </c>
       <c r="E102" t="n">
-        <v>51.78</v>
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>71.65</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="n">
         <v>9.3</v>
@@ -2118,15 +2427,18 @@
         <v>18.34</v>
       </c>
       <c r="E103" t="n">
-        <v>338.62</v>
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>388.19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
         <v>8.35</v>
@@ -2135,15 +2447,18 @@
         <v>21.51</v>
       </c>
       <c r="E104" t="n">
-        <v>31.09</v>
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
         <v>9.79</v>
@@ -2152,15 +2467,18 @@
         <v>18.88</v>
       </c>
       <c r="E105" t="n">
-        <v>1701.65</v>
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>122.6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="n">
         <v>8.92</v>
@@ -2169,15 +2487,18 @@
         <v>19.88</v>
       </c>
       <c r="E106" t="n">
-        <v>66.1</v>
+        <v>5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>422.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
         <v>9.63</v>
@@ -2186,15 +2507,18 @@
         <v>20.78</v>
       </c>
       <c r="E107" t="n">
-        <v>57.17</v>
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>91.32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="n">
         <v>9.87</v>
@@ -2203,15 +2527,18 @@
         <v>16.54</v>
       </c>
       <c r="E108" t="n">
-        <v>74.21</v>
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>200.11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="n">
         <v>8.98</v>
@@ -2220,15 +2547,18 @@
         <v>16.3</v>
       </c>
       <c r="E109" t="n">
-        <v>144.01</v>
+        <v>2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>288.89</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
         <v>7.19</v>
@@ -2237,15 +2567,18 @@
         <v>23.53</v>
       </c>
       <c r="E110" t="n">
-        <v>42.48</v>
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1039.28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="n">
         <v>9.69</v>
@@ -2254,15 +2587,18 @@
         <v>19.95</v>
       </c>
       <c r="E111" t="n">
-        <v>454.16</v>
+        <v>2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>709.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="n">
         <v>9.93</v>
@@ -2271,15 +2607,18 @@
         <v>19.71</v>
       </c>
       <c r="E112" t="n">
-        <v>481.55</v>
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15.75</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
         <v>8.28</v>
@@ -2288,15 +2627,18 @@
         <v>20.3</v>
       </c>
       <c r="E113" t="n">
-        <v>171.4</v>
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>91.78</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="n">
         <v>8.44</v>
@@ -2305,15 +2647,18 @@
         <v>24.13</v>
       </c>
       <c r="E114" t="n">
-        <v>41.08</v>
+        <v>5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1244.47</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="n">
         <v>9.33</v>
@@ -2322,15 +2667,18 @@
         <v>18.08</v>
       </c>
       <c r="E115" t="n">
-        <v>167.71</v>
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1065.68</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="n">
         <v>9.69</v>
@@ -2339,15 +2687,18 @@
         <v>23.49</v>
       </c>
       <c r="E116" t="n">
-        <v>287.13</v>
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23.56</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
         <v>8.79</v>
@@ -2356,15 +2707,18 @@
         <v>19.42</v>
       </c>
       <c r="E117" t="n">
-        <v>489.39</v>
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>445.96</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
         <v>8.51</v>
@@ -2373,15 +2727,18 @@
         <v>20.09</v>
       </c>
       <c r="E118" t="n">
-        <v>28.96</v>
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>263.83</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="n">
         <v>8.31</v>
@@ -2390,15 +2747,18 @@
         <v>18.03</v>
       </c>
       <c r="E119" t="n">
-        <v>28.17</v>
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>83.34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
         <v>8.54</v>
@@ -2407,15 +2767,18 @@
         <v>16.29</v>
       </c>
       <c r="E120" t="n">
-        <v>255.84</v>
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>653.56</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="n">
         <v>9.26</v>
@@ -2424,15 +2787,18 @@
         <v>20.28</v>
       </c>
       <c r="E121" t="n">
-        <v>163.01</v>
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>69.66</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
         <v>7.23</v>
@@ -2441,15 +2807,18 @@
         <v>20.34</v>
       </c>
       <c r="E122" t="n">
-        <v>757.27</v>
+        <v>4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>24.54</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="n">
         <v>9.86</v>
@@ -2458,15 +2827,18 @@
         <v>20.4</v>
       </c>
       <c r="E123" t="n">
-        <v>406.63</v>
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>245.48</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
         <v>9.89</v>
@@ -2475,15 +2847,18 @@
         <v>22</v>
       </c>
       <c r="E124" t="n">
-        <v>35.04</v>
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>464.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="n">
         <v>10.53</v>
@@ -2492,15 +2867,18 @@
         <v>22.06</v>
       </c>
       <c r="E125" t="n">
-        <v>162.7</v>
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>61.7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="n">
         <v>9.03</v>
@@ -2509,15 +2887,18 @@
         <v>21.06</v>
       </c>
       <c r="E126" t="n">
-        <v>73.38</v>
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>64.95</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
         <v>10.18</v>
@@ -2526,15 +2907,18 @@
         <v>20.9</v>
       </c>
       <c r="E127" t="n">
-        <v>318.15</v>
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>214.42</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="n">
         <v>9.13</v>
@@ -2543,15 +2927,18 @@
         <v>24.37</v>
       </c>
       <c r="E128" t="n">
-        <v>241.09</v>
+        <v>3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>435.38</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="n">
         <v>8.09</v>
@@ -2560,15 +2947,18 @@
         <v>18.99</v>
       </c>
       <c r="E129" t="n">
-        <v>125.68</v>
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>504.88</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
         <v>10.23</v>
@@ -2577,15 +2967,18 @@
         <v>20.17</v>
       </c>
       <c r="E130" t="n">
-        <v>57.69</v>
+        <v>2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>342.21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="n">
         <v>9.56</v>
@@ -2594,15 +2987,18 @@
         <v>21.4</v>
       </c>
       <c r="E131" t="n">
-        <v>32.32</v>
+        <v>3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>244.32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="n">
         <v>9.22</v>
@@ -2611,15 +3007,18 @@
         <v>18.54</v>
       </c>
       <c r="E132" t="n">
-        <v>521.9</v>
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>107.58</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
         <v>9.56</v>
@@ -2628,15 +3027,18 @@
         <v>18.94</v>
       </c>
       <c r="E133" t="n">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>107.74</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
         <v>8.93</v>
@@ -2645,15 +3047,18 @@
         <v>20.65</v>
       </c>
       <c r="E134" t="n">
-        <v>226.71</v>
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>188.37</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
         <v>6.88</v>
@@ -2662,15 +3067,18 @@
         <v>21.02</v>
       </c>
       <c r="E135" t="n">
-        <v>121.66</v>
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>251.31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="n">
         <v>9.14</v>
@@ -2679,15 +3087,18 @@
         <v>22.08</v>
       </c>
       <c r="E136" t="n">
-        <v>429.3</v>
+        <v>2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>235.61</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="n">
         <v>7.4</v>
@@ -2696,15 +3107,18 @@
         <v>17.63</v>
       </c>
       <c r="E137" t="n">
-        <v>584.6</v>
+        <v>3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>63.15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="n">
         <v>8.21</v>
@@ -2713,15 +3127,18 @@
         <v>20.46</v>
       </c>
       <c r="E138" t="n">
-        <v>127.34</v>
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>118.75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="n">
         <v>9.17</v>
@@ -2730,15 +3147,18 @@
         <v>20.07</v>
       </c>
       <c r="E139" t="n">
-        <v>68.64</v>
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>80.52</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="n">
         <v>8.95</v>
@@ -2747,15 +3167,18 @@
         <v>23.94</v>
       </c>
       <c r="E140" t="n">
-        <v>17.21</v>
+        <v>5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>104.77</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="n">
         <v>9.09</v>
@@ -2764,15 +3187,18 @@
         <v>20.89</v>
       </c>
       <c r="E141" t="n">
-        <v>40.63</v>
+        <v>4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>31.39</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
         <v>8.19</v>
@@ -2781,15 +3207,18 @@
         <v>20.07</v>
       </c>
       <c r="E142" t="n">
-        <v>138.11</v>
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>76.31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="n">
         <v>9.56</v>
@@ -2798,15 +3227,18 @@
         <v>23.68</v>
       </c>
       <c r="E143" t="n">
-        <v>335.35</v>
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>23.03</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
         <v>9.01</v>
@@ -2815,15 +3247,18 @@
         <v>21.69</v>
       </c>
       <c r="E144" t="n">
-        <v>158.29</v>
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>136.44</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
         <v>8.22</v>
@@ -2832,15 +3267,18 @@
         <v>18.02</v>
       </c>
       <c r="E145" t="n">
-        <v>609.65</v>
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>210.45</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
         <v>8.24</v>
@@ -2849,15 +3287,18 @@
         <v>21.31</v>
       </c>
       <c r="E146" t="n">
-        <v>115.65</v>
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>472.85</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="n">
         <v>9.2</v>
@@ -2866,15 +3307,18 @@
         <v>22.29</v>
       </c>
       <c r="E147" t="n">
-        <v>74.51</v>
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>49.74</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
         <v>8.44</v>
@@ -2883,15 +3327,18 @@
         <v>22.24</v>
       </c>
       <c r="E148" t="n">
-        <v>109.93</v>
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>72.59</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="n">
         <v>9.28</v>
@@ -2900,15 +3347,18 @@
         <v>17.77</v>
       </c>
       <c r="E149" t="n">
-        <v>57.78</v>
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>123.36</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="n">
         <v>8.87</v>
@@ -2917,15 +3367,18 @@
         <v>19.24</v>
       </c>
       <c r="E150" t="n">
-        <v>154.94</v>
+        <v>2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>99.55</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="n">
         <v>10.44</v>
@@ -2934,15 +3387,18 @@
         <v>20.75</v>
       </c>
       <c r="E151" t="n">
-        <v>105.87</v>
+        <v>2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>166.77</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="n">
         <v>8.01</v>
@@ -2951,15 +3407,18 @@
         <v>20.31</v>
       </c>
       <c r="E152" t="n">
-        <v>1007.04</v>
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>155.01</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
         <v>8.16</v>
@@ -2968,15 +3427,18 @@
         <v>18.73</v>
       </c>
       <c r="E153" t="n">
-        <v>72.46</v>
+        <v>3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>327.15</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="n">
         <v>8.3</v>
@@ -2985,15 +3447,18 @@
         <v>22.07</v>
       </c>
       <c r="E154" t="n">
-        <v>142.73</v>
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>81.91</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="n">
         <v>8.71</v>
@@ -3002,15 +3467,18 @@
         <v>18.54</v>
       </c>
       <c r="E155" t="n">
-        <v>80.25</v>
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>19.13</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="n">
         <v>8.02</v>
@@ -3019,15 +3487,18 @@
         <v>17.2</v>
       </c>
       <c r="E156" t="n">
-        <v>85.37</v>
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>39.37</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="n">
         <v>8.92</v>
@@ -3036,15 +3507,18 @@
         <v>22.83</v>
       </c>
       <c r="E157" t="n">
-        <v>382.57</v>
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>143.15</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="n">
         <v>8.53</v>
@@ -3053,15 +3527,18 @@
         <v>18.41</v>
       </c>
       <c r="E158" t="n">
-        <v>62.99</v>
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>329.14</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
         <v>7.61</v>
@@ -3070,15 +3547,18 @@
         <v>18.65</v>
       </c>
       <c r="E159" t="n">
-        <v>11.48</v>
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>319.11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
         <v>8.75</v>
@@ -3087,15 +3567,18 @@
         <v>18.62</v>
       </c>
       <c r="E160" t="n">
-        <v>901.36</v>
+        <v>2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>63.81</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="n">
         <v>9.75</v>
@@ -3104,15 +3587,18 @@
         <v>23.36</v>
       </c>
       <c r="E161" t="n">
-        <v>194.52</v>
+        <v>2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>65.81</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="n">
         <v>8.93</v>
@@ -3121,15 +3607,18 @@
         <v>21.17</v>
       </c>
       <c r="E162" t="n">
-        <v>92.34</v>
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46.76</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="n">
         <v>10.21</v>
@@ -3138,15 +3627,18 @@
         <v>21.5</v>
       </c>
       <c r="E163" t="n">
-        <v>1663.42</v>
+        <v>4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>261.76</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="n">
         <v>11.43</v>
@@ -3155,15 +3647,18 @@
         <v>24.39</v>
       </c>
       <c r="E164" t="n">
-        <v>181.07</v>
+        <v>3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>649.36</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="n">
         <v>8.07</v>
@@ -3172,15 +3667,18 @@
         <v>21.44</v>
       </c>
       <c r="E165" t="n">
-        <v>217.88</v>
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>265.71</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="n">
         <v>9.47</v>
@@ -3189,15 +3687,18 @@
         <v>15.85</v>
       </c>
       <c r="E166" t="n">
-        <v>520.43</v>
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>48.7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
         <v>9.86</v>
@@ -3206,15 +3707,18 @@
         <v>22.28</v>
       </c>
       <c r="E167" t="n">
-        <v>177.18</v>
+        <v>4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>227.29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="n">
         <v>9</v>
@@ -3223,15 +3727,18 @@
         <v>23.12</v>
       </c>
       <c r="E168" t="n">
-        <v>65.42</v>
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>320.63</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="n">
         <v>10</v>
@@ -3240,15 +3747,18 @@
         <v>18.3</v>
       </c>
       <c r="E169" t="n">
-        <v>115.44</v>
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>123.53</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="n">
         <v>9.01</v>
@@ -3257,15 +3767,18 @@
         <v>22.1</v>
       </c>
       <c r="E170" t="n">
-        <v>119.82</v>
+        <v>4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>138.82</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="n">
         <v>9.68</v>
@@ -3274,15 +3787,18 @@
         <v>22.43</v>
       </c>
       <c r="E171" t="n">
-        <v>122.27</v>
+        <v>3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>178.19</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="n">
         <v>10.17</v>
@@ -3291,15 +3807,18 @@
         <v>21.53</v>
       </c>
       <c r="E172" t="n">
-        <v>114.81</v>
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>350.59</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="n">
         <v>9.94</v>
@@ -3308,15 +3827,18 @@
         <v>19</v>
       </c>
       <c r="E173" t="n">
-        <v>28.63</v>
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>44.06</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="n">
         <v>9.38</v>
@@ -3325,15 +3847,18 @@
         <v>20.28</v>
       </c>
       <c r="E174" t="n">
-        <v>143.57</v>
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>485.16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="n">
         <v>9.05</v>
@@ -3342,15 +3867,18 @@
         <v>21.85</v>
       </c>
       <c r="E175" t="n">
-        <v>282.03</v>
+        <v>2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>80.75</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="n">
         <v>9.75</v>
@@ -3359,15 +3887,18 @@
         <v>22.06</v>
       </c>
       <c r="E176" t="n">
-        <v>101.55</v>
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>380.82</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="n">
         <v>8.37</v>
@@ -3376,15 +3907,18 @@
         <v>17.73</v>
       </c>
       <c r="E177" t="n">
-        <v>188.9</v>
+        <v>3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>215.39</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="n">
         <v>8.57</v>
@@ -3393,15 +3927,18 @@
         <v>18.78</v>
       </c>
       <c r="E178" t="n">
-        <v>254.11</v>
+        <v>5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>334.49</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="n">
         <v>7.04</v>
@@ -3410,15 +3947,18 @@
         <v>20.53</v>
       </c>
       <c r="E179" t="n">
-        <v>22.38</v>
+        <v>4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>619</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="n">
         <v>7.63</v>
@@ -3427,15 +3967,18 @@
         <v>22.26</v>
       </c>
       <c r="E180" t="n">
-        <v>334.12</v>
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>894.19</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="n">
         <v>9.35</v>
@@ -3444,15 +3987,18 @@
         <v>21.88</v>
       </c>
       <c r="E181" t="n">
-        <v>262.32</v>
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21.07</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="n">
         <v>9.3</v>
@@ -3461,15 +4007,18 @@
         <v>24.37</v>
       </c>
       <c r="E182" t="n">
-        <v>46.61</v>
+        <v>3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>84.95</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="n">
         <v>7.7</v>
@@ -3478,15 +4027,18 @@
         <v>22.86</v>
       </c>
       <c r="E183" t="n">
-        <v>270.27</v>
+        <v>2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>43.11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="n">
         <v>8.24</v>
@@ -3495,15 +4047,18 @@
         <v>20.65</v>
       </c>
       <c r="E184" t="n">
-        <v>394.01</v>
+        <v>4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>191.36</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="n">
         <v>8.95</v>
@@ -3512,15 +4067,18 @@
         <v>18.29</v>
       </c>
       <c r="E185" t="n">
-        <v>73.53</v>
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>394.21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="n">
         <v>8.96</v>
@@ -3529,15 +4087,18 @@
         <v>19.54</v>
       </c>
       <c r="E186" t="n">
-        <v>382.3</v>
+        <v>3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>647.51</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="n">
         <v>9.83</v>
@@ -3546,15 +4107,18 @@
         <v>23.05</v>
       </c>
       <c r="E187" t="n">
-        <v>50.53</v>
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>100.49</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="n">
         <v>10.02</v>
@@ -3563,15 +4127,18 @@
         <v>22.55</v>
       </c>
       <c r="E188" t="n">
-        <v>105.19</v>
+        <v>3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>141.78</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="n">
         <v>9.09</v>
@@ -3580,15 +4147,18 @@
         <v>21.91</v>
       </c>
       <c r="E189" t="n">
-        <v>77.08</v>
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>44.17</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="n">
         <v>11.73</v>
@@ -3597,15 +4167,18 @@
         <v>23.69</v>
       </c>
       <c r="E190" t="n">
-        <v>81.36</v>
+        <v>3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>339.19</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="n">
         <v>10.29</v>
@@ -3614,15 +4187,18 @@
         <v>20.12</v>
       </c>
       <c r="E191" t="n">
-        <v>515.13</v>
+        <v>6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>33.47</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="n">
         <v>10.11</v>
@@ -3631,15 +4207,18 @@
         <v>23.2</v>
       </c>
       <c r="E192" t="n">
-        <v>208.37</v>
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>72.42</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="n">
         <v>7.95</v>
@@ -3648,15 +4227,18 @@
         <v>20.28</v>
       </c>
       <c r="E193" t="n">
-        <v>95.8</v>
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>590.76</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="n">
         <v>8.78</v>
@@ -3665,15 +4247,18 @@
         <v>21.11</v>
       </c>
       <c r="E194" t="n">
-        <v>1040.46</v>
+        <v>3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>357.97</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="n">
         <v>7.22</v>
@@ -3682,15 +4267,18 @@
         <v>18.46</v>
       </c>
       <c r="E195" t="n">
-        <v>233.53</v>
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>31.21</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="n">
         <v>10.57</v>
@@ -3699,15 +4287,18 @@
         <v>18.58</v>
       </c>
       <c r="E196" t="n">
-        <v>197.92</v>
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>470.26</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="n">
         <v>9.71</v>
@@ -3716,15 +4307,18 @@
         <v>20.56</v>
       </c>
       <c r="E197" t="n">
-        <v>319.29</v>
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>70.96</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="n">
         <v>10.49</v>
@@ -3733,15 +4327,18 @@
         <v>17.35</v>
       </c>
       <c r="E198" t="n">
-        <v>257.92</v>
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>91.54</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="n">
         <v>10.71</v>
@@ -3750,15 +4347,18 @@
         <v>21.02</v>
       </c>
       <c r="E199" t="n">
-        <v>157.14</v>
+        <v>2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>83.58</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="n">
         <v>8.5</v>
@@ -3767,15 +4367,18 @@
         <v>20.2</v>
       </c>
       <c r="E200" t="n">
-        <v>12.46</v>
+        <v>1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>84.02</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="n">
         <v>8.09</v>
@@ -3784,15 +4387,18 @@
         <v>18.27</v>
       </c>
       <c r="E201" t="n">
-        <v>220.61</v>
+        <v>2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>27.51</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="n">
         <v>8.48</v>
@@ -3801,15 +4407,18 @@
         <v>18.29</v>
       </c>
       <c r="E202" t="n">
-        <v>393.96</v>
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>960.42</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="n">
         <v>5.84</v>
@@ -3818,15 +4427,18 @@
         <v>20.83</v>
       </c>
       <c r="E203" t="n">
-        <v>203.42</v>
+        <v>4</v>
+      </c>
+      <c r="F203" t="n">
+        <v>67.79</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="n">
         <v>6.12</v>
@@ -3835,15 +4447,18 @@
         <v>20.08</v>
       </c>
       <c r="E204" t="n">
-        <v>107.08</v>
+        <v>3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>79.2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="n">
         <v>7.02</v>
@@ -3852,15 +4467,18 @@
         <v>16.59</v>
       </c>
       <c r="E205" t="n">
-        <v>247</v>
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>77.69</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="n">
         <v>6.12</v>
@@ -3869,15 +4487,18 @@
         <v>20.72</v>
       </c>
       <c r="E206" t="n">
-        <v>144.26</v>
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>102.04</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="n">
         <v>7.7</v>
@@ -3886,15 +4507,18 @@
         <v>15.99</v>
       </c>
       <c r="E207" t="n">
-        <v>107.22</v>
+        <v>2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>70.38</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="n">
         <v>7.24</v>
@@ -3903,15 +4527,18 @@
         <v>18.78</v>
       </c>
       <c r="E208" t="n">
-        <v>272.99</v>
+        <v>6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>252.12</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="n">
         <v>5.9</v>
@@ -3920,15 +4547,18 @@
         <v>17.04</v>
       </c>
       <c r="E209" t="n">
-        <v>484.84</v>
+        <v>2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>114.35</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="n">
         <v>8.16</v>
@@ -3937,15 +4567,18 @@
         <v>18.86</v>
       </c>
       <c r="E210" t="n">
-        <v>75.12</v>
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>30.22</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="n">
         <v>5.37</v>
@@ -3954,15 +4587,18 @@
         <v>17.58</v>
       </c>
       <c r="E211" t="n">
-        <v>540.87</v>
+        <v>3</v>
+      </c>
+      <c r="F211" t="n">
+        <v>70.86</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="n">
         <v>7.24</v>
@@ -3971,15 +4607,18 @@
         <v>18.46</v>
       </c>
       <c r="E212" t="n">
-        <v>1385.26</v>
+        <v>1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>60.02</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="n">
         <v>6.35</v>
@@ -3988,15 +4627,18 @@
         <v>15.12</v>
       </c>
       <c r="E213" t="n">
-        <v>44.52</v>
+        <v>3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>225.66</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="n">
         <v>6.52</v>
@@ -4005,15 +4647,18 @@
         <v>20.09</v>
       </c>
       <c r="E214" t="n">
-        <v>91.93</v>
+        <v>1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>91.15</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="n">
         <v>8.29</v>
@@ -4022,15 +4667,18 @@
         <v>17.02</v>
       </c>
       <c r="E215" t="n">
-        <v>40.97</v>
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>62.24</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="n">
         <v>5.49</v>
@@ -4039,15 +4687,18 @@
         <v>14.02</v>
       </c>
       <c r="E216" t="n">
-        <v>44.02</v>
+        <v>2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>157.08</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="n">
         <v>6.5</v>
@@ -4056,15 +4707,18 @@
         <v>15.72</v>
       </c>
       <c r="E217" t="n">
-        <v>335.65</v>
+        <v>6</v>
+      </c>
+      <c r="F217" t="n">
+        <v>379.32</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="n">
         <v>8.23</v>
@@ -4073,15 +4727,18 @@
         <v>16.61</v>
       </c>
       <c r="E218" t="n">
-        <v>312.58</v>
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>165.93</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="n">
         <v>7.07</v>
@@ -4090,15 +4747,18 @@
         <v>18.64</v>
       </c>
       <c r="E219" t="n">
-        <v>673.92</v>
+        <v>4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>73.88</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="n">
         <v>7.18</v>
@@ -4107,15 +4767,18 @@
         <v>17.55</v>
       </c>
       <c r="E220" t="n">
-        <v>212.26</v>
+        <v>4</v>
+      </c>
+      <c r="F220" t="n">
+        <v>969.19</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="n">
         <v>5.99</v>
@@ -4124,15 +4787,18 @@
         <v>18.17</v>
       </c>
       <c r="E221" t="n">
-        <v>131.55</v>
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>650.21</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="n">
         <v>7.34</v>
@@ -4141,15 +4807,18 @@
         <v>17.14</v>
       </c>
       <c r="E222" t="n">
-        <v>304.79</v>
+        <v>4</v>
+      </c>
+      <c r="F222" t="n">
+        <v>203.09</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="n">
         <v>6.02</v>
@@ -4158,15 +4827,18 @@
         <v>18.45</v>
       </c>
       <c r="E223" t="n">
-        <v>570.93</v>
+        <v>3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>187.59</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224" t="n">
         <v>7.11</v>
@@ -4175,15 +4847,18 @@
         <v>19.5</v>
       </c>
       <c r="E224" t="n">
-        <v>220.35</v>
+        <v>2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>213.1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="n">
         <v>6.36</v>
@@ -4192,15 +4867,18 @@
         <v>21.02</v>
       </c>
       <c r="E225" t="n">
-        <v>83.46</v>
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>255.79</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" t="n">
         <v>5.08</v>
@@ -4209,15 +4887,18 @@
         <v>21.76</v>
       </c>
       <c r="E226" t="n">
-        <v>33.97</v>
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>37.74</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="n">
         <v>8.47</v>
@@ -4226,15 +4907,18 @@
         <v>18.48</v>
       </c>
       <c r="E227" t="n">
-        <v>58.4</v>
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>662.42</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="n">
         <v>6.62</v>
@@ -4243,15 +4927,18 @@
         <v>13.92</v>
       </c>
       <c r="E228" t="n">
-        <v>110.73</v>
+        <v>2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>114.46</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="n">
         <v>6.36</v>
@@ -4260,15 +4947,18 @@
         <v>19.91</v>
       </c>
       <c r="E229" t="n">
-        <v>637.49</v>
+        <v>3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>253.63</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="n">
         <v>7.2</v>
@@ -4277,15 +4967,18 @@
         <v>18.2</v>
       </c>
       <c r="E230" t="n">
-        <v>361.89</v>
+        <v>3</v>
+      </c>
+      <c r="F230" t="n">
+        <v>159.59</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="n">
         <v>6.16</v>
@@ -4294,15 +4987,18 @@
         <v>18.42</v>
       </c>
       <c r="E231" t="n">
-        <v>196.53</v>
+        <v>2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>62.97</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="n">
         <v>7.15</v>
@@ -4311,15 +5007,18 @@
         <v>20.04</v>
       </c>
       <c r="E232" t="n">
-        <v>70.54</v>
+        <v>4</v>
+      </c>
+      <c r="F232" t="n">
+        <v>28.07</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="n">
         <v>7.63</v>
@@ -4328,15 +5027,18 @@
         <v>18.89</v>
       </c>
       <c r="E233" t="n">
-        <v>291.07</v>
+        <v>2</v>
+      </c>
+      <c r="F233" t="n">
+        <v>40.23</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="n">
         <v>7.13</v>
@@ -4345,15 +5047,18 @@
         <v>18.73</v>
       </c>
       <c r="E234" t="n">
-        <v>10.89</v>
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1174.44</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="n">
         <v>7.11</v>
@@ -4362,15 +5067,18 @@
         <v>17.16</v>
       </c>
       <c r="E235" t="n">
-        <v>141.88</v>
+        <v>2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>446.26</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="n">
         <v>7.79</v>
@@ -4379,15 +5087,18 @@
         <v>18.43</v>
       </c>
       <c r="E236" t="n">
-        <v>838.71</v>
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>195.99</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="n">
         <v>7.09</v>
@@ -4396,15 +5107,18 @@
         <v>20.75</v>
       </c>
       <c r="E237" t="n">
-        <v>199.77</v>
+        <v>3</v>
+      </c>
+      <c r="F237" t="n">
+        <v>91.41</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="n">
         <v>5.88</v>
@@ -4413,15 +5127,18 @@
         <v>19.88</v>
       </c>
       <c r="E238" t="n">
-        <v>238.95</v>
+        <v>3</v>
+      </c>
+      <c r="F238" t="n">
+        <v>342.77</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="n">
         <v>7.3</v>
@@ -4430,15 +5147,18 @@
         <v>17.19</v>
       </c>
       <c r="E239" t="n">
-        <v>163.24</v>
+        <v>1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>223.88</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="n">
         <v>8.12</v>
@@ -4447,15 +5167,18 @@
         <v>16.71</v>
       </c>
       <c r="E240" t="n">
-        <v>80.64</v>
+        <v>2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>55.24</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="n">
         <v>8.77</v>
@@ -4464,15 +5187,18 @@
         <v>18.79</v>
       </c>
       <c r="E241" t="n">
-        <v>128.56</v>
+        <v>2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>82.88</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="n">
         <v>6.68</v>
@@ -4481,15 +5207,18 @@
         <v>17.54</v>
       </c>
       <c r="E242" t="n">
-        <v>258.76</v>
+        <v>5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>227.94</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="n">
         <v>6.63</v>
@@ -4498,15 +5227,18 @@
         <v>17.48</v>
       </c>
       <c r="E243" t="n">
-        <v>97.24</v>
+        <v>1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>140.48</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="n">
         <v>6.81</v>
@@ -4515,15 +5247,18 @@
         <v>19.42</v>
       </c>
       <c r="E244" t="n">
-        <v>45.51</v>
+        <v>3</v>
+      </c>
+      <c r="F244" t="n">
+        <v>92.46</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="n">
         <v>7.67</v>
@@ -4532,15 +5267,18 @@
         <v>14.28</v>
       </c>
       <c r="E245" t="n">
-        <v>588.8</v>
+        <v>5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="n">
         <v>6.57</v>
@@ -4549,15 +5287,18 @@
         <v>16.45</v>
       </c>
       <c r="E246" t="n">
-        <v>136.5</v>
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="n">
         <v>5.36</v>
@@ -4566,15 +5307,18 @@
         <v>18.61</v>
       </c>
       <c r="E247" t="n">
-        <v>253.71</v>
+        <v>2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>24.87</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="n">
         <v>7.96</v>
@@ -4583,15 +5327,18 @@
         <v>17.85</v>
       </c>
       <c r="E248" t="n">
-        <v>345.4</v>
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>471.35</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C249" t="n">
         <v>5.75</v>
@@ -4600,15 +5347,18 @@
         <v>18.28</v>
       </c>
       <c r="E249" t="n">
-        <v>23.56</v>
+        <v>2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>25.46</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="n">
         <v>6.14</v>
@@ -4617,15 +5367,18 @@
         <v>16.49</v>
       </c>
       <c r="E250" t="n">
-        <v>158.09</v>
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>537.43</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="n">
         <v>7.79</v>
@@ -4634,15 +5387,18 @@
         <v>17.67</v>
       </c>
       <c r="E251" t="n">
-        <v>137.13</v>
+        <v>2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>319.91</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="n">
         <v>6.95</v>
@@ -4651,15 +5407,18 @@
         <v>18.63</v>
       </c>
       <c r="E252" t="n">
-        <v>180.89</v>
+        <v>3</v>
+      </c>
+      <c r="F252" t="n">
+        <v>293.59</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="n">
         <v>6.28</v>
@@ -4668,15 +5427,18 @@
         <v>21.59</v>
       </c>
       <c r="E253" t="n">
-        <v>129.24</v>
+        <v>4</v>
+      </c>
+      <c r="F253" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="n">
         <v>4.43</v>
@@ -4685,15 +5447,18 @@
         <v>19.81</v>
       </c>
       <c r="E254" t="n">
-        <v>72.77</v>
+        <v>3</v>
+      </c>
+      <c r="F254" t="n">
+        <v>38.74</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="n">
         <v>7.02</v>
@@ -4702,15 +5467,18 @@
         <v>16.69</v>
       </c>
       <c r="E255" t="n">
-        <v>141.06</v>
+        <v>4</v>
+      </c>
+      <c r="F255" t="n">
+        <v>53.88</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="n">
         <v>5.74</v>
@@ -4719,15 +5487,18 @@
         <v>17.9</v>
       </c>
       <c r="E256" t="n">
-        <v>60.28</v>
+        <v>2</v>
+      </c>
+      <c r="F256" t="n">
+        <v>360.03</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="n">
         <v>8.83</v>
@@ -4736,15 +5507,18 @@
         <v>17.21</v>
       </c>
       <c r="E257" t="n">
-        <v>68.52</v>
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>98.42</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C258" t="n">
         <v>5.57</v>
@@ -4753,15 +5527,18 @@
         <v>15.08</v>
       </c>
       <c r="E258" t="n">
-        <v>216.68</v>
+        <v>1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>85.98</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C259" t="n">
         <v>7.1</v>
@@ -4770,15 +5547,18 @@
         <v>15.4</v>
       </c>
       <c r="E259" t="n">
-        <v>443.51</v>
+        <v>2</v>
+      </c>
+      <c r="F259" t="n">
+        <v>295.49</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C260" t="n">
         <v>7.88</v>
@@ -4787,15 +5567,18 @@
         <v>20.09</v>
       </c>
       <c r="E260" t="n">
-        <v>223.1</v>
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>49.57</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C261" t="n">
         <v>6.44</v>
@@ -4804,15 +5587,18 @@
         <v>19.36</v>
       </c>
       <c r="E261" t="n">
-        <v>353.12</v>
+        <v>2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>105.57</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C262" t="n">
         <v>6.75</v>
@@ -4821,15 +5607,18 @@
         <v>17.92</v>
       </c>
       <c r="E262" t="n">
-        <v>1264.56</v>
+        <v>4</v>
+      </c>
+      <c r="F262" t="n">
+        <v>91.74</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C263" t="n">
         <v>8.79</v>
@@ -4838,15 +5627,18 @@
         <v>17.62</v>
       </c>
       <c r="E263" t="n">
-        <v>145.51</v>
+        <v>3</v>
+      </c>
+      <c r="F263" t="n">
+        <v>113.22</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C264" t="n">
         <v>5.73</v>
@@ -4855,15 +5647,18 @@
         <v>20.24</v>
       </c>
       <c r="E264" t="n">
-        <v>165.64</v>
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>105.94</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C265" t="n">
         <v>6.33</v>
@@ -4872,15 +5667,18 @@
         <v>16.42</v>
       </c>
       <c r="E265" t="n">
-        <v>431.13</v>
+        <v>4</v>
+      </c>
+      <c r="F265" t="n">
+        <v>122.48</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C266" t="n">
         <v>8.31</v>
@@ -4889,15 +5687,18 @@
         <v>20.53</v>
       </c>
       <c r="E266" t="n">
-        <v>336.19</v>
+        <v>2</v>
+      </c>
+      <c r="F266" t="n">
+        <v>126.25</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C267" t="n">
         <v>5.77</v>
@@ -4906,15 +5707,18 @@
         <v>14.87</v>
       </c>
       <c r="E267" t="n">
-        <v>243.89</v>
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>76.52</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C268" t="n">
         <v>5.54</v>
@@ -4923,15 +5727,18 @@
         <v>21.44</v>
       </c>
       <c r="E268" t="n">
-        <v>238.98</v>
+        <v>2</v>
+      </c>
+      <c r="F268" t="n">
+        <v>116.67</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C269" t="n">
         <v>6.34</v>
@@ -4940,15 +5747,18 @@
         <v>20.14</v>
       </c>
       <c r="E269" t="n">
-        <v>354.55</v>
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>162.5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C270" t="n">
         <v>6.72</v>
@@ -4957,15 +5767,18 @@
         <v>14.33</v>
       </c>
       <c r="E270" t="n">
-        <v>411.19</v>
+        <v>3</v>
+      </c>
+      <c r="F270" t="n">
+        <v>165.57</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C271" t="n">
         <v>7.39</v>
@@ -4974,15 +5787,18 @@
         <v>15.91</v>
       </c>
       <c r="E271" t="n">
-        <v>93.91</v>
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>61.42</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C272" t="n">
         <v>7.37</v>
@@ -4991,15 +5807,18 @@
         <v>19.58</v>
       </c>
       <c r="E272" t="n">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="F272" t="n">
+        <v>155.37</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C273" t="n">
         <v>6.58</v>
@@ -5008,15 +5827,18 @@
         <v>19.62</v>
       </c>
       <c r="E273" t="n">
-        <v>83.96</v>
+        <v>2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>195.15</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C274" t="n">
         <v>7.97</v>
@@ -5025,15 +5847,18 @@
         <v>18.11</v>
       </c>
       <c r="E274" t="n">
-        <v>237.85</v>
+        <v>2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>381.14</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C275" t="n">
         <v>7.24</v>
@@ -5042,15 +5867,18 @@
         <v>20.39</v>
       </c>
       <c r="E275" t="n">
-        <v>107.24</v>
+        <v>1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>811.8</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C276" t="n">
         <v>6.22</v>
@@ -5059,15 +5887,18 @@
         <v>19.47</v>
       </c>
       <c r="E276" t="n">
-        <v>21.69</v>
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>85.34</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C277" t="n">
         <v>7.93</v>
@@ -5076,15 +5907,18 @@
         <v>16</v>
       </c>
       <c r="E277" t="n">
-        <v>45.15</v>
+        <v>3</v>
+      </c>
+      <c r="F277" t="n">
+        <v>120.87</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C278" t="n">
         <v>6.75</v>
@@ -5093,15 +5927,18 @@
         <v>17.92</v>
       </c>
       <c r="E278" t="n">
-        <v>78.16</v>
+        <v>0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>351.41</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C279" t="n">
         <v>7.6</v>
@@ -5110,15 +5947,18 @@
         <v>17.57</v>
       </c>
       <c r="E279" t="n">
-        <v>1688.89</v>
+        <v>3</v>
+      </c>
+      <c r="F279" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C280" t="n">
         <v>5.89</v>
@@ -5127,15 +5967,18 @@
         <v>15.52</v>
       </c>
       <c r="E280" t="n">
-        <v>79.45</v>
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1580.52</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C281" t="n">
         <v>7.14</v>
@@ -5144,15 +5987,18 @@
         <v>20.12</v>
       </c>
       <c r="E281" t="n">
-        <v>114.61</v>
+        <v>3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>58.71</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C282" t="n">
         <v>9.15</v>
@@ -5161,15 +6007,18 @@
         <v>16.11</v>
       </c>
       <c r="E282" t="n">
-        <v>222.47</v>
+        <v>2</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1041.15</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C283" t="n">
         <v>8.35</v>
@@ -5178,15 +6027,18 @@
         <v>16.1</v>
       </c>
       <c r="E283" t="n">
-        <v>224.4</v>
+        <v>0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>13.75</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C284" t="n">
         <v>6.45</v>
@@ -5195,15 +6047,18 @@
         <v>18.65</v>
       </c>
       <c r="E284" t="n">
-        <v>377.22</v>
+        <v>3</v>
+      </c>
+      <c r="F284" t="n">
+        <v>349.77</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C285" t="n">
         <v>7.44</v>
@@ -5212,15 +6067,18 @@
         <v>16.94</v>
       </c>
       <c r="E285" t="n">
-        <v>34.22</v>
+        <v>0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>277.43</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C286" t="n">
         <v>6.13</v>
@@ -5229,15 +6087,18 @@
         <v>15.79</v>
       </c>
       <c r="E286" t="n">
-        <v>464.15</v>
+        <v>2</v>
+      </c>
+      <c r="F286" t="n">
+        <v>60.03</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C287" t="n">
         <v>7.09</v>
@@ -5246,15 +6107,18 @@
         <v>17.55</v>
       </c>
       <c r="E287" t="n">
-        <v>236.96</v>
+        <v>2</v>
+      </c>
+      <c r="F287" t="n">
+        <v>96.62</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C288" t="n">
         <v>7.4</v>
@@ -5263,15 +6127,18 @@
         <v>17.47</v>
       </c>
       <c r="E288" t="n">
-        <v>290.17</v>
+        <v>4</v>
+      </c>
+      <c r="F288" t="n">
+        <v>209.43</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C289" t="n">
         <v>7.82</v>
@@ -5280,15 +6147,18 @@
         <v>14.18</v>
       </c>
       <c r="E289" t="n">
-        <v>59.76</v>
+        <v>4</v>
+      </c>
+      <c r="F289" t="n">
+        <v>164.7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C290" t="n">
         <v>6.22</v>
@@ -5297,15 +6167,18 @@
         <v>15.66</v>
       </c>
       <c r="E290" t="n">
-        <v>85.6</v>
+        <v>1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>67.98</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C291" t="n">
         <v>6.91</v>
@@ -5314,15 +6187,18 @@
         <v>17.64</v>
       </c>
       <c r="E291" t="n">
-        <v>23.5</v>
+        <v>1</v>
+      </c>
+      <c r="F291" t="n">
+        <v>167.23</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C292" t="n">
         <v>8.03</v>
@@ -5331,15 +6207,18 @@
         <v>15.53</v>
       </c>
       <c r="E292" t="n">
-        <v>1612.64</v>
+        <v>1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>192.66</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C293" t="n">
         <v>6.84</v>
@@ -5348,15 +6227,18 @@
         <v>16.06</v>
       </c>
       <c r="E293" t="n">
-        <v>112.17</v>
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>75.21</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C294" t="n">
         <v>6.68</v>
@@ -5365,15 +6247,18 @@
         <v>16.67</v>
       </c>
       <c r="E294" t="n">
-        <v>221</v>
+        <v>1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>321.22</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C295" t="n">
         <v>6.36</v>
@@ -5382,15 +6267,18 @@
         <v>19.14</v>
       </c>
       <c r="E295" t="n">
-        <v>57.71</v>
+        <v>1</v>
+      </c>
+      <c r="F295" t="n">
+        <v>509.32</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C296" t="n">
         <v>6.18</v>
@@ -5399,15 +6287,18 @@
         <v>17.09</v>
       </c>
       <c r="E296" t="n">
-        <v>377.24</v>
+        <v>1</v>
+      </c>
+      <c r="F296" t="n">
+        <v>20.04</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C297" t="n">
         <v>4.2</v>
@@ -5416,15 +6307,18 @@
         <v>15.87</v>
       </c>
       <c r="E297" t="n">
-        <v>301.03</v>
+        <v>3</v>
+      </c>
+      <c r="F297" t="n">
+        <v>424.01</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C298" t="n">
         <v>7.38</v>
@@ -5433,15 +6327,18 @@
         <v>19.99</v>
       </c>
       <c r="E298" t="n">
-        <v>70.94</v>
+        <v>2</v>
+      </c>
+      <c r="F298" t="n">
+        <v>40.85</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C299" t="n">
         <v>6.11</v>
@@ -5450,15 +6347,18 @@
         <v>17.71</v>
       </c>
       <c r="E299" t="n">
-        <v>447.84</v>
+        <v>2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>68.49</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C300" t="n">
         <v>6.99</v>
@@ -5467,15 +6367,18 @@
         <v>18.06</v>
       </c>
       <c r="E300" t="n">
-        <v>62.63</v>
+        <v>1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>122.49</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C301" t="n">
         <v>7.43</v>
@@ -5484,15 +6387,18 @@
         <v>16.3</v>
       </c>
       <c r="E301" t="n">
-        <v>75.56</v>
+        <v>2</v>
+      </c>
+      <c r="F301" t="n">
+        <v>110.8</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C302" t="n">
         <v>9.38</v>
@@ -5501,15 +6407,18 @@
         <v>21.54</v>
       </c>
       <c r="E302" t="n">
-        <v>71.65</v>
+        <v>5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>186.14</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C303" t="n">
         <v>10.93</v>
@@ -5518,15 +6427,18 @@
         <v>25.42</v>
       </c>
       <c r="E303" t="n">
-        <v>388.19</v>
+        <v>4</v>
+      </c>
+      <c r="F303" t="n">
+        <v>473.28</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C304" t="n">
         <v>10.73</v>
@@ -5535,15 +6447,18 @@
         <v>25.71</v>
       </c>
       <c r="E304" t="n">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="F304" t="n">
+        <v>49.01</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C305" t="n">
         <v>8.87</v>
@@ -5552,15 +6467,18 @@
         <v>20.21</v>
       </c>
       <c r="E305" t="n">
-        <v>122.6</v>
+        <v>2</v>
+      </c>
+      <c r="F305" t="n">
+        <v>154.43</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C306" t="n">
         <v>7.13</v>
@@ -5569,15 +6487,18 @@
         <v>24.72</v>
       </c>
       <c r="E306" t="n">
-        <v>422.8</v>
+        <v>2</v>
+      </c>
+      <c r="F306" t="n">
+        <v>103.83</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C307" t="n">
         <v>8.24</v>
@@ -5586,15 +6507,18 @@
         <v>20.66</v>
       </c>
       <c r="E307" t="n">
-        <v>91.32</v>
+        <v>3</v>
+      </c>
+      <c r="F307" t="n">
+        <v>239.21</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C308" t="n">
         <v>9.89</v>
@@ -5603,15 +6527,18 @@
         <v>23.37</v>
       </c>
       <c r="E308" t="n">
-        <v>200.11</v>
+        <v>1</v>
+      </c>
+      <c r="F308" t="n">
+        <v>285.89</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C309" t="n">
         <v>9.97</v>
@@ -5620,15 +6547,18 @@
         <v>21.79</v>
       </c>
       <c r="E309" t="n">
-        <v>288.89</v>
+        <v>1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>80.38</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C310" t="n">
         <v>8.54</v>
@@ -5637,15 +6567,18 @@
         <v>22.92</v>
       </c>
       <c r="E310" t="n">
-        <v>1039.28</v>
+        <v>1</v>
+      </c>
+      <c r="F310" t="n">
+        <v>46.53</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C311" t="n">
         <v>8.95</v>
@@ -5654,15 +6587,18 @@
         <v>22.04</v>
       </c>
       <c r="E311" t="n">
-        <v>709.2</v>
+        <v>2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>56.34</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C312" t="n">
         <v>10.09</v>
@@ -5671,15 +6607,18 @@
         <v>24.65</v>
       </c>
       <c r="E312" t="n">
-        <v>15.75</v>
+        <v>3</v>
+      </c>
+      <c r="F312" t="n">
+        <v>28.76</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C313" t="n">
         <v>8.25</v>
@@ -5688,15 +6627,18 @@
         <v>24.91</v>
       </c>
       <c r="E313" t="n">
-        <v>91.78</v>
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>127.8</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C314" t="n">
         <v>7.89</v>
@@ -5705,15 +6647,18 @@
         <v>25.3</v>
       </c>
       <c r="E314" t="n">
-        <v>1244.47</v>
+        <v>1</v>
+      </c>
+      <c r="F314" t="n">
+        <v>133.39</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C315" t="n">
         <v>9.53</v>
@@ -5722,15 +6667,18 @@
         <v>21.95</v>
       </c>
       <c r="E315" t="n">
-        <v>1065.68</v>
+        <v>1</v>
+      </c>
+      <c r="F315" t="n">
+        <v>80.74</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C316" t="n">
         <v>8.67</v>
@@ -5739,15 +6687,18 @@
         <v>25.38</v>
       </c>
       <c r="E316" t="n">
-        <v>23.56</v>
+        <v>0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>132.88</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C317" t="n">
         <v>8.21</v>
@@ -5756,15 +6707,18 @@
         <v>21.93</v>
       </c>
       <c r="E317" t="n">
-        <v>445.96</v>
+        <v>3</v>
+      </c>
+      <c r="F317" t="n">
+        <v>231.01</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C318" t="n">
         <v>9.43</v>
@@ -5773,15 +6727,18 @@
         <v>23.39</v>
       </c>
       <c r="E318" t="n">
-        <v>263.83</v>
+        <v>5</v>
+      </c>
+      <c r="F318" t="n">
+        <v>29.87</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C319" t="n">
         <v>7.31</v>
@@ -5790,15 +6747,18 @@
         <v>22.74</v>
       </c>
       <c r="E319" t="n">
-        <v>83.34</v>
+        <v>3</v>
+      </c>
+      <c r="F319" t="n">
+        <v>60.31</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C320" t="n">
         <v>8.91</v>
@@ -5807,15 +6767,18 @@
         <v>23.41</v>
       </c>
       <c r="E320" t="n">
-        <v>653.56</v>
+        <v>2</v>
+      </c>
+      <c r="F320" t="n">
+        <v>121.88</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C321" t="n">
         <v>10.9</v>
@@ -5824,15 +6787,18 @@
         <v>19.92</v>
       </c>
       <c r="E321" t="n">
-        <v>69.66</v>
+        <v>2</v>
+      </c>
+      <c r="F321" t="n">
+        <v>287.02</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C322" t="n">
         <v>9.98</v>
@@ -5841,15 +6807,18 @@
         <v>21.05</v>
       </c>
       <c r="E322" t="n">
-        <v>24.54</v>
+        <v>1</v>
+      </c>
+      <c r="F322" t="n">
+        <v>49.69</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C323" t="n">
         <v>8.59</v>
@@ -5858,15 +6827,18 @@
         <v>21.92</v>
       </c>
       <c r="E323" t="n">
-        <v>245.48</v>
+        <v>3</v>
+      </c>
+      <c r="F323" t="n">
+        <v>181.18</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C324" t="n">
         <v>9.67</v>
@@ -5875,15 +6847,18 @@
         <v>23.55</v>
       </c>
       <c r="E324" t="n">
-        <v>464.3</v>
+        <v>6</v>
+      </c>
+      <c r="F324" t="n">
+        <v>224.64</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C325" t="n">
         <v>9.3</v>
@@ -5892,15 +6867,18 @@
         <v>22.72</v>
       </c>
       <c r="E325" t="n">
-        <v>61.7</v>
+        <v>1</v>
+      </c>
+      <c r="F325" t="n">
+        <v>430.29</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C326" t="n">
         <v>8.45</v>
@@ -5909,15 +6887,18 @@
         <v>24.07</v>
       </c>
       <c r="E326" t="n">
-        <v>64.95</v>
+        <v>2</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1737.68</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C327" t="n">
         <v>8.27</v>
@@ -5926,15 +6907,18 @@
         <v>19.02</v>
       </c>
       <c r="E327" t="n">
-        <v>214.42</v>
+        <v>0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>259.73</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C328" t="n">
         <v>9.59</v>
@@ -5943,15 +6927,18 @@
         <v>21.1</v>
       </c>
       <c r="E328" t="n">
-        <v>435.38</v>
+        <v>2</v>
+      </c>
+      <c r="F328" t="n">
+        <v>222.97</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C329" t="n">
         <v>9.1</v>
@@ -5960,15 +6947,18 @@
         <v>22.38</v>
       </c>
       <c r="E329" t="n">
-        <v>504.88</v>
+        <v>1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>21.47</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C330" t="n">
         <v>8.45</v>
@@ -5977,15 +6967,18 @@
         <v>23.32</v>
       </c>
       <c r="E330" t="n">
-        <v>342.21</v>
+        <v>4</v>
+      </c>
+      <c r="F330" t="n">
+        <v>56.31</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C331" t="n">
         <v>8.65</v>
@@ -5994,15 +6987,18 @@
         <v>24.51</v>
       </c>
       <c r="E331" t="n">
-        <v>244.32</v>
+        <v>1</v>
+      </c>
+      <c r="F331" t="n">
+        <v>171.71</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C332" t="n">
         <v>8.83</v>
@@ -6011,15 +7007,18 @@
         <v>25.98</v>
       </c>
       <c r="E332" t="n">
-        <v>107.58</v>
+        <v>2</v>
+      </c>
+      <c r="F332" t="n">
+        <v>406.2</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C333" t="n">
         <v>8.27</v>
@@ -6028,15 +7027,18 @@
         <v>21.04</v>
       </c>
       <c r="E333" t="n">
-        <v>107.74</v>
+        <v>2</v>
+      </c>
+      <c r="F333" t="n">
+        <v>492.26</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C334" t="n">
         <v>8.1</v>
@@ -6045,15 +7047,18 @@
         <v>21.85</v>
       </c>
       <c r="E334" t="n">
-        <v>188.37</v>
+        <v>1</v>
+      </c>
+      <c r="F334" t="n">
+        <v>214.44</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C335" t="n">
         <v>8.51</v>
@@ -6062,15 +7067,18 @@
         <v>20.15</v>
       </c>
       <c r="E335" t="n">
-        <v>251.31</v>
+        <v>2</v>
+      </c>
+      <c r="F335" t="n">
+        <v>63.92</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C336" t="n">
         <v>11.2</v>
@@ -6079,15 +7087,18 @@
         <v>23.07</v>
       </c>
       <c r="E336" t="n">
-        <v>235.61</v>
+        <v>1</v>
+      </c>
+      <c r="F336" t="n">
+        <v>125.43</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C337" t="n">
         <v>9.09</v>
@@ -6096,15 +7107,18 @@
         <v>22.43</v>
       </c>
       <c r="E337" t="n">
-        <v>63.15</v>
+        <v>2</v>
+      </c>
+      <c r="F337" t="n">
+        <v>735.05</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C338" t="n">
         <v>8.91</v>
@@ -6113,15 +7127,18 @@
         <v>24.77</v>
       </c>
       <c r="E338" t="n">
-        <v>118.75</v>
+        <v>2</v>
+      </c>
+      <c r="F338" t="n">
+        <v>537.73</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C339" t="n">
         <v>10</v>
@@ -6130,15 +7147,18 @@
         <v>24.74</v>
       </c>
       <c r="E339" t="n">
-        <v>80.52</v>
+        <v>4</v>
+      </c>
+      <c r="F339" t="n">
+        <v>812.65</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C340" t="n">
         <v>9.86</v>
@@ -6147,15 +7167,18 @@
         <v>25.01</v>
       </c>
       <c r="E340" t="n">
-        <v>104.77</v>
+        <v>2</v>
+      </c>
+      <c r="F340" t="n">
+        <v>67.33</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C341" t="n">
         <v>8.83</v>
@@ -6164,15 +7187,18 @@
         <v>21.1</v>
       </c>
       <c r="E341" t="n">
-        <v>31.39</v>
+        <v>1</v>
+      </c>
+      <c r="F341" t="n">
+        <v>115.07</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C342" t="n">
         <v>7.76</v>
@@ -6181,15 +7207,18 @@
         <v>21.72</v>
       </c>
       <c r="E342" t="n">
-        <v>76.31</v>
+        <v>1</v>
+      </c>
+      <c r="F342" t="n">
+        <v>128.39</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C343" t="n">
         <v>9.25</v>
@@ -6198,15 +7227,18 @@
         <v>21.46</v>
       </c>
       <c r="E343" t="n">
-        <v>23.03</v>
+        <v>0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>187.88</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C344" t="n">
         <v>8.42</v>
@@ -6215,15 +7247,18 @@
         <v>23.92</v>
       </c>
       <c r="E344" t="n">
-        <v>136.44</v>
+        <v>0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>159.64</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C345" t="n">
         <v>7.59</v>
@@ -6232,15 +7267,18 @@
         <v>22.45</v>
       </c>
       <c r="E345" t="n">
-        <v>210.45</v>
+        <v>0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>201.31</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C346" t="n">
         <v>8.37</v>
@@ -6249,15 +7287,18 @@
         <v>27.92</v>
       </c>
       <c r="E346" t="n">
-        <v>472.85</v>
+        <v>2</v>
+      </c>
+      <c r="F346" t="n">
+        <v>162.93</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C347" t="n">
         <v>10.05</v>
@@ -6266,15 +7307,18 @@
         <v>23.18</v>
       </c>
       <c r="E347" t="n">
-        <v>49.74</v>
+        <v>2</v>
+      </c>
+      <c r="F347" t="n">
+        <v>78.71</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C348" t="n">
         <v>7.66</v>
@@ -6283,15 +7327,18 @@
         <v>23.96</v>
       </c>
       <c r="E348" t="n">
-        <v>72.59</v>
+        <v>3</v>
+      </c>
+      <c r="F348" t="n">
+        <v>121.35</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C349" t="n">
         <v>8.5</v>
@@ -6300,15 +7347,18 @@
         <v>22.14</v>
       </c>
       <c r="E349" t="n">
-        <v>123.36</v>
+        <v>3</v>
+      </c>
+      <c r="F349" t="n">
+        <v>158.47</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B350" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C350" t="n">
         <v>8.17</v>
@@ -6317,15 +7367,18 @@
         <v>23.94</v>
       </c>
       <c r="E350" t="n">
-        <v>99.55</v>
+        <v>1</v>
+      </c>
+      <c r="F350" t="n">
+        <v>199.63</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C351" t="n">
         <v>6.96</v>
@@ -6334,15 +7387,18 @@
         <v>25</v>
       </c>
       <c r="E351" t="n">
-        <v>166.77</v>
+        <v>4</v>
+      </c>
+      <c r="F351" t="n">
+        <v>83.58</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C352" t="n">
         <v>10.76</v>
@@ -6351,15 +7407,18 @@
         <v>24.45</v>
       </c>
       <c r="E352" t="n">
-        <v>155.01</v>
+        <v>2</v>
+      </c>
+      <c r="F352" t="n">
+        <v>33.08</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B353" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C353" t="n">
         <v>8.96</v>
@@ -6368,15 +7427,18 @@
         <v>20.99</v>
       </c>
       <c r="E353" t="n">
-        <v>327.15</v>
+        <v>2</v>
+      </c>
+      <c r="F353" t="n">
+        <v>88.49</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C354" t="n">
         <v>8.75</v>
@@ -6385,15 +7447,18 @@
         <v>25.41</v>
       </c>
       <c r="E354" t="n">
-        <v>81.91</v>
+        <v>3</v>
+      </c>
+      <c r="F354" t="n">
+        <v>70.94</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C355" t="n">
         <v>6.15</v>
@@ -6402,15 +7467,18 @@
         <v>26.68</v>
       </c>
       <c r="E355" t="n">
-        <v>19.13</v>
+        <v>2</v>
+      </c>
+      <c r="F355" t="n">
+        <v>103.87</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C356" t="n">
         <v>10.63</v>
@@ -6419,15 +7487,18 @@
         <v>24.68</v>
       </c>
       <c r="E356" t="n">
-        <v>39.37</v>
+        <v>0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C357" t="n">
         <v>7.62</v>
@@ -6436,15 +7507,18 @@
         <v>23.46</v>
       </c>
       <c r="E357" t="n">
-        <v>143.15</v>
+        <v>3</v>
+      </c>
+      <c r="F357" t="n">
+        <v>11.75</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B358" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C358" t="n">
         <v>9.01</v>
@@ -6453,15 +7527,18 @@
         <v>22.57</v>
       </c>
       <c r="E358" t="n">
-        <v>329.14</v>
+        <v>3</v>
+      </c>
+      <c r="F358" t="n">
+        <v>81.16</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C359" t="n">
         <v>9.15</v>
@@ -6470,15 +7547,18 @@
         <v>21.87</v>
       </c>
       <c r="E359" t="n">
-        <v>319.11</v>
+        <v>0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>56.79</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B360" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C360" t="n">
         <v>8.94</v>
@@ -6487,15 +7567,18 @@
         <v>22.92</v>
       </c>
       <c r="E360" t="n">
-        <v>63.81</v>
+        <v>3</v>
+      </c>
+      <c r="F360" t="n">
+        <v>356.17</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B361" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C361" t="n">
         <v>7.43</v>
@@ -6504,15 +7587,18 @@
         <v>21.43</v>
       </c>
       <c r="E361" t="n">
-        <v>65.81</v>
+        <v>1</v>
+      </c>
+      <c r="F361" t="n">
+        <v>149.37</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B362" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C362" t="n">
         <v>9.13</v>
@@ -6521,15 +7607,18 @@
         <v>21.94</v>
       </c>
       <c r="E362" t="n">
-        <v>46.76</v>
+        <v>0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>136.91</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B363" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C363" t="n">
         <v>8.78</v>
@@ -6538,15 +7627,18 @@
         <v>25.25</v>
       </c>
       <c r="E363" t="n">
-        <v>261.76</v>
+        <v>1</v>
+      </c>
+      <c r="F363" t="n">
+        <v>56.14</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B364" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C364" t="n">
         <v>9.4</v>
@@ -6555,15 +7647,18 @@
         <v>23.07</v>
       </c>
       <c r="E364" t="n">
-        <v>649.36</v>
+        <v>3</v>
+      </c>
+      <c r="F364" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C365" t="n">
         <v>8.46</v>
@@ -6572,15 +7667,18 @@
         <v>21.38</v>
       </c>
       <c r="E365" t="n">
-        <v>265.71</v>
+        <v>1</v>
+      </c>
+      <c r="F365" t="n">
+        <v>163.2</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C366" t="n">
         <v>8.92</v>
@@ -6589,15 +7687,18 @@
         <v>20.67</v>
       </c>
       <c r="E366" t="n">
-        <v>48.7</v>
+        <v>3</v>
+      </c>
+      <c r="F366" t="n">
+        <v>337.4</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C367" t="n">
         <v>9.49</v>
@@ -6606,15 +7707,18 @@
         <v>22.09</v>
       </c>
       <c r="E367" t="n">
-        <v>227.29</v>
+        <v>1</v>
+      </c>
+      <c r="F367" t="n">
+        <v>374.62</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B368" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C368" t="n">
         <v>7.93</v>
@@ -6623,15 +7727,18 @@
         <v>22.31</v>
       </c>
       <c r="E368" t="n">
-        <v>320.63</v>
+        <v>1</v>
+      </c>
+      <c r="F368" t="n">
+        <v>50.78</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B369" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C369" t="n">
         <v>7.9</v>
@@ -6640,15 +7747,18 @@
         <v>25.23</v>
       </c>
       <c r="E369" t="n">
-        <v>123.53</v>
+        <v>4</v>
+      </c>
+      <c r="F369" t="n">
+        <v>46.1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C370" t="n">
         <v>7.63</v>
@@ -6657,15 +7767,18 @@
         <v>23.23</v>
       </c>
       <c r="E370" t="n">
-        <v>138.82</v>
+        <v>3</v>
+      </c>
+      <c r="F370" t="n">
+        <v>139.97</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C371" t="n">
         <v>7.55</v>
@@ -6674,15 +7787,18 @@
         <v>23.55</v>
       </c>
       <c r="E371" t="n">
-        <v>178.19</v>
+        <v>2</v>
+      </c>
+      <c r="F371" t="n">
+        <v>127.69</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C372" t="n">
         <v>9.53</v>
@@ -6691,15 +7807,18 @@
         <v>19.94</v>
       </c>
       <c r="E372" t="n">
-        <v>350.59</v>
+        <v>1</v>
+      </c>
+      <c r="F372" t="n">
+        <v>74.24</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C373" t="n">
         <v>9.09</v>
@@ -6708,15 +7827,18 @@
         <v>23.29</v>
       </c>
       <c r="E373" t="n">
-        <v>44.06</v>
+        <v>0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>260.77</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C374" t="n">
         <v>8.33</v>
@@ -6725,15 +7847,18 @@
         <v>25.11</v>
       </c>
       <c r="E374" t="n">
-        <v>485.16</v>
+        <v>1</v>
+      </c>
+      <c r="F374" t="n">
+        <v>34.13</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C375" t="n">
         <v>9.61</v>
@@ -6742,15 +7867,18 @@
         <v>21.95</v>
       </c>
       <c r="E375" t="n">
-        <v>80.75</v>
+        <v>0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>208.68</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B376" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C376" t="n">
         <v>8.98</v>
@@ -6759,15 +7887,18 @@
         <v>22.93</v>
       </c>
       <c r="E376" t="n">
-        <v>380.82</v>
+        <v>1</v>
+      </c>
+      <c r="F376" t="n">
+        <v>268.78</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C377" t="n">
         <v>10.72</v>
@@ -6776,15 +7907,18 @@
         <v>23.27</v>
       </c>
       <c r="E377" t="n">
-        <v>215.39</v>
+        <v>0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>42.13</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B378" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C378" t="n">
         <v>9.04</v>
@@ -6793,15 +7927,18 @@
         <v>20.38</v>
       </c>
       <c r="E378" t="n">
-        <v>334.49</v>
+        <v>1</v>
+      </c>
+      <c r="F378" t="n">
+        <v>85.82</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C379" t="n">
         <v>8.23</v>
@@ -6810,15 +7947,18 @@
         <v>24.09</v>
       </c>
       <c r="E379" t="n">
-        <v>619</v>
+        <v>2</v>
+      </c>
+      <c r="F379" t="n">
+        <v>185.03</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C380" t="n">
         <v>7.86</v>
@@ -6827,15 +7967,18 @@
         <v>21.45</v>
       </c>
       <c r="E380" t="n">
-        <v>894.19</v>
+        <v>4</v>
+      </c>
+      <c r="F380" t="n">
+        <v>58.61</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B381" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C381" t="n">
         <v>8.27</v>
@@ -6844,15 +7987,18 @@
         <v>23.2</v>
       </c>
       <c r="E381" t="n">
-        <v>21.07</v>
+        <v>1</v>
+      </c>
+      <c r="F381" t="n">
+        <v>422.43</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C382" t="n">
         <v>9.22</v>
@@ -6861,15 +8007,18 @@
         <v>24.18</v>
       </c>
       <c r="E382" t="n">
-        <v>84.95</v>
+        <v>2</v>
+      </c>
+      <c r="F382" t="n">
+        <v>114.61</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B383" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C383" t="n">
         <v>10.2</v>
@@ -6878,15 +8027,18 @@
         <v>24.58</v>
       </c>
       <c r="E383" t="n">
-        <v>43.11</v>
+        <v>4</v>
+      </c>
+      <c r="F383" t="n">
+        <v>99.16</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C384" t="n">
         <v>10.82</v>
@@ -6895,15 +8047,18 @@
         <v>24.14</v>
       </c>
       <c r="E384" t="n">
-        <v>191.36</v>
+        <v>1</v>
+      </c>
+      <c r="F384" t="n">
+        <v>129.66</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C385" t="n">
         <v>9.36</v>
@@ -6912,15 +8067,18 @@
         <v>22.4</v>
       </c>
       <c r="E385" t="n">
-        <v>394.21</v>
+        <v>3</v>
+      </c>
+      <c r="F385" t="n">
+        <v>375.07</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C386" t="n">
         <v>10.1</v>
@@ -6929,15 +8087,18 @@
         <v>24.89</v>
       </c>
       <c r="E386" t="n">
-        <v>647.51</v>
+        <v>5</v>
+      </c>
+      <c r="F386" t="n">
+        <v>1278.36</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C387" t="n">
         <v>7.87</v>
@@ -6946,15 +8107,18 @@
         <v>21.66</v>
       </c>
       <c r="E387" t="n">
-        <v>100.49</v>
+        <v>3</v>
+      </c>
+      <c r="F387" t="n">
+        <v>203.98</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B388" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C388" t="n">
         <v>7.64</v>
@@ -6963,15 +8127,18 @@
         <v>23.2</v>
       </c>
       <c r="E388" t="n">
-        <v>141.78</v>
+        <v>2</v>
+      </c>
+      <c r="F388" t="n">
+        <v>359.88</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C389" t="n">
         <v>8.75</v>
@@ -6980,15 +8147,18 @@
         <v>22.89</v>
       </c>
       <c r="E389" t="n">
-        <v>44.17</v>
+        <v>0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>54.22</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C390" t="n">
         <v>9.6</v>
@@ -6997,15 +8167,18 @@
         <v>22.73</v>
       </c>
       <c r="E390" t="n">
-        <v>339.19</v>
+        <v>2</v>
+      </c>
+      <c r="F390" t="n">
+        <v>137.28</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C391" t="n">
         <v>10.24</v>
@@ -7014,15 +8187,18 @@
         <v>21.15</v>
       </c>
       <c r="E391" t="n">
-        <v>33.47</v>
+        <v>1</v>
+      </c>
+      <c r="F391" t="n">
+        <v>50.57</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B392" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C392" t="n">
         <v>9.23</v>
@@ -7031,15 +8207,18 @@
         <v>21.76</v>
       </c>
       <c r="E392" t="n">
-        <v>72.42</v>
+        <v>3</v>
+      </c>
+      <c r="F392" t="n">
+        <v>46.91</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C393" t="n">
         <v>10.42</v>
@@ -7048,15 +8227,18 @@
         <v>24.9</v>
       </c>
       <c r="E393" t="n">
-        <v>590.76</v>
+        <v>2</v>
+      </c>
+      <c r="F393" t="n">
+        <v>110.92</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B394" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C394" t="n">
         <v>10.9</v>
@@ -7065,15 +8247,18 @@
         <v>21.37</v>
       </c>
       <c r="E394" t="n">
-        <v>357.97</v>
+        <v>3</v>
+      </c>
+      <c r="F394" t="n">
+        <v>38.34</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C395" t="n">
         <v>7.36</v>
@@ -7082,15 +8267,18 @@
         <v>22.67</v>
       </c>
       <c r="E395" t="n">
-        <v>31.21</v>
+        <v>1</v>
+      </c>
+      <c r="F395" t="n">
+        <v>95.66</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C396" t="n">
         <v>7.99</v>
@@ -7099,15 +8287,18 @@
         <v>23.92</v>
       </c>
       <c r="E396" t="n">
-        <v>470.26</v>
+        <v>2</v>
+      </c>
+      <c r="F396" t="n">
+        <v>205.8</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B397" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C397" t="n">
         <v>10.3</v>
@@ -7116,15 +8307,18 @@
         <v>20.45</v>
       </c>
       <c r="E397" t="n">
-        <v>70.96</v>
+        <v>2</v>
+      </c>
+      <c r="F397" t="n">
+        <v>128.98</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C398" t="n">
         <v>8.73</v>
@@ -7133,15 +8327,18 @@
         <v>21.03</v>
       </c>
       <c r="E398" t="n">
-        <v>91.54</v>
+        <v>0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>60.7</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B399" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C399" t="n">
         <v>9.07</v>
@@ -7150,15 +8347,18 @@
         <v>20.7</v>
       </c>
       <c r="E399" t="n">
-        <v>83.58</v>
+        <v>3</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1370.14</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C400" t="n">
         <v>9.3</v>
@@ -7167,15 +8367,18 @@
         <v>19.31</v>
       </c>
       <c r="E400" t="n">
-        <v>84.02</v>
+        <v>2</v>
+      </c>
+      <c r="F400" t="n">
+        <v>52.11</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C401" t="n">
         <v>9.25</v>
@@ -7184,7 +8387,10 @@
         <v>27.1</v>
       </c>
       <c r="E401" t="n">
-        <v>27.51</v>
+        <v>1</v>
+      </c>
+      <c r="F401" t="n">
+        <v>26.63</v>
       </c>
     </row>
   </sheetData>
